--- a/Shablon/34461A.xlsx
+++ b/Shablon/34461A.xlsx
@@ -14,27 +14,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$H$139</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="169">
-  <si>
-    <t>АО "Гос МКБ "Вымпел" им. И.И. Торопова"</t>
-  </si>
-  <si>
-    <t>СГМетр, лаборатория средств электрорадиотехнических измерений</t>
-  </si>
-  <si>
-    <t>125424, г.Москва, Волоколамское шоссе, дом 90, стр. 23</t>
-  </si>
-  <si>
-    <t>Аттестат аккредитации № РОСС СОБ 3.00231.2014</t>
-  </si>
-  <si>
-    <t>Тел.+7 (495) 491-05-31, 22-68, e-mail: ogmetr@vympelmkb.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="165">
   <si>
     <t>Условия проведения калибровки:</t>
   </si>
@@ -589,11 +574,14 @@
   <si>
     <t>10 А</t>
   </si>
+  <si>
+    <t>TITLE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="8">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
@@ -1011,13 +999,88 @@
     <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1026,13 +1089,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1041,75 +1098,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1418,8 +1406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O133"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A103" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="G123" sqref="G123"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1432,68 +1420,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
+      <c r="A1" s="94"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
+      <c r="A3" s="94" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="72" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
+      <c r="A5" s="97"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1508,16 +1488,16 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="77" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
+      <c r="A7" s="100" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1532,29 +1512,29 @@
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="76" t="s">
-        <v>113</v>
-      </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
+      <c r="A9" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
       <c r="D9" s="45" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E9" s="46"/>
       <c r="F9" s="47" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G9" s="47"/>
       <c r="H9" s="48"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="76" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
+      <c r="A10" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="99"/>
+      <c r="C10" s="99"/>
       <c r="D10" s="49" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="46"/>
@@ -1562,11 +1542,11 @@
       <c r="H10" s="48"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="76" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
+      <c r="A11" s="99" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
       <c r="D11" s="45"/>
       <c r="E11" s="46"/>
       <c r="F11" s="46"/>
@@ -1574,11 +1554,11 @@
       <c r="H11" s="48"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="76" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
+      <c r="A12" s="99" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="99"/>
+      <c r="C12" s="99"/>
       <c r="D12" s="50"/>
       <c r="E12" s="46"/>
       <c r="F12" s="46"/>
@@ -1586,13 +1566,13 @@
       <c r="H12" s="48"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="76" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
+      <c r="A13" s="99" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
       <c r="D13" s="49" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E13" s="46"/>
       <c r="F13" s="46"/>
@@ -1600,13 +1580,13 @@
       <c r="H13" s="48"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="76" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
+      <c r="A14" s="99" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
       <c r="D14" s="51" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E14" s="46"/>
       <c r="F14" s="46"/>
@@ -1614,13 +1594,13 @@
       <c r="H14" s="48"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="76" t="s">
-        <v>121</v>
-      </c>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
+      <c r="A15" s="99" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
       <c r="D15" s="45" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E15" s="46"/>
       <c r="F15" s="46"/>
@@ -1633,99 +1613,99 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="98"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="95"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="84"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="96" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="96"/>
+      <c r="F19" s="86" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="87"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="74"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="70" t="s">
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="96" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="96"/>
+      <c r="F20" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70" t="s">
+      <c r="G20" s="87"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="70"/>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="81" t="s">
+      <c r="B21" s="84"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="92"/>
+      <c r="F21" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="82"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="71"/>
-      <c r="F19" s="73" t="s">
+      <c r="G21" s="87"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="75"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="84" t="s">
+      <c r="B22" s="84"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="71"/>
-      <c r="F20" s="73" t="s">
+      <c r="G22" s="87"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="84"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="75"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="82"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="87" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="88"/>
-      <c r="F21" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="75"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="82"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="73" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="75"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="82"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="75"/>
+      <c r="G23" s="87"/>
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1740,7 +1720,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B25" s="43"/>
       <c r="C25" s="43"/>
@@ -1762,17 +1742,17 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -1796,7 +1776,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -1809,18 +1789,18 @@
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="69" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B34" s="69" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C34" s="69"/>
       <c r="D34" s="69" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E34" s="69"/>
       <c r="F34" s="69" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G34" s="69"/>
       <c r="I34" s="13"/>
@@ -1832,28 +1812,28 @@
       <c r="D35" s="69"/>
       <c r="E35" s="69"/>
       <c r="F35" s="60" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G35" s="60" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I35" s="13"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="69" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B36" s="64">
         <v>100</v>
       </c>
-      <c r="C36" s="78" t="s">
-        <v>137</v>
+      <c r="C36" s="75" t="s">
+        <v>132</v>
       </c>
       <c r="D36" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="E36" s="78" t="s">
-        <v>137</v>
+        <v>47</v>
+      </c>
+      <c r="E36" s="75" t="s">
+        <v>132</v>
       </c>
       <c r="F36" s="15">
         <f>100-0.0085</f>
@@ -1870,11 +1850,11 @@
       <c r="B37" s="64">
         <v>-100</v>
       </c>
-      <c r="C37" s="78"/>
+      <c r="C37" s="75"/>
       <c r="D37" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="78"/>
+        <v>48</v>
+      </c>
+      <c r="E37" s="75"/>
       <c r="F37" s="15">
         <f>-100-0.0085</f>
         <v>-100.0085</v>
@@ -1887,19 +1867,19 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="69" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B38" s="64">
         <v>1</v>
       </c>
-      <c r="C38" s="78" t="s">
-        <v>139</v>
+      <c r="C38" s="75" t="s">
+        <v>134</v>
       </c>
       <c r="D38" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="E38" s="97" t="s">
-        <v>139</v>
+        <v>49</v>
+      </c>
+      <c r="E38" s="72" t="s">
+        <v>134</v>
       </c>
       <c r="F38" s="59">
         <f>1-0.000047</f>
@@ -1916,11 +1896,11 @@
       <c r="B39" s="64">
         <v>-1</v>
       </c>
-      <c r="C39" s="78"/>
+      <c r="C39" s="75"/>
       <c r="D39" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" s="97"/>
+        <v>50</v>
+      </c>
+      <c r="E39" s="72"/>
       <c r="F39" s="59">
         <f>-1-0.000047</f>
         <v>-1.0000469999999999</v>
@@ -1933,16 +1913,16 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="69" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B40" s="64">
         <v>4</v>
       </c>
-      <c r="C40" s="78"/>
+      <c r="C40" s="75"/>
       <c r="D40" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="E40" s="97"/>
+        <v>51</v>
+      </c>
+      <c r="E40" s="72"/>
       <c r="F40" s="52">
         <f>4-0.00019</f>
         <v>3.9998100000000001</v>
@@ -1958,11 +1938,11 @@
       <c r="B41" s="64">
         <v>10</v>
       </c>
-      <c r="C41" s="78"/>
+      <c r="C41" s="75"/>
       <c r="D41" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="E41" s="97"/>
+        <v>52</v>
+      </c>
+      <c r="E41" s="72"/>
       <c r="F41" s="15">
         <f>10-0.0004</f>
         <v>9.9995999999999992</v>
@@ -1978,11 +1958,11 @@
       <c r="B42" s="64">
         <v>-10</v>
       </c>
-      <c r="C42" s="78"/>
+      <c r="C42" s="75"/>
       <c r="D42" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="E42" s="97"/>
+        <v>53</v>
+      </c>
+      <c r="E42" s="72"/>
       <c r="F42" s="15">
         <f>-10-0.0004</f>
         <v>-10.000400000000001</v>
@@ -1995,16 +1975,16 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="69" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B43" s="64">
         <v>100</v>
       </c>
-      <c r="C43" s="78"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="E43" s="97"/>
+        <v>54</v>
+      </c>
+      <c r="E43" s="72"/>
       <c r="F43" s="15">
         <f>100-0.0051</f>
         <v>99.994900000000001</v>
@@ -2020,11 +2000,11 @@
       <c r="B44" s="64">
         <v>-100</v>
       </c>
-      <c r="C44" s="78"/>
+      <c r="C44" s="75"/>
       <c r="D44" s="66" t="s">
-        <v>60</v>
-      </c>
-      <c r="E44" s="97"/>
+        <v>55</v>
+      </c>
+      <c r="E44" s="72"/>
       <c r="F44" s="15">
         <f>-100-0.0051</f>
         <v>-100.0051</v>
@@ -2036,17 +2016,17 @@
       <c r="I44" s="16"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="89" t="s">
-        <v>142</v>
+      <c r="A45" s="93" t="s">
+        <v>137</v>
       </c>
       <c r="B45" s="64">
         <v>1000</v>
       </c>
-      <c r="C45" s="78"/>
+      <c r="C45" s="75"/>
       <c r="D45" s="66" t="s">
-        <v>61</v>
-      </c>
-      <c r="E45" s="97"/>
+        <v>56</v>
+      </c>
+      <c r="E45" s="72"/>
       <c r="F45" s="17">
         <f>1000-0.055</f>
         <v>999.94500000000005</v>
@@ -2058,15 +2038,15 @@
       <c r="I45" s="16"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="89"/>
+      <c r="A46" s="93"/>
       <c r="B46" s="64">
         <v>-500</v>
       </c>
-      <c r="C46" s="78"/>
+      <c r="C46" s="75"/>
       <c r="D46" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="E46" s="97"/>
+        <v>57</v>
+      </c>
+      <c r="E46" s="72"/>
       <c r="F46" s="15">
         <f>-500-0.0325</f>
         <v>-500.03250000000003</v>
@@ -2079,7 +2059,7 @@
     </row>
     <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -2091,21 +2071,21 @@
     </row>
     <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="69" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B49" s="69" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C49" s="69"/>
       <c r="D49" s="69" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E49" s="69" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F49" s="69"/>
       <c r="G49" s="69" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H49" s="69"/>
     </row>
@@ -2117,30 +2097,30 @@
       <c r="E50" s="69"/>
       <c r="F50" s="69"/>
       <c r="G50" s="60" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H50" s="60" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="90" t="s">
-        <v>136</v>
-      </c>
-      <c r="B51" s="91">
+      <c r="A51" s="78" t="s">
+        <v>131</v>
+      </c>
+      <c r="B51" s="77">
         <v>100</v>
       </c>
-      <c r="C51" s="92" t="s">
-        <v>137</v>
+      <c r="C51" s="76" t="s">
+        <v>132</v>
       </c>
       <c r="D51" s="63" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E51" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="F51" s="92" t="s">
-        <v>137</v>
+        <v>58</v>
+      </c>
+      <c r="F51" s="76" t="s">
+        <v>132</v>
       </c>
       <c r="G51" s="18">
         <f>100-0.09</f>
@@ -2152,16 +2132,16 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="90"/>
-      <c r="B52" s="91"/>
-      <c r="C52" s="92"/>
+      <c r="A52" s="78"/>
+      <c r="B52" s="77"/>
+      <c r="C52" s="76"/>
       <c r="D52" s="63" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E52" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="F52" s="92"/>
+        <v>59</v>
+      </c>
+      <c r="F52" s="76"/>
       <c r="G52" s="18">
         <f>100-0.17</f>
         <v>99.83</v>
@@ -2172,16 +2152,16 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="90"/>
-      <c r="B53" s="91"/>
-      <c r="C53" s="92"/>
+      <c r="A53" s="78"/>
+      <c r="B53" s="77"/>
+      <c r="C53" s="76"/>
       <c r="D53" s="63" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E53" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="F53" s="92"/>
+        <v>60</v>
+      </c>
+      <c r="F53" s="76"/>
       <c r="G53" s="18">
         <f>100-4.5</f>
         <v>95.5</v>
@@ -2192,23 +2172,23 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="95" t="s">
-        <v>138</v>
-      </c>
-      <c r="B54" s="91">
+      <c r="A54" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" s="77">
         <v>1</v>
       </c>
-      <c r="C54" s="92" t="s">
-        <v>139</v>
+      <c r="C54" s="76" t="s">
+        <v>134</v>
       </c>
       <c r="D54" s="63" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E54" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="F54" s="92" t="s">
-        <v>139</v>
+        <v>61</v>
+      </c>
+      <c r="F54" s="76" t="s">
+        <v>134</v>
       </c>
       <c r="G54" s="15">
         <f>1-0.0009</f>
@@ -2220,16 +2200,16 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="95"/>
-      <c r="B55" s="91"/>
-      <c r="C55" s="92"/>
+      <c r="A55" s="68"/>
+      <c r="B55" s="77"/>
+      <c r="C55" s="76"/>
       <c r="D55" s="63" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E55" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="F55" s="92"/>
+        <v>62</v>
+      </c>
+      <c r="F55" s="76"/>
       <c r="G55" s="17">
         <f>1-0.0017</f>
         <v>0.99829999999999997</v>
@@ -2240,16 +2220,16 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="95"/>
-      <c r="B56" s="91"/>
-      <c r="C56" s="92"/>
+      <c r="A56" s="68"/>
+      <c r="B56" s="77"/>
+      <c r="C56" s="76"/>
       <c r="D56" s="63" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E56" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="F56" s="92"/>
+        <v>63</v>
+      </c>
+      <c r="F56" s="76"/>
       <c r="G56" s="17">
         <f>1-0.045</f>
         <v>0.95499999999999996</v>
@@ -2260,23 +2240,23 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="95" t="s">
-        <v>140</v>
+      <c r="A57" s="68" t="s">
+        <v>135</v>
       </c>
       <c r="B57" s="63">
         <v>30</v>
       </c>
       <c r="C57" s="63" t="s">
-        <v>137</v>
-      </c>
-      <c r="D57" s="96" t="s">
-        <v>21</v>
+        <v>132</v>
+      </c>
+      <c r="D57" s="71" t="s">
+        <v>16</v>
       </c>
       <c r="E57" s="67" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F57" s="63" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G57" s="17">
         <f>30-0.003</f>
@@ -2288,19 +2268,19 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="95"/>
+      <c r="A58" s="68"/>
       <c r="B58" s="63">
         <v>1</v>
       </c>
-      <c r="C58" s="96" t="s">
-        <v>139</v>
-      </c>
-      <c r="D58" s="96"/>
+      <c r="C58" s="71" t="s">
+        <v>134</v>
+      </c>
+      <c r="D58" s="71"/>
       <c r="E58" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="F58" s="96" t="s">
-        <v>139</v>
+        <v>65</v>
+      </c>
+      <c r="F58" s="71" t="s">
+        <v>134</v>
       </c>
       <c r="G58" s="15">
         <f>1-0.0036</f>
@@ -2312,18 +2292,18 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="95"/>
-      <c r="B59" s="96">
+      <c r="A59" s="68"/>
+      <c r="B59" s="71">
         <v>10</v>
       </c>
-      <c r="C59" s="96"/>
+      <c r="C59" s="71"/>
       <c r="D59" s="63" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E59" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="F59" s="96"/>
+        <v>66</v>
+      </c>
+      <c r="F59" s="71"/>
       <c r="G59" s="17">
         <f>10-0.009</f>
         <v>9.9909999999999997</v>
@@ -2334,16 +2314,16 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="95"/>
-      <c r="B60" s="96"/>
-      <c r="C60" s="96"/>
+      <c r="A60" s="68"/>
+      <c r="B60" s="71"/>
+      <c r="C60" s="71"/>
       <c r="D60" s="63" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E60" s="67" t="s">
-        <v>72</v>
-      </c>
-      <c r="F60" s="96"/>
+        <v>67</v>
+      </c>
+      <c r="F60" s="71"/>
       <c r="G60" s="17">
         <f>10-0.009</f>
         <v>9.9909999999999997</v>
@@ -2354,16 +2334,16 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="95"/>
-      <c r="B61" s="96"/>
-      <c r="C61" s="96"/>
+      <c r="A61" s="68"/>
+      <c r="B61" s="71"/>
+      <c r="C61" s="71"/>
       <c r="D61" s="63" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E61" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="F61" s="96"/>
+        <v>68</v>
+      </c>
+      <c r="F61" s="71"/>
       <c r="G61" s="17">
         <f>10-0.009</f>
         <v>9.9909999999999997</v>
@@ -2374,16 +2354,16 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="95"/>
-      <c r="B62" s="96"/>
-      <c r="C62" s="96"/>
+      <c r="A62" s="68"/>
+      <c r="B62" s="71"/>
+      <c r="C62" s="71"/>
       <c r="D62" s="63" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E62" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="F62" s="96"/>
+        <v>69</v>
+      </c>
+      <c r="F62" s="71"/>
       <c r="G62" s="18">
         <f>10-0.017</f>
         <v>9.9830000000000005</v>
@@ -2394,16 +2374,16 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="95"/>
-      <c r="B63" s="96"/>
-      <c r="C63" s="96"/>
+      <c r="A63" s="68"/>
+      <c r="B63" s="71"/>
+      <c r="C63" s="71"/>
       <c r="D63" s="63" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E63" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="F63" s="96"/>
+        <v>70</v>
+      </c>
+      <c r="F63" s="71"/>
       <c r="G63" s="17">
         <f>10-0.068</f>
         <v>9.9320000000000004</v>
@@ -2414,16 +2394,16 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="95"/>
-      <c r="B64" s="96"/>
-      <c r="C64" s="96"/>
+      <c r="A64" s="68"/>
+      <c r="B64" s="71"/>
+      <c r="C64" s="71"/>
       <c r="D64" s="63" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E64" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="F64" s="96"/>
+        <v>71</v>
+      </c>
+      <c r="F64" s="71"/>
       <c r="G64" s="18">
         <f>10-0.45</f>
         <v>9.5500000000000007</v>
@@ -2434,23 +2414,23 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="95" t="s">
-        <v>141</v>
-      </c>
-      <c r="B65" s="96">
+      <c r="A65" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" s="71">
         <v>100</v>
       </c>
-      <c r="C65" s="96" t="s">
-        <v>139</v>
+      <c r="C65" s="71" t="s">
+        <v>134</v>
       </c>
       <c r="D65" s="63" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E65" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="F65" s="96" t="s">
-        <v>139</v>
+        <v>72</v>
+      </c>
+      <c r="F65" s="71" t="s">
+        <v>134</v>
       </c>
       <c r="G65" s="18">
         <f>100-0.09</f>
@@ -2462,16 +2442,16 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="95"/>
-      <c r="B66" s="96"/>
-      <c r="C66" s="96"/>
+      <c r="A66" s="68"/>
+      <c r="B66" s="71"/>
+      <c r="C66" s="71"/>
       <c r="D66" s="63" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E66" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="F66" s="96"/>
+        <v>73</v>
+      </c>
+      <c r="F66" s="71"/>
       <c r="G66" s="64">
         <f>100-0.17</f>
         <v>99.83</v>
@@ -2482,18 +2462,18 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="95"/>
+      <c r="A67" s="68"/>
       <c r="B67" s="63">
         <v>70</v>
       </c>
-      <c r="C67" s="96"/>
+      <c r="C67" s="71"/>
       <c r="D67" s="63" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E67" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="F67" s="96"/>
+        <v>74</v>
+      </c>
+      <c r="F67" s="71"/>
       <c r="G67" s="64">
         <f>70-3.3</f>
         <v>66.7</v>
@@ -2504,23 +2484,23 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="95" t="s">
-        <v>144</v>
+      <c r="A68" s="68" t="s">
+        <v>139</v>
       </c>
       <c r="B68" s="63">
         <v>750</v>
       </c>
-      <c r="C68" s="96" t="s">
-        <v>139</v>
+      <c r="C68" s="71" t="s">
+        <v>134</v>
       </c>
       <c r="D68" s="63" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E68" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="F68" s="96" t="s">
-        <v>139</v>
+        <v>75</v>
+      </c>
+      <c r="F68" s="71" t="s">
+        <v>134</v>
       </c>
       <c r="G68" s="64">
         <f>750-0.675</f>
@@ -2532,18 +2512,18 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="95"/>
+      <c r="A69" s="68"/>
       <c r="B69" s="63">
         <v>210</v>
       </c>
-      <c r="C69" s="96"/>
+      <c r="C69" s="71"/>
       <c r="D69" s="63" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E69" s="67" t="s">
-        <v>81</v>
-      </c>
-      <c r="F69" s="96"/>
+        <v>76</v>
+      </c>
+      <c r="F69" s="71"/>
       <c r="G69" s="18">
         <f>210-0.627</f>
         <v>209.37299999999999</v>
@@ -2554,18 +2534,18 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="95"/>
+      <c r="A70" s="68"/>
       <c r="B70" s="63">
         <v>70</v>
       </c>
-      <c r="C70" s="96"/>
+      <c r="C70" s="71"/>
       <c r="D70" s="63" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E70" s="67" t="s">
-        <v>82</v>
-      </c>
-      <c r="F70" s="96"/>
+        <v>77</v>
+      </c>
+      <c r="F70" s="71"/>
       <c r="G70" s="64">
         <f>70-6.6</f>
         <v>63.4</v>
@@ -2585,7 +2565,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="25" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="21"/>
@@ -2595,18 +2575,18 @@
     </row>
     <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="69" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B73" s="69" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C73" s="69"/>
       <c r="D73" s="69" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E73" s="69"/>
       <c r="F73" s="69" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G73" s="69"/>
     </row>
@@ -2617,27 +2597,27 @@
       <c r="D74" s="69"/>
       <c r="E74" s="69"/>
       <c r="F74" s="60" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G74" s="60" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="62" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B75" s="62">
         <v>100</v>
       </c>
       <c r="C75" s="65" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D75" s="67" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E75" s="65" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F75" s="17">
         <f>100-0.075</f>
@@ -2650,19 +2630,19 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="62" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B76" s="62">
         <v>1</v>
       </c>
-      <c r="C76" s="78" t="s">
-        <v>149</v>
+      <c r="C76" s="75" t="s">
+        <v>144</v>
       </c>
       <c r="D76" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="E76" s="78" t="s">
-        <v>149</v>
+        <v>79</v>
+      </c>
+      <c r="E76" s="75" t="s">
+        <v>144</v>
       </c>
       <c r="F76" s="52">
         <f>1-0.00056</f>
@@ -2675,16 +2655,16 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="62" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B77" s="62">
         <v>10</v>
       </c>
-      <c r="C77" s="78"/>
+      <c r="C77" s="75"/>
       <c r="D77" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="E77" s="78"/>
+        <v>80</v>
+      </c>
+      <c r="E77" s="75"/>
       <c r="F77" s="17">
         <f>10-0.007</f>
         <v>9.9930000000000003</v>
@@ -2696,16 +2676,16 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="62" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B78" s="62">
         <v>100</v>
       </c>
-      <c r="C78" s="78"/>
+      <c r="C78" s="75"/>
       <c r="D78" s="67" t="s">
-        <v>86</v>
-      </c>
-      <c r="E78" s="78"/>
+        <v>81</v>
+      </c>
+      <c r="E78" s="75"/>
       <c r="F78" s="17">
         <f>100-0.055</f>
         <v>99.944999999999993</v>
@@ -2717,19 +2697,19 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="62" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B79" s="62">
         <v>1</v>
       </c>
-      <c r="C79" s="78" t="s">
-        <v>153</v>
+      <c r="C79" s="75" t="s">
+        <v>148</v>
       </c>
       <c r="D79" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="E79" s="78" t="s">
-        <v>153</v>
+        <v>82</v>
+      </c>
+      <c r="E79" s="75" t="s">
+        <v>148</v>
       </c>
       <c r="F79" s="15">
         <f>1-0.0011</f>
@@ -2742,16 +2722,16 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="62" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B80" s="62">
         <v>2</v>
       </c>
-      <c r="C80" s="78"/>
+      <c r="C80" s="75"/>
       <c r="D80" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="E80" s="78"/>
+        <v>83</v>
+      </c>
+      <c r="E80" s="75"/>
       <c r="F80" s="15">
         <f>2-0.0046</f>
         <v>1.9954000000000001</v>
@@ -2762,17 +2742,17 @@
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81" s="95">
+      <c r="A81" s="68">
         <v>10</v>
       </c>
       <c r="B81" s="62">
         <v>5</v>
       </c>
-      <c r="C81" s="78"/>
+      <c r="C81" s="75"/>
       <c r="D81" s="67" t="s">
-        <v>126</v>
-      </c>
-      <c r="E81" s="78"/>
+        <v>121</v>
+      </c>
+      <c r="E81" s="75"/>
       <c r="F81" s="17">
         <f>5-0.012</f>
         <v>4.9880000000000004</v>
@@ -2783,15 +2763,15 @@
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A82" s="95"/>
+      <c r="A82" s="68"/>
       <c r="B82" s="62">
         <v>10</v>
       </c>
-      <c r="C82" s="78"/>
+      <c r="C82" s="75"/>
       <c r="D82" s="67" t="s">
-        <v>127</v>
-      </c>
-      <c r="E82" s="78"/>
+        <v>122</v>
+      </c>
+      <c r="E82" s="75"/>
       <c r="F82" s="17">
         <f>10-0.022</f>
         <v>9.9779999999999998</v>
@@ -2811,7 +2791,7 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="25" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B84" s="19"/>
       <c r="C84" s="21"/>
@@ -2821,21 +2801,21 @@
     </row>
     <row r="85" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="69" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B85" s="69" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C85" s="69"/>
       <c r="D85" s="69" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E85" s="69" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F85" s="69"/>
       <c r="G85" s="69" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H85" s="69"/>
       <c r="J85" s="53"/>
@@ -2853,10 +2833,10 @@
       <c r="E86" s="69"/>
       <c r="F86" s="69"/>
       <c r="G86" s="60" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H86" s="60" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J86" s="53"/>
       <c r="K86" s="53"/>
@@ -2866,29 +2846,29 @@
       <c r="O86" s="53"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A87" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="B87" s="95">
+      <c r="A87" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="B87" s="68">
         <v>100</v>
       </c>
-      <c r="C87" s="78" t="s">
-        <v>147</v>
+      <c r="C87" s="75" t="s">
+        <v>142</v>
       </c>
       <c r="D87" s="63" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E87" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="F87" s="78" t="s">
-        <v>147</v>
-      </c>
-      <c r="G87" s="98">
+        <v>84</v>
+      </c>
+      <c r="F87" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="G87" s="73">
         <f>100-0.14</f>
         <v>99.86</v>
       </c>
-      <c r="H87" s="98">
+      <c r="H87" s="73">
         <f>100+0.14</f>
         <v>100.14</v>
       </c>
@@ -2900,18 +2880,18 @@
       <c r="O87" s="24"/>
     </row>
     <row r="88" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="95"/>
-      <c r="B88" s="95"/>
-      <c r="C88" s="78"/>
+      <c r="A88" s="68"/>
+      <c r="B88" s="68"/>
+      <c r="C88" s="75"/>
       <c r="D88" s="63" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E88" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="F88" s="78"/>
-      <c r="G88" s="98"/>
-      <c r="H88" s="98"/>
+        <v>85</v>
+      </c>
+      <c r="F88" s="75"/>
+      <c r="G88" s="73"/>
+      <c r="H88" s="73"/>
       <c r="J88" s="10"/>
       <c r="K88" s="19"/>
       <c r="L88" s="19"/>
@@ -2920,29 +2900,29 @@
       <c r="O88" s="24"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89" s="95" t="s">
-        <v>148</v>
-      </c>
-      <c r="B89" s="95">
+      <c r="A89" s="68" t="s">
+        <v>143</v>
+      </c>
+      <c r="B89" s="68">
         <v>1</v>
       </c>
-      <c r="C89" s="96" t="s">
-        <v>149</v>
+      <c r="C89" s="71" t="s">
+        <v>144</v>
       </c>
       <c r="D89" s="63" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E89" s="67" t="s">
-        <v>91</v>
-      </c>
-      <c r="F89" s="96" t="s">
-        <v>149</v>
-      </c>
-      <c r="G89" s="97">
+        <v>86</v>
+      </c>
+      <c r="F89" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="G89" s="72">
         <f>1-0.0014</f>
         <v>0.99860000000000004</v>
       </c>
-      <c r="H89" s="95">
+      <c r="H89" s="68">
         <f>1+0.0014</f>
         <v>1.0014000000000001</v>
       </c>
@@ -2954,18 +2934,18 @@
       <c r="O89" s="24"/>
     </row>
     <row r="90" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="95"/>
-      <c r="B90" s="95"/>
-      <c r="C90" s="96"/>
+      <c r="A90" s="68"/>
+      <c r="B90" s="68"/>
+      <c r="C90" s="71"/>
       <c r="D90" s="63" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E90" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="F90" s="96"/>
-      <c r="G90" s="97"/>
-      <c r="H90" s="95"/>
+        <v>87</v>
+      </c>
+      <c r="F90" s="71"/>
+      <c r="G90" s="72"/>
+      <c r="H90" s="68"/>
       <c r="J90" s="10"/>
       <c r="K90" s="10"/>
       <c r="L90" s="19"/>
@@ -2974,23 +2954,23 @@
       <c r="O90" s="24"/>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A91" s="95" t="s">
-        <v>150</v>
+      <c r="A91" s="68" t="s">
+        <v>145</v>
       </c>
       <c r="B91" s="62">
         <v>100</v>
       </c>
       <c r="C91" s="63" t="s">
-        <v>147</v>
-      </c>
-      <c r="D91" s="96" t="s">
-        <v>21</v>
+        <v>142</v>
+      </c>
+      <c r="D91" s="71" t="s">
+        <v>16</v>
       </c>
       <c r="E91" s="67" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F91" s="63" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G91" s="64">
         <f>100-4.1</f>
@@ -3008,19 +2988,19 @@
       <c r="O91" s="24"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92" s="95"/>
+      <c r="A92" s="68"/>
       <c r="B92" s="62">
         <v>1</v>
       </c>
-      <c r="C92" s="96" t="s">
-        <v>149</v>
-      </c>
-      <c r="D92" s="96"/>
+      <c r="C92" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="D92" s="71"/>
       <c r="E92" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="F92" s="96" t="s">
-        <v>149</v>
+        <v>89</v>
+      </c>
+      <c r="F92" s="71" t="s">
+        <v>144</v>
       </c>
       <c r="G92" s="17">
         <f>1-0.005</f>
@@ -3038,21 +3018,21 @@
       <c r="O92" s="24"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93" s="95"/>
-      <c r="B93" s="95">
+      <c r="A93" s="68"/>
+      <c r="B93" s="68">
         <v>10</v>
       </c>
-      <c r="C93" s="96"/>
-      <c r="D93" s="96"/>
+      <c r="C93" s="71"/>
+      <c r="D93" s="71"/>
       <c r="E93" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="F93" s="96"/>
-      <c r="G93" s="99">
+        <v>90</v>
+      </c>
+      <c r="F93" s="71"/>
+      <c r="G93" s="74">
         <f>10-0.014</f>
         <v>9.9860000000000007</v>
       </c>
-      <c r="H93" s="95">
+      <c r="H93" s="68">
         <f>10+0.014</f>
         <v>10.013999999999999</v>
       </c>
@@ -3064,18 +3044,18 @@
       <c r="O93" s="24"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94" s="95"/>
-      <c r="B94" s="95"/>
-      <c r="C94" s="96"/>
+      <c r="A94" s="68"/>
+      <c r="B94" s="68"/>
+      <c r="C94" s="71"/>
       <c r="D94" s="63" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E94" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="F94" s="96"/>
-      <c r="G94" s="99"/>
-      <c r="H94" s="95"/>
+        <v>91</v>
+      </c>
+      <c r="F94" s="71"/>
+      <c r="G94" s="74"/>
+      <c r="H94" s="68"/>
       <c r="J94" s="10"/>
       <c r="K94" s="19"/>
       <c r="L94" s="19"/>
@@ -3084,29 +3064,29 @@
       <c r="O94" s="24"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A95" s="95" t="s">
-        <v>151</v>
-      </c>
-      <c r="B95" s="96">
+      <c r="A95" s="68" t="s">
+        <v>146</v>
+      </c>
+      <c r="B95" s="71">
         <v>100</v>
       </c>
-      <c r="C95" s="96" t="s">
-        <v>149</v>
+      <c r="C95" s="71" t="s">
+        <v>144</v>
       </c>
       <c r="D95" s="63" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E95" s="67" t="s">
-        <v>97</v>
-      </c>
-      <c r="F95" s="96" t="s">
-        <v>149</v>
-      </c>
-      <c r="G95" s="98">
+        <v>92</v>
+      </c>
+      <c r="F95" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="G95" s="73">
         <f>100-0.14</f>
         <v>99.86</v>
       </c>
-      <c r="H95" s="95">
+      <c r="H95" s="68">
         <f>100+0.14</f>
         <v>100.14</v>
       </c>
@@ -3118,18 +3098,18 @@
       <c r="O95" s="24"/>
     </row>
     <row r="96" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="95"/>
-      <c r="B96" s="96"/>
-      <c r="C96" s="96"/>
+      <c r="A96" s="68"/>
+      <c r="B96" s="71"/>
+      <c r="C96" s="71"/>
       <c r="D96" s="63" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E96" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="F96" s="96"/>
-      <c r="G96" s="98"/>
-      <c r="H96" s="95"/>
+        <v>93</v>
+      </c>
+      <c r="F96" s="71"/>
+      <c r="G96" s="73"/>
+      <c r="H96" s="68"/>
       <c r="J96" s="10"/>
       <c r="K96" s="19"/>
       <c r="L96" s="19"/>
@@ -3138,18 +3118,18 @@
       <c r="O96" s="24"/>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A97" s="95"/>
-      <c r="B97" s="96"/>
-      <c r="C97" s="96"/>
+      <c r="A97" s="68"/>
+      <c r="B97" s="71"/>
+      <c r="C97" s="71"/>
       <c r="D97" s="63" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E97" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="F97" s="96"/>
-      <c r="G97" s="98"/>
-      <c r="H97" s="95"/>
+        <v>94</v>
+      </c>
+      <c r="F97" s="71"/>
+      <c r="G97" s="73"/>
+      <c r="H97" s="68"/>
       <c r="J97" s="10"/>
       <c r="K97" s="19"/>
       <c r="L97" s="19"/>
@@ -3158,29 +3138,29 @@
       <c r="O97" s="24"/>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A98" s="95" t="s">
-        <v>152</v>
-      </c>
-      <c r="B98" s="95">
+      <c r="A98" s="68" t="s">
+        <v>147</v>
+      </c>
+      <c r="B98" s="68">
         <v>1</v>
       </c>
-      <c r="C98" s="96" t="s">
-        <v>153</v>
+      <c r="C98" s="71" t="s">
+        <v>148</v>
       </c>
       <c r="D98" s="63" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E98" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="F98" s="96" t="s">
-        <v>153</v>
-      </c>
-      <c r="G98" s="97">
+        <v>95</v>
+      </c>
+      <c r="F98" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="G98" s="72">
         <f>1-0.0014</f>
         <v>0.99860000000000004</v>
       </c>
-      <c r="H98" s="95">
+      <c r="H98" s="68">
         <f>1+0.0014</f>
         <v>1.0014000000000001</v>
       </c>
@@ -3192,18 +3172,18 @@
       <c r="O98" s="24"/>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A99" s="95"/>
-      <c r="B99" s="95"/>
-      <c r="C99" s="96"/>
+      <c r="A99" s="68"/>
+      <c r="B99" s="68"/>
+      <c r="C99" s="71"/>
       <c r="D99" s="63" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E99" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="F99" s="96"/>
-      <c r="G99" s="97"/>
-      <c r="H99" s="95"/>
+        <v>96</v>
+      </c>
+      <c r="F99" s="71"/>
+      <c r="G99" s="72"/>
+      <c r="H99" s="68"/>
       <c r="J99" s="10"/>
       <c r="K99" s="19"/>
       <c r="L99" s="19"/>
@@ -3212,29 +3192,29 @@
       <c r="O99" s="24"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A100" s="95" t="s">
-        <v>154</v>
-      </c>
-      <c r="B100" s="95">
+      <c r="A100" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="B100" s="68">
         <v>2</v>
       </c>
-      <c r="C100" s="96" t="s">
-        <v>153</v>
+      <c r="C100" s="71" t="s">
+        <v>148</v>
       </c>
       <c r="D100" s="63" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E100" s="67" t="s">
-        <v>102</v>
-      </c>
-      <c r="F100" s="96" t="s">
-        <v>153</v>
-      </c>
-      <c r="G100" s="97">
+        <v>97</v>
+      </c>
+      <c r="F100" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="G100" s="72">
         <f>2-0.0058</f>
         <v>1.9942</v>
       </c>
-      <c r="H100" s="95">
+      <c r="H100" s="68">
         <f>2+0.0058</f>
         <v>2.0057999999999998</v>
       </c>
@@ -3246,18 +3226,18 @@
       <c r="O100" s="24"/>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A101" s="95"/>
-      <c r="B101" s="95"/>
-      <c r="C101" s="96"/>
+      <c r="A101" s="68"/>
+      <c r="B101" s="68"/>
+      <c r="C101" s="71"/>
       <c r="D101" s="63" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E101" s="67" t="s">
-        <v>103</v>
-      </c>
-      <c r="F101" s="96"/>
-      <c r="G101" s="97"/>
-      <c r="H101" s="95"/>
+        <v>98</v>
+      </c>
+      <c r="F101" s="71"/>
+      <c r="G101" s="72"/>
+      <c r="H101" s="68"/>
       <c r="J101" s="10"/>
       <c r="K101" s="19"/>
       <c r="L101" s="19"/>
@@ -3267,22 +3247,22 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="62" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B102" s="62">
         <v>10</v>
       </c>
       <c r="C102" s="62" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D102" s="63" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E102" s="67" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F102" s="62" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G102" s="61">
         <f>10-0.019</f>
@@ -3301,7 +3281,7 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="25" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B103" s="19"/>
       <c r="C103" s="19"/>
@@ -3311,56 +3291,56 @@
     </row>
     <row r="104" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="69" t="s">
-        <v>131</v>
-      </c>
-      <c r="B104" s="100" t="s">
-        <v>143</v>
+        <v>126</v>
+      </c>
+      <c r="B104" s="70" t="s">
+        <v>138</v>
       </c>
       <c r="C104" s="69" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D104" s="69"/>
       <c r="E104" s="69" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F104" s="69"/>
       <c r="G104" s="69" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H104" s="69"/>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="69"/>
-      <c r="B105" s="100"/>
+      <c r="B105" s="70"/>
       <c r="C105" s="69"/>
       <c r="D105" s="69"/>
       <c r="E105" s="69"/>
       <c r="F105" s="69"/>
       <c r="G105" s="60" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H105" s="60" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="60" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B106" s="60" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C106" s="30">
         <v>10</v>
       </c>
       <c r="D106" s="65" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E106" s="67" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F106" s="65" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G106" s="17">
         <f>10-0.003</f>
@@ -3373,22 +3353,22 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="60" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B107" s="60" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C107" s="30">
         <v>300</v>
       </c>
       <c r="D107" s="65" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E107" s="67" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F107" s="65" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G107" s="64">
         <f>300-0.3</f>
@@ -3412,7 +3392,7 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B109" s="19"/>
       <c r="C109" s="19"/>
@@ -3422,7 +3402,7 @@
     </row>
     <row r="110" spans="1:15" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B110" s="26"/>
       <c r="C110" s="26"/>
@@ -3435,18 +3415,18 @@
     </row>
     <row r="111" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="69" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B111" s="69" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C111" s="69"/>
       <c r="D111" s="69" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E111" s="69"/>
       <c r="F111" s="69" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G111" s="69"/>
     </row>
@@ -3457,27 +3437,27 @@
       <c r="D112" s="69"/>
       <c r="E112" s="69"/>
       <c r="F112" s="60" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G112" s="60" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="30" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B113" s="30">
         <v>100</v>
       </c>
       <c r="C113" s="65" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D113" s="67" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E113" s="65" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F113" s="17">
         <f>100-0.014</f>
@@ -3490,19 +3470,19 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="30" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B114" s="30">
         <v>1</v>
       </c>
-      <c r="C114" s="78" t="s">
-        <v>161</v>
+      <c r="C114" s="75" t="s">
+        <v>156</v>
       </c>
       <c r="D114" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="E114" s="78" t="s">
-        <v>161</v>
+        <v>102</v>
+      </c>
+      <c r="E114" s="75" t="s">
+        <v>156</v>
       </c>
       <c r="F114" s="52">
         <f>1-0.00011</f>
@@ -3515,16 +3495,16 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="30" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B115" s="30">
         <v>10</v>
       </c>
-      <c r="C115" s="78"/>
+      <c r="C115" s="75"/>
       <c r="D115" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="E115" s="78"/>
+        <v>103</v>
+      </c>
+      <c r="E115" s="75"/>
       <c r="F115" s="15">
         <f>10-0.0011</f>
         <v>9.9989000000000008</v>
@@ -3536,16 +3516,16 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="30" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B116" s="30">
         <v>100</v>
       </c>
-      <c r="C116" s="78"/>
+      <c r="C116" s="75"/>
       <c r="D116" s="67" t="s">
-        <v>109</v>
-      </c>
-      <c r="E116" s="78"/>
+        <v>104</v>
+      </c>
+      <c r="E116" s="75"/>
       <c r="F116" s="17">
         <f>100-0.011</f>
         <v>99.989000000000004</v>
@@ -3565,7 +3545,7 @@
     </row>
     <row r="118" spans="1:9" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="36" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B118" s="26"/>
       <c r="C118" s="26"/>
@@ -3578,18 +3558,18 @@
     </row>
     <row r="119" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="69" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B119" s="69" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C119" s="69"/>
       <c r="D119" s="69" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E119" s="69"/>
       <c r="F119" s="69" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G119" s="69"/>
     </row>
@@ -3600,27 +3580,27 @@
       <c r="D120" s="69"/>
       <c r="E120" s="69"/>
       <c r="F120" s="60" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G120" s="60" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="30" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B121" s="30">
         <v>1</v>
       </c>
-      <c r="C121" s="78" t="s">
-        <v>165</v>
+      <c r="C121" s="75" t="s">
+        <v>160</v>
       </c>
       <c r="D121" s="67" t="s">
-        <v>110</v>
-      </c>
-      <c r="E121" s="78" t="s">
-        <v>165</v>
+        <v>105</v>
+      </c>
+      <c r="E121" s="75" t="s">
+        <v>160</v>
       </c>
       <c r="F121" s="52">
         <f>1-0.00011</f>
@@ -3633,16 +3613,16 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="30" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B122" s="30">
         <v>10</v>
       </c>
-      <c r="C122" s="78"/>
+      <c r="C122" s="75"/>
       <c r="D122" s="67" t="s">
-        <v>111</v>
-      </c>
-      <c r="E122" s="78"/>
+        <v>106</v>
+      </c>
+      <c r="E122" s="75"/>
       <c r="F122" s="15">
         <f>10-0.0041</f>
         <v>9.9959000000000007</v>
@@ -3654,16 +3634,16 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="30" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B123" s="30">
         <v>100</v>
       </c>
-      <c r="C123" s="78"/>
+      <c r="C123" s="75"/>
       <c r="D123" s="67" t="s">
-        <v>112</v>
-      </c>
-      <c r="E123" s="78"/>
+        <v>107</v>
+      </c>
+      <c r="E123" s="75"/>
       <c r="F123" s="17">
         <f>100-0.081</f>
         <v>99.918999999999997</v>
@@ -3694,81 +3674,104 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="79" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B131" s="79"/>
       <c r="C131" s="38"/>
       <c r="D131" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="E131" s="93" t="s">
-        <v>50</v>
-      </c>
-      <c r="F131" s="94"/>
+        <v>14</v>
+      </c>
+      <c r="E131" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="F131" s="81"/>
       <c r="G131" s="14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H131" s="40"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="79" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B133" s="79"/>
-      <c r="C133" s="80" t="s">
-        <v>51</v>
-      </c>
-      <c r="D133" s="80"/>
+      <c r="C133" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="D133" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="141">
-    <mergeCell ref="H100:H101"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="C104:D105"/>
-    <mergeCell ref="E104:F105"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="H95:H97"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="F95:F97"/>
-    <mergeCell ref="G95:G97"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="D91:D93"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="F92:F94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="C79:C82"/>
-    <mergeCell ref="E79:E82"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B73:C74"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="B34:C35"/>
+    <mergeCell ref="D34:E35"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="E114:E116"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="D73:E74"/>
+    <mergeCell ref="B85:C86"/>
+    <mergeCell ref="E85:F86"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="B119:C120"/>
+    <mergeCell ref="D119:E120"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="C121:C123"/>
+    <mergeCell ref="E121:E123"/>
+    <mergeCell ref="B111:C112"/>
+    <mergeCell ref="D111:E112"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="C114:C116"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="C38:C46"/>
     <mergeCell ref="E38:E46"/>
@@ -3793,76 +3796,53 @@
     <mergeCell ref="E49:F50"/>
     <mergeCell ref="A54:A56"/>
     <mergeCell ref="B54:B56"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="D73:E74"/>
-    <mergeCell ref="B85:C86"/>
-    <mergeCell ref="E85:F86"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:C120"/>
-    <mergeCell ref="D119:E120"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="C121:C123"/>
-    <mergeCell ref="E121:E123"/>
-    <mergeCell ref="B111:C112"/>
-    <mergeCell ref="D111:E112"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="E114:E116"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="B34:C35"/>
-    <mergeCell ref="D34:E35"/>
-    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="C79:C82"/>
+    <mergeCell ref="E79:E82"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B73:C74"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="D91:D93"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="F92:F94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="H95:H97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="F95:F97"/>
+    <mergeCell ref="G95:G97"/>
+    <mergeCell ref="H100:H101"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="C104:D105"/>
+    <mergeCell ref="E104:F105"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="G100:G101"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="97" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/Shablon/34461A.xlsx
+++ b/Shablon/34461A.xlsx
@@ -12,14 +12,23 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$H$139</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$H$148</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="171">
+  <si>
+    <t>АО "Гос МКБ "Вымпел" им. И.И. Торопова"</t>
+  </si>
+  <si>
+    <t>125424, г.Москва, Волоколамское шоссе, дом 90, стр. 23</t>
+  </si>
+  <si>
+    <t>Тел.+7 (495) 491-05-31, 22-68, e-mail: ogmetr@vympelmkb.com</t>
+  </si>
   <si>
     <t>Условия проведения калибровки:</t>
   </si>
@@ -55,9 +64,6 @@
   </si>
   <si>
     <t>Показание прибора, Ом</t>
-  </si>
-  <si>
-    <t>Калибровку провёл:</t>
   </si>
   <si>
     <t>Дата:</t>
@@ -575,7 +581,19 @@
     <t>10 А</t>
   </si>
   <si>
-    <t>TITLE</t>
+    <t>СГМетр, лаборатория средств электрических и радиотехнических измерений</t>
+  </si>
+  <si>
+    <t>Уникальный номер об аккредитации в реестре акредитованных лиц № РОСС СОБ 3.00231.2014</t>
+  </si>
+  <si>
+    <t>Заключение:</t>
+  </si>
+  <si>
+    <t>годен</t>
+  </si>
+  <si>
+    <t>Поверку провёл:</t>
   </si>
 </sst>
 </file>
@@ -811,7 +829,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1098,6 +1116,19 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1404,10 +1435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O133"/>
+  <dimension ref="A1:O125"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:H5"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,7 +1451,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="94"/>
+      <c r="A1" s="94" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -1431,7 +1464,9 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="94"/>
+      <c r="A2" s="94" t="s">
+        <v>166</v>
+      </c>
       <c r="B2" s="94"/>
       <c r="C2" s="94"/>
       <c r="D2" s="94"/>
@@ -1443,7 +1478,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="94" t="s">
-        <v>164</v>
+        <v>1</v>
       </c>
       <c r="B3" s="94"/>
       <c r="C3" s="94"/>
@@ -1455,7 +1490,9 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="97"/>
+      <c r="A4" s="97" t="s">
+        <v>167</v>
+      </c>
       <c r="B4" s="97"/>
       <c r="C4" s="97"/>
       <c r="D4" s="97"/>
@@ -1466,7 +1503,9 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="97"/>
+      <c r="A5" s="97" t="s">
+        <v>2</v>
+      </c>
       <c r="B5" s="97"/>
       <c r="C5" s="97"/>
       <c r="D5" s="97"/>
@@ -1489,7 +1528,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="100" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B7" s="100"/>
       <c r="C7" s="100"/>
@@ -1513,28 +1552,28 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="99" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B9" s="99"/>
       <c r="C9" s="99"/>
       <c r="D9" s="45" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E9" s="46"/>
       <c r="F9" s="47" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G9" s="47"/>
       <c r="H9" s="48"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="99" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B10" s="99"/>
       <c r="C10" s="99"/>
       <c r="D10" s="49" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E10" s="46"/>
       <c r="F10" s="46"/>
@@ -1543,7 +1582,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="99" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B11" s="99"/>
       <c r="C11" s="99"/>
@@ -1555,7 +1594,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="99" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B12" s="99"/>
       <c r="C12" s="99"/>
@@ -1567,12 +1606,12 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="99" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B13" s="99"/>
       <c r="C13" s="99"/>
       <c r="D13" s="49" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E13" s="46"/>
       <c r="F13" s="46"/>
@@ -1581,12 +1620,12 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="99" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B14" s="99"/>
       <c r="C14" s="99"/>
       <c r="D14" s="51" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E14" s="46"/>
       <c r="F14" s="46"/>
@@ -1595,12 +1634,12 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="99" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B15" s="99"/>
       <c r="C15" s="99"/>
       <c r="D15" s="45" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E15" s="46"/>
       <c r="F15" s="46"/>
@@ -1613,97 +1652,97 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="86" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B18" s="98"/>
       <c r="C18" s="87"/>
       <c r="D18" s="95" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E18" s="95"/>
       <c r="F18" s="95" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G18" s="95"/>
       <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="83" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" s="84"/>
       <c r="C19" s="85"/>
       <c r="D19" s="96" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E19" s="96"/>
       <c r="F19" s="86" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="88" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B20" s="88"/>
       <c r="C20" s="88"/>
       <c r="D20" s="96" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E20" s="96"/>
       <c r="F20" s="86" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G20" s="87"/>
       <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="83" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21" s="84"/>
       <c r="C21" s="85"/>
       <c r="D21" s="91" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E21" s="92"/>
       <c r="F21" s="86" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G21" s="87"/>
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="83" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B22" s="84"/>
       <c r="C22" s="85"/>
       <c r="D22" s="89"/>
       <c r="E22" s="90"/>
       <c r="F22" s="86" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G22" s="87"/>
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="83" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B23" s="84"/>
       <c r="C23" s="85"/>
       <c r="D23" s="89"/>
       <c r="E23" s="90"/>
       <c r="F23" s="86" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G23" s="87"/>
       <c r="H23" s="10"/>
@@ -1720,7 +1759,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B25" s="43"/>
       <c r="C25" s="43"/>
@@ -1742,575 +1781,624 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
+      <c r="A29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="69"/>
+      <c r="I31" s="13"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
+      <c r="A32" s="69"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="G32" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="I32" s="13"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-    </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="B34" s="69" t="s">
-        <v>127</v>
-      </c>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="G34" s="69"/>
-      <c r="I34" s="13"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="69"/>
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="G35" s="60" t="s">
-        <v>130</v>
-      </c>
-      <c r="I35" s="13"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="69" t="s">
-        <v>131</v>
-      </c>
-      <c r="B36" s="64">
+      <c r="A33" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" s="64">
         <v>100</v>
       </c>
-      <c r="C36" s="75" t="s">
-        <v>132</v>
-      </c>
-      <c r="D36" s="66" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" s="75" t="s">
-        <v>132</v>
-      </c>
-      <c r="F36" s="15">
+      <c r="C33" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="F33" s="15">
         <f>100-0.0085</f>
         <v>99.991500000000002</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G33" s="15">
         <f>100+0.0085</f>
         <v>100.0085</v>
       </c>
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="69"/>
+      <c r="B34" s="64">
+        <v>-100</v>
+      </c>
+      <c r="C34" s="75"/>
+      <c r="D34" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="75"/>
+      <c r="F34" s="15">
+        <f>-100-0.0085</f>
+        <v>-100.0085</v>
+      </c>
+      <c r="G34" s="15">
+        <f>-100+0.0085</f>
+        <v>-99.991500000000002</v>
+      </c>
+      <c r="I34" s="10"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="64">
+        <v>1</v>
+      </c>
+      <c r="C35" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="F35" s="59">
+        <f>1-0.000047</f>
+        <v>0.99995299999999998</v>
+      </c>
+      <c r="G35" s="59">
+        <f>1+0.000047</f>
+        <v>1.0000469999999999</v>
+      </c>
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="69"/>
+      <c r="B36" s="64">
+        <v>-1</v>
+      </c>
+      <c r="C36" s="75"/>
+      <c r="D36" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="72"/>
+      <c r="F36" s="59">
+        <f>-1-0.000047</f>
+        <v>-1.0000469999999999</v>
+      </c>
+      <c r="G36" s="59">
+        <f>-1+0.000047</f>
+        <v>-0.99995299999999998</v>
+      </c>
       <c r="I36" s="10"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="69"/>
+      <c r="A37" s="69" t="s">
+        <v>137</v>
+      </c>
       <c r="B37" s="64">
-        <v>-100</v>
+        <v>4</v>
       </c>
       <c r="C37" s="75"/>
       <c r="D37" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="75"/>
-      <c r="F37" s="15">
-        <f>-100-0.0085</f>
-        <v>-100.0085</v>
-      </c>
-      <c r="G37" s="15">
-        <f>-100+0.0085</f>
-        <v>-99.991500000000002</v>
-      </c>
-      <c r="I37" s="10"/>
+        <v>53</v>
+      </c>
+      <c r="E37" s="72"/>
+      <c r="F37" s="52">
+        <f>4-0.00019</f>
+        <v>3.9998100000000001</v>
+      </c>
+      <c r="G37" s="52">
+        <f>4+0.00019</f>
+        <v>4.0001899999999999</v>
+      </c>
+      <c r="I37" s="16"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="69" t="s">
-        <v>133</v>
-      </c>
+      <c r="A38" s="69"/>
       <c r="B38" s="64">
-        <v>1</v>
-      </c>
-      <c r="C38" s="75" t="s">
-        <v>134</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C38" s="75"/>
       <c r="D38" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="E38" s="72" t="s">
-        <v>134</v>
-      </c>
-      <c r="F38" s="59">
-        <f>1-0.000047</f>
-        <v>0.99995299999999998</v>
-      </c>
-      <c r="G38" s="59">
-        <f>1+0.000047</f>
-        <v>1.0000469999999999</v>
-      </c>
-      <c r="I38" s="10"/>
+        <v>54</v>
+      </c>
+      <c r="E38" s="72"/>
+      <c r="F38" s="15">
+        <f>10-0.0004</f>
+        <v>9.9995999999999992</v>
+      </c>
+      <c r="G38" s="15">
+        <f>10+0.0004</f>
+        <v>10.000400000000001</v>
+      </c>
+      <c r="I38" s="16"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="69"/>
       <c r="B39" s="64">
-        <v>-1</v>
+        <v>-10</v>
       </c>
       <c r="C39" s="75"/>
       <c r="D39" s="66" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E39" s="72"/>
-      <c r="F39" s="59">
-        <f>-1-0.000047</f>
-        <v>-1.0000469999999999</v>
-      </c>
-      <c r="G39" s="59">
-        <f>-1+0.000047</f>
-        <v>-0.99995299999999998</v>
-      </c>
-      <c r="I39" s="10"/>
+      <c r="F39" s="15">
+        <f>-10-0.0004</f>
+        <v>-10.000400000000001</v>
+      </c>
+      <c r="G39" s="15">
+        <f>-10+0.0004</f>
+        <v>-9.9995999999999992</v>
+      </c>
+      <c r="I39" s="16"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="69" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B40" s="64">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="C40" s="75"/>
       <c r="D40" s="66" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E40" s="72"/>
-      <c r="F40" s="52">
-        <f>4-0.00019</f>
-        <v>3.9998100000000001</v>
-      </c>
-      <c r="G40" s="52">
-        <f>4+0.00019</f>
-        <v>4.0001899999999999</v>
+      <c r="F40" s="15">
+        <f>100-0.0051</f>
+        <v>99.994900000000001</v>
+      </c>
+      <c r="G40" s="15">
+        <f>100+0.0051</f>
+        <v>100.0051</v>
       </c>
       <c r="I40" s="16"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="69"/>
       <c r="B41" s="64">
-        <v>10</v>
+        <v>-100</v>
       </c>
       <c r="C41" s="75"/>
       <c r="D41" s="66" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E41" s="72"/>
       <c r="F41" s="15">
-        <f>10-0.0004</f>
-        <v>9.9995999999999992</v>
+        <f>-100-0.0051</f>
+        <v>-100.0051</v>
       </c>
       <c r="G41" s="15">
-        <f>10+0.0004</f>
-        <v>10.000400000000001</v>
+        <f>-100+0.0051</f>
+        <v>-99.994900000000001</v>
       </c>
       <c r="I41" s="16"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="69"/>
+      <c r="A42" s="93" t="s">
+        <v>139</v>
+      </c>
       <c r="B42" s="64">
-        <v>-10</v>
+        <v>1000</v>
       </c>
       <c r="C42" s="75"/>
       <c r="D42" s="66" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E42" s="72"/>
-      <c r="F42" s="15">
-        <f>-10-0.0004</f>
-        <v>-10.000400000000001</v>
-      </c>
-      <c r="G42" s="15">
-        <f>-10+0.0004</f>
-        <v>-9.9995999999999992</v>
+      <c r="F42" s="17">
+        <f>1000-0.055</f>
+        <v>999.94500000000005</v>
+      </c>
+      <c r="G42" s="17">
+        <f>1000+0.055</f>
+        <v>1000.0549999999999</v>
       </c>
       <c r="I42" s="16"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="69" t="s">
-        <v>136</v>
-      </c>
+      <c r="A43" s="93"/>
       <c r="B43" s="64">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="C43" s="75"/>
       <c r="D43" s="66" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E43" s="72"/>
       <c r="F43" s="15">
-        <f>100-0.0051</f>
-        <v>99.994900000000001</v>
-      </c>
-      <c r="G43" s="15">
-        <f>100+0.0051</f>
-        <v>100.0051</v>
-      </c>
-      <c r="I43" s="16"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="69"/>
-      <c r="B44" s="64">
-        <v>-100</v>
-      </c>
-      <c r="C44" s="75"/>
-      <c r="D44" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="E44" s="72"/>
-      <c r="F44" s="15">
-        <f>-100-0.0051</f>
-        <v>-100.0051</v>
-      </c>
-      <c r="G44" s="15">
-        <f>-100+0.0051</f>
-        <v>-99.994900000000001</v>
-      </c>
-      <c r="I44" s="16"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="93" t="s">
-        <v>137</v>
-      </c>
-      <c r="B45" s="64">
-        <v>1000</v>
-      </c>
-      <c r="C45" s="75"/>
-      <c r="D45" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="E45" s="72"/>
-      <c r="F45" s="17">
-        <f>1000-0.055</f>
-        <v>999.94500000000005</v>
-      </c>
-      <c r="G45" s="17">
-        <f>1000+0.055</f>
-        <v>1000.0549999999999</v>
-      </c>
-      <c r="I45" s="16"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="93"/>
-      <c r="B46" s="64">
-        <v>-500</v>
-      </c>
-      <c r="C46" s="75"/>
-      <c r="D46" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="E46" s="72"/>
-      <c r="F46" s="15">
         <f>-500-0.0325</f>
         <v>-500.03250000000003</v>
       </c>
-      <c r="G46" s="15">
+      <c r="G43" s="15">
         <f>-500+0.0325</f>
         <v>-499.96749999999997</v>
       </c>
-      <c r="I46" s="16"/>
-    </row>
-    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+      <c r="I43" s="16"/>
+    </row>
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+    </row>
+    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-    </row>
-    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="B49" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="C49" s="69"/>
-      <c r="D49" s="69" t="s">
-        <v>2</v>
-      </c>
-      <c r="E49" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="F49" s="69"/>
-      <c r="G49" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="H49" s="69"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="69"/>
-      <c r="B50" s="69"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="69"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="H50" s="60" t="s">
+      <c r="F46" s="69"/>
+      <c r="G46" s="69" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="78" t="s">
+      <c r="H46" s="69"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="69"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="B51" s="77">
+      <c r="H47" s="60" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="78" t="s">
+        <v>133</v>
+      </c>
+      <c r="B48" s="77">
         <v>100</v>
       </c>
-      <c r="C51" s="76" t="s">
-        <v>132</v>
-      </c>
-      <c r="D51" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="F51" s="76" t="s">
-        <v>132</v>
-      </c>
-      <c r="G51" s="18">
+      <c r="C48" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="F48" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="G48" s="18">
         <f>100-0.09</f>
         <v>99.91</v>
       </c>
-      <c r="H51" s="18">
+      <c r="H48" s="18">
         <f>100+0.09</f>
         <v>100.09</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="78"/>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="78"/>
+      <c r="B49" s="77"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="F49" s="76"/>
+      <c r="G49" s="18">
+        <f>100-0.17</f>
+        <v>99.83</v>
+      </c>
+      <c r="H49" s="18">
+        <f>100+0.17</f>
+        <v>100.17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="78"/>
+      <c r="B50" s="77"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50" s="76"/>
+      <c r="G50" s="18">
+        <f>100-4.5</f>
+        <v>95.5</v>
+      </c>
+      <c r="H50" s="64">
+        <f>100+4.5</f>
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="B51" s="77">
+        <v>1</v>
+      </c>
+      <c r="C51" s="76" t="s">
+        <v>136</v>
+      </c>
+      <c r="D51" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" s="76" t="s">
+        <v>136</v>
+      </c>
+      <c r="G51" s="15">
+        <f>1-0.0009</f>
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="H51" s="15">
+        <f>1+0.0009</f>
+        <v>1.0008999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="68"/>
       <c r="B52" s="77"/>
       <c r="C52" s="76"/>
       <c r="D52" s="63" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E52" s="67" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F52" s="76"/>
-      <c r="G52" s="18">
-        <f>100-0.17</f>
-        <v>99.83</v>
-      </c>
-      <c r="H52" s="18">
-        <f>100+0.17</f>
-        <v>100.17</v>
+      <c r="G52" s="17">
+        <f>1-0.0017</f>
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="H52" s="17">
+        <f>1+0.0017</f>
+        <v>1.0017</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="78"/>
+      <c r="A53" s="68"/>
       <c r="B53" s="77"/>
       <c r="C53" s="76"/>
       <c r="D53" s="63" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E53" s="67" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F53" s="76"/>
-      <c r="G53" s="18">
-        <f>100-4.5</f>
-        <v>95.5</v>
-      </c>
-      <c r="H53" s="64">
-        <f>100+4.5</f>
-        <v>104.5</v>
+      <c r="G53" s="17">
+        <f>1-0.045</f>
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="H53" s="17">
+        <f>1+0.045</f>
+        <v>1.0449999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="B54" s="77">
+        <v>137</v>
+      </c>
+      <c r="B54" s="63">
+        <v>30</v>
+      </c>
+      <c r="C54" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="D54" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="F54" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="G54" s="17">
+        <f>30-0.003</f>
+        <v>29.997</v>
+      </c>
+      <c r="H54" s="17">
+        <f>30+0.003</f>
+        <v>30.003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="68"/>
+      <c r="B55" s="63">
         <v>1</v>
       </c>
-      <c r="C54" s="76" t="s">
-        <v>134</v>
-      </c>
-      <c r="D54" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="F54" s="76" t="s">
-        <v>134</v>
-      </c>
-      <c r="G54" s="15">
-        <f>1-0.0009</f>
-        <v>0.99909999999999999</v>
-      </c>
-      <c r="H54" s="15">
-        <f>1+0.0009</f>
-        <v>1.0008999999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="68"/>
-      <c r="B55" s="77"/>
-      <c r="C55" s="76"/>
-      <c r="D55" s="63" t="s">
-        <v>18</v>
-      </c>
+      <c r="C55" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55" s="71"/>
       <c r="E55" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="F55" s="76"/>
-      <c r="G55" s="17">
-        <f>1-0.0017</f>
-        <v>0.99829999999999997</v>
-      </c>
-      <c r="H55" s="17">
-        <f>1+0.0017</f>
-        <v>1.0017</v>
+        <v>67</v>
+      </c>
+      <c r="F55" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="G55" s="15">
+        <f>1-0.0036</f>
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="H55" s="15">
+        <f>1+0.0036</f>
+        <v>1.0036</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="68"/>
-      <c r="B56" s="77"/>
-      <c r="C56" s="76"/>
+      <c r="B56" s="71">
+        <v>10</v>
+      </c>
+      <c r="C56" s="71"/>
       <c r="D56" s="63" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E56" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="F56" s="76"/>
+        <v>68</v>
+      </c>
+      <c r="F56" s="71"/>
       <c r="G56" s="17">
-        <f>1-0.045</f>
-        <v>0.95499999999999996</v>
+        <f>10-0.009</f>
+        <v>9.9909999999999997</v>
       </c>
       <c r="H56" s="17">
-        <f>1+0.045</f>
-        <v>1.0449999999999999</v>
+        <f>10+0.009</f>
+        <v>10.009</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="68" t="s">
-        <v>135</v>
-      </c>
-      <c r="B57" s="63">
-        <v>30</v>
-      </c>
-      <c r="C57" s="63" t="s">
-        <v>132</v>
-      </c>
-      <c r="D57" s="71" t="s">
-        <v>16</v>
+      <c r="A57" s="68"/>
+      <c r="B57" s="71"/>
+      <c r="C57" s="71"/>
+      <c r="D57" s="63" t="s">
+        <v>22</v>
       </c>
       <c r="E57" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="F57" s="63" t="s">
-        <v>132</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="F57" s="71"/>
       <c r="G57" s="17">
-        <f>30-0.003</f>
-        <v>29.997</v>
+        <f>10-0.009</f>
+        <v>9.9909999999999997</v>
       </c>
       <c r="H57" s="17">
-        <f>30+0.003</f>
-        <v>30.003</v>
+        <f>10+0.009</f>
+        <v>10.009</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="68"/>
-      <c r="B58" s="63">
-        <v>1</v>
-      </c>
-      <c r="C58" s="71" t="s">
-        <v>134</v>
-      </c>
-      <c r="D58" s="71"/>
+      <c r="B58" s="71"/>
+      <c r="C58" s="71"/>
+      <c r="D58" s="63" t="s">
+        <v>23</v>
+      </c>
       <c r="E58" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="F58" s="71" t="s">
-        <v>134</v>
-      </c>
-      <c r="G58" s="15">
-        <f>1-0.0036</f>
-        <v>0.99639999999999995</v>
-      </c>
-      <c r="H58" s="15">
-        <f>1+0.0036</f>
-        <v>1.0036</v>
+        <v>70</v>
+      </c>
+      <c r="F58" s="71"/>
+      <c r="G58" s="17">
+        <f>10-0.009</f>
+        <v>9.9909999999999997</v>
+      </c>
+      <c r="H58" s="17">
+        <f>10+0.009</f>
+        <v>10.009</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="68"/>
-      <c r="B59" s="71">
-        <v>10</v>
-      </c>
+      <c r="B59" s="71"/>
       <c r="C59" s="71"/>
       <c r="D59" s="63" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E59" s="67" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F59" s="71"/>
-      <c r="G59" s="17">
-        <f>10-0.009</f>
-        <v>9.9909999999999997</v>
-      </c>
-      <c r="H59" s="17">
-        <f>10+0.009</f>
-        <v>10.009</v>
+      <c r="G59" s="18">
+        <f>10-0.017</f>
+        <v>9.9830000000000005</v>
+      </c>
+      <c r="H59" s="18">
+        <f>10+0.017</f>
+        <v>10.016999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2318,19 +2406,19 @@
       <c r="B60" s="71"/>
       <c r="C60" s="71"/>
       <c r="D60" s="63" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E60" s="67" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F60" s="71"/>
       <c r="G60" s="17">
-        <f>10-0.009</f>
-        <v>9.9909999999999997</v>
+        <f>10-0.068</f>
+        <v>9.9320000000000004</v>
       </c>
       <c r="H60" s="17">
-        <f>10+0.009</f>
-        <v>10.009</v>
+        <f>10+0.068</f>
+        <v>10.068</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2338,39 +2426,47 @@
       <c r="B61" s="71"/>
       <c r="C61" s="71"/>
       <c r="D61" s="63" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E61" s="67" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F61" s="71"/>
-      <c r="G61" s="17">
-        <f>10-0.009</f>
-        <v>9.9909999999999997</v>
-      </c>
-      <c r="H61" s="17">
-        <f>10+0.009</f>
-        <v>10.009</v>
+      <c r="G61" s="18">
+        <f>10-0.45</f>
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="H61" s="18">
+        <f>10+0.45</f>
+        <v>10.45</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="68"/>
-      <c r="B62" s="71"/>
-      <c r="C62" s="71"/>
+      <c r="A62" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" s="71">
+        <v>100</v>
+      </c>
+      <c r="C62" s="71" t="s">
+        <v>136</v>
+      </c>
       <c r="D62" s="63" t="s">
         <v>18</v>
       </c>
       <c r="E62" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="F62" s="71"/>
+        <v>74</v>
+      </c>
+      <c r="F62" s="71" t="s">
+        <v>136</v>
+      </c>
       <c r="G62" s="18">
-        <f>10-0.017</f>
-        <v>9.9830000000000005</v>
+        <f>100-0.09</f>
+        <v>99.91</v>
       </c>
       <c r="H62" s="18">
-        <f>10+0.017</f>
-        <v>10.016999999999999</v>
+        <f>100+0.09</f>
+        <v>100.09</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2378,87 +2474,91 @@
       <c r="B63" s="71"/>
       <c r="C63" s="71"/>
       <c r="D63" s="63" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E63" s="67" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F63" s="71"/>
-      <c r="G63" s="17">
-        <f>10-0.068</f>
-        <v>9.9320000000000004</v>
-      </c>
-      <c r="H63" s="17">
-        <f>10+0.068</f>
-        <v>10.068</v>
+      <c r="G63" s="64">
+        <f>100-0.17</f>
+        <v>99.83</v>
+      </c>
+      <c r="H63" s="64">
+        <f>100+0.17</f>
+        <v>100.17</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="68"/>
-      <c r="B64" s="71"/>
+      <c r="B64" s="63">
+        <v>70</v>
+      </c>
       <c r="C64" s="71"/>
       <c r="D64" s="63" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E64" s="67" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F64" s="71"/>
-      <c r="G64" s="18">
-        <f>10-0.45</f>
-        <v>9.5500000000000007</v>
-      </c>
-      <c r="H64" s="18">
-        <f>10+0.45</f>
-        <v>10.45</v>
+      <c r="G64" s="64">
+        <f>70-3.3</f>
+        <v>66.7</v>
+      </c>
+      <c r="H64" s="64">
+        <f>70+3.3</f>
+        <v>73.3</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="B65" s="63">
+        <v>750</v>
+      </c>
+      <c r="C65" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="B65" s="71">
-        <v>100</v>
-      </c>
-      <c r="C65" s="71" t="s">
-        <v>134</v>
-      </c>
       <c r="D65" s="63" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E65" s="67" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F65" s="71" t="s">
-        <v>134</v>
-      </c>
-      <c r="G65" s="18">
-        <f>100-0.09</f>
-        <v>99.91</v>
-      </c>
-      <c r="H65" s="18">
-        <f>100+0.09</f>
-        <v>100.09</v>
+        <v>136</v>
+      </c>
+      <c r="G65" s="64">
+        <f>750-0.675</f>
+        <v>749.32500000000005</v>
+      </c>
+      <c r="H65" s="64">
+        <f>750+0.675</f>
+        <v>750.67499999999995</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="68"/>
-      <c r="B66" s="71"/>
+      <c r="B66" s="63">
+        <v>210</v>
+      </c>
       <c r="C66" s="71"/>
       <c r="D66" s="63" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E66" s="67" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F66" s="71"/>
-      <c r="G66" s="64">
-        <f>100-0.17</f>
-        <v>99.83</v>
-      </c>
-      <c r="H66" s="64">
-        <f>100+0.17</f>
-        <v>100.17</v>
+      <c r="G66" s="18">
+        <f>210-0.627</f>
+        <v>209.37299999999999</v>
+      </c>
+      <c r="H66" s="18">
+        <f>210+0.627</f>
+        <v>210.62700000000001</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -2468,574 +2568,579 @@
       </c>
       <c r="C67" s="71"/>
       <c r="D67" s="63" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E67" s="67" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F67" s="71"/>
       <c r="G67" s="64">
-        <f>70-3.3</f>
-        <v>66.7</v>
-      </c>
-      <c r="H67" s="64">
-        <f>70+3.3</f>
-        <v>73.3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="68" t="s">
-        <v>139</v>
-      </c>
-      <c r="B68" s="63">
-        <v>750</v>
-      </c>
-      <c r="C68" s="71" t="s">
-        <v>134</v>
-      </c>
-      <c r="D68" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="E68" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="F68" s="71" t="s">
-        <v>134</v>
-      </c>
-      <c r="G68" s="64">
-        <f>750-0.675</f>
-        <v>749.32500000000005</v>
-      </c>
-      <c r="H68" s="64">
-        <f>750+0.675</f>
-        <v>750.67499999999995</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="68"/>
-      <c r="B69" s="63">
-        <v>210</v>
-      </c>
-      <c r="C69" s="71"/>
-      <c r="D69" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="E69" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="F69" s="71"/>
-      <c r="G69" s="18">
-        <f>210-0.627</f>
-        <v>209.37299999999999</v>
-      </c>
-      <c r="H69" s="18">
-        <f>210+0.627</f>
-        <v>210.62700000000001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="68"/>
-      <c r="B70" s="63">
-        <v>70</v>
-      </c>
-      <c r="C70" s="71"/>
-      <c r="D70" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="E70" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="F70" s="71"/>
-      <c r="G70" s="64">
         <f>70-6.6</f>
         <v>63.4</v>
       </c>
-      <c r="H70" s="64">
+      <c r="H67" s="64">
         <f>70+6.6</f>
         <v>76.599999999999994</v>
       </c>
     </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="19"/>
+      <c r="B68" s="102"/>
+      <c r="C68" s="102"/>
+      <c r="D68" s="102"/>
+      <c r="E68" s="103"/>
+      <c r="F68" s="102"/>
+      <c r="G68" s="104"/>
+      <c r="H68" s="104"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="20"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="24"/>
+    </row>
+    <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="B70" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C70" s="69"/>
+      <c r="D70" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="E70" s="69"/>
+      <c r="F70" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="G70" s="69"/>
+    </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="19"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="24"/>
+      <c r="A71" s="69"/>
+      <c r="B71" s="69"/>
+      <c r="C71" s="69"/>
+      <c r="D71" s="69"/>
+      <c r="E71" s="69"/>
+      <c r="F71" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="G71" s="60" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B72" s="20"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="24"/>
-    </row>
-    <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="B73" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="C73" s="69"/>
-      <c r="D73" s="69" t="s">
-        <v>140</v>
-      </c>
-      <c r="E73" s="69"/>
-      <c r="F73" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="G73" s="69"/>
+      <c r="A72" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" s="62">
+        <v>100</v>
+      </c>
+      <c r="C72" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="D72" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="E72" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="F72" s="17">
+        <f>100-0.075</f>
+        <v>99.924999999999997</v>
+      </c>
+      <c r="G72" s="17">
+        <f>100+0.075</f>
+        <v>100.075</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73" s="62">
+        <v>1</v>
+      </c>
+      <c r="C73" s="75" t="s">
+        <v>146</v>
+      </c>
+      <c r="D73" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="E73" s="75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F73" s="52">
+        <f>1-0.00056</f>
+        <v>0.99944</v>
+      </c>
+      <c r="G73" s="52">
+        <f>1+0.00056</f>
+        <v>1.0005599999999999</v>
+      </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="69"/>
-      <c r="B74" s="69"/>
-      <c r="C74" s="69"/>
-      <c r="D74" s="69"/>
-      <c r="E74" s="69"/>
-      <c r="F74" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="G74" s="60" t="s">
-        <v>130</v>
+      <c r="A74" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="B74" s="62">
+        <v>10</v>
+      </c>
+      <c r="C74" s="75"/>
+      <c r="D74" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="E74" s="75"/>
+      <c r="F74" s="17">
+        <f>10-0.007</f>
+        <v>9.9930000000000003</v>
+      </c>
+      <c r="G74" s="17">
+        <f>10+0.007</f>
+        <v>10.007</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="62" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B75" s="62">
         <v>100</v>
       </c>
-      <c r="C75" s="65" t="s">
-        <v>142</v>
-      </c>
+      <c r="C75" s="75"/>
       <c r="D75" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="E75" s="65" t="s">
-        <v>142</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="E75" s="75"/>
       <c r="F75" s="17">
-        <f>100-0.075</f>
-        <v>99.924999999999997</v>
+        <f>100-0.055</f>
+        <v>99.944999999999993</v>
       </c>
       <c r="G75" s="17">
-        <f>100+0.075</f>
-        <v>100.075</v>
+        <f>100+0.055</f>
+        <v>100.05500000000001</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="62" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B76" s="62">
         <v>1</v>
       </c>
       <c r="C76" s="75" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D76" s="67" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E76" s="75" t="s">
-        <v>144</v>
-      </c>
-      <c r="F76" s="52">
-        <f>1-0.00056</f>
-        <v>0.99944</v>
-      </c>
-      <c r="G76" s="52">
-        <f>1+0.00056</f>
-        <v>1.0005599999999999</v>
+        <v>150</v>
+      </c>
+      <c r="F76" s="15">
+        <f>1-0.0011</f>
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="G76" s="15">
+        <f>1+0.0011</f>
+        <v>1.0011000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="62" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B77" s="62">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C77" s="75"/>
       <c r="D77" s="67" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E77" s="75"/>
-      <c r="F77" s="17">
-        <f>10-0.007</f>
-        <v>9.9930000000000003</v>
-      </c>
-      <c r="G77" s="17">
-        <f>10+0.007</f>
-        <v>10.007</v>
+      <c r="F77" s="15">
+        <f>2-0.0046</f>
+        <v>1.9954000000000001</v>
+      </c>
+      <c r="G77" s="15">
+        <f>2+0.0046</f>
+        <v>2.0045999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="62" t="s">
-        <v>146</v>
+      <c r="A78" s="68">
+        <v>10</v>
       </c>
       <c r="B78" s="62">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="C78" s="75"/>
       <c r="D78" s="67" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="E78" s="75"/>
       <c r="F78" s="17">
-        <f>100-0.055</f>
-        <v>99.944999999999993</v>
-      </c>
-      <c r="G78" s="17">
-        <f>100+0.055</f>
-        <v>100.05500000000001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="62" t="s">
-        <v>147</v>
-      </c>
-      <c r="B79" s="62">
-        <v>1</v>
-      </c>
-      <c r="C79" s="75" t="s">
-        <v>148</v>
-      </c>
-      <c r="D79" s="67" t="s">
-        <v>82</v>
-      </c>
-      <c r="E79" s="75" t="s">
-        <v>148</v>
-      </c>
-      <c r="F79" s="15">
-        <f>1-0.0011</f>
-        <v>0.99890000000000001</v>
-      </c>
-      <c r="G79" s="15">
-        <f>1+0.0011</f>
-        <v>1.0011000000000001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="B80" s="62">
-        <v>2</v>
-      </c>
-      <c r="C80" s="75"/>
-      <c r="D80" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="E80" s="75"/>
-      <c r="F80" s="15">
-        <f>2-0.0046</f>
-        <v>1.9954000000000001</v>
-      </c>
-      <c r="G80" s="15">
-        <f>2+0.0046</f>
-        <v>2.0045999999999999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81" s="68">
-        <v>10</v>
-      </c>
-      <c r="B81" s="62">
-        <v>5</v>
-      </c>
-      <c r="C81" s="75"/>
-      <c r="D81" s="67" t="s">
-        <v>121</v>
-      </c>
-      <c r="E81" s="75"/>
-      <c r="F81" s="17">
         <f>5-0.012</f>
         <v>4.9880000000000004</v>
       </c>
-      <c r="G81" s="62">
+      <c r="G78" s="62">
         <f>5+0.012</f>
         <v>5.0119999999999996</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A82" s="68"/>
-      <c r="B82" s="62">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="68"/>
+      <c r="B79" s="62">
         <v>10</v>
       </c>
-      <c r="C82" s="75"/>
-      <c r="D82" s="67" t="s">
-        <v>122</v>
-      </c>
-      <c r="E82" s="75"/>
-      <c r="F82" s="17">
+      <c r="C79" s="75"/>
+      <c r="D79" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="E79" s="75"/>
+      <c r="F79" s="17">
         <f>10-0.022</f>
         <v>9.9779999999999998</v>
       </c>
-      <c r="G82" s="62">
+      <c r="G79" s="62">
         <f>10+0.022</f>
         <v>10.022</v>
       </c>
     </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="19"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="105"/>
+      <c r="D80" s="103"/>
+      <c r="E80" s="105"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="19"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" s="19"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="24"/>
+    </row>
+    <row r="82" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="B82" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C82" s="69"/>
+      <c r="D82" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="69"/>
+      <c r="G82" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="H82" s="69"/>
+      <c r="J82" s="53"/>
+      <c r="K82" s="53"/>
+      <c r="L82" s="53"/>
+      <c r="M82" s="53"/>
+      <c r="N82" s="53"/>
+      <c r="O82" s="53"/>
+    </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A83" s="19"/>
-      <c r="B83" s="19"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="24"/>
+      <c r="A83" s="69"/>
+      <c r="B83" s="69"/>
+      <c r="C83" s="69"/>
+      <c r="D83" s="69"/>
+      <c r="E83" s="69"/>
+      <c r="F83" s="69"/>
+      <c r="G83" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="H83" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="J83" s="53"/>
+      <c r="K83" s="53"/>
+      <c r="L83" s="53"/>
+      <c r="M83" s="53"/>
+      <c r="N83" s="53"/>
+      <c r="O83" s="53"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A84" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B84" s="19"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="24"/>
-    </row>
-    <row r="85" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="B85" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="C85" s="69"/>
-      <c r="D85" s="69" t="s">
-        <v>2</v>
-      </c>
-      <c r="E85" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="F85" s="69"/>
-      <c r="G85" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="H85" s="69"/>
-      <c r="J85" s="53"/>
-      <c r="K85" s="53"/>
-      <c r="L85" s="53"/>
-      <c r="M85" s="53"/>
-      <c r="N85" s="53"/>
-      <c r="O85" s="53"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86" s="69"/>
-      <c r="B86" s="69"/>
-      <c r="C86" s="69"/>
-      <c r="D86" s="69"/>
-      <c r="E86" s="69"/>
-      <c r="F86" s="69"/>
-      <c r="G86" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="H86" s="60" t="s">
-        <v>130</v>
-      </c>
-      <c r="J86" s="53"/>
-      <c r="K86" s="53"/>
-      <c r="L86" s="53"/>
-      <c r="M86" s="53"/>
-      <c r="N86" s="53"/>
-      <c r="O86" s="53"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A87" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="B87" s="68">
+      <c r="A84" s="68" t="s">
+        <v>143</v>
+      </c>
+      <c r="B84" s="68">
         <v>100</v>
       </c>
-      <c r="C87" s="75" t="s">
-        <v>142</v>
-      </c>
-      <c r="D87" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="E87" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="F87" s="75" t="s">
-        <v>142</v>
-      </c>
-      <c r="G87" s="73">
+      <c r="C84" s="75" t="s">
+        <v>144</v>
+      </c>
+      <c r="D84" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="F84" s="75" t="s">
+        <v>144</v>
+      </c>
+      <c r="G84" s="73">
         <f>100-0.14</f>
         <v>99.86</v>
       </c>
-      <c r="H87" s="73">
+      <c r="H84" s="73">
         <f>100+0.14</f>
         <v>100.14</v>
       </c>
-      <c r="J87" s="54"/>
-      <c r="K87" s="54"/>
-      <c r="L87" s="54"/>
+      <c r="J84" s="54"/>
+      <c r="K84" s="54"/>
+      <c r="L84" s="54"/>
+      <c r="M84" s="55"/>
+      <c r="N84" s="55"/>
+      <c r="O84" s="24"/>
+    </row>
+    <row r="85" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="68"/>
+      <c r="B85" s="68"/>
+      <c r="C85" s="75"/>
+      <c r="D85" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="E85" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="F85" s="75"/>
+      <c r="G85" s="73"/>
+      <c r="H85" s="73"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="19"/>
+      <c r="M85" s="55"/>
+      <c r="N85" s="55"/>
+      <c r="O85" s="24"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="B86" s="68">
+        <v>1</v>
+      </c>
+      <c r="C86" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="D86" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" s="67" t="s">
+        <v>88</v>
+      </c>
+      <c r="F86" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="G86" s="72">
+        <f>1-0.0014</f>
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="H86" s="68">
+        <f>1+0.0014</f>
+        <v>1.0014000000000001</v>
+      </c>
+      <c r="J86" s="10"/>
+      <c r="K86" s="19"/>
+      <c r="L86" s="19"/>
+      <c r="M86" s="55"/>
+      <c r="N86" s="55"/>
+      <c r="O86" s="24"/>
+    </row>
+    <row r="87" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="68"/>
+      <c r="B87" s="68"/>
+      <c r="C87" s="71"/>
+      <c r="D87" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="E87" s="67" t="s">
+        <v>89</v>
+      </c>
+      <c r="F87" s="71"/>
+      <c r="G87" s="72"/>
+      <c r="H87" s="68"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="19"/>
       <c r="M87" s="55"/>
       <c r="N87" s="55"/>
       <c r="O87" s="24"/>
     </row>
-    <row r="88" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="68"/>
-      <c r="B88" s="68"/>
-      <c r="C88" s="75"/>
-      <c r="D88" s="63" t="s">
-        <v>24</v>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88" s="68" t="s">
+        <v>147</v>
+      </c>
+      <c r="B88" s="62">
+        <v>100</v>
+      </c>
+      <c r="C88" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="D88" s="71" t="s">
+        <v>18</v>
       </c>
       <c r="E88" s="67" t="s">
-        <v>85</v>
-      </c>
-      <c r="F88" s="75"/>
-      <c r="G88" s="73"/>
-      <c r="H88" s="73"/>
+        <v>90</v>
+      </c>
+      <c r="F88" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="G88" s="64">
+        <f>100-4.1</f>
+        <v>95.9</v>
+      </c>
+      <c r="H88" s="64">
+        <f>100+4.1</f>
+        <v>104.1</v>
+      </c>
       <c r="J88" s="10"/>
-      <c r="K88" s="19"/>
+      <c r="K88" s="10"/>
       <c r="L88" s="19"/>
       <c r="M88" s="55"/>
       <c r="N88" s="55"/>
       <c r="O88" s="24"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89" s="68" t="s">
-        <v>143</v>
-      </c>
-      <c r="B89" s="68">
+      <c r="A89" s="68"/>
+      <c r="B89" s="62">
         <v>1</v>
       </c>
       <c r="C89" s="71" t="s">
-        <v>144</v>
-      </c>
-      <c r="D89" s="63" t="s">
-        <v>16</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="D89" s="71"/>
       <c r="E89" s="67" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F89" s="71" t="s">
-        <v>144</v>
-      </c>
-      <c r="G89" s="72">
-        <f>1-0.0014</f>
-        <v>0.99860000000000004</v>
-      </c>
-      <c r="H89" s="68">
-        <f>1+0.0014</f>
-        <v>1.0014000000000001</v>
+        <v>146</v>
+      </c>
+      <c r="G89" s="17">
+        <f>1-0.005</f>
+        <v>0.995</v>
+      </c>
+      <c r="H89" s="62">
+        <f>1+0.005</f>
+        <v>1.0049999999999999</v>
       </c>
       <c r="J89" s="10"/>
-      <c r="K89" s="19"/>
+      <c r="K89" s="10"/>
       <c r="L89" s="19"/>
       <c r="M89" s="55"/>
       <c r="N89" s="55"/>
       <c r="O89" s="24"/>
     </row>
-    <row r="90" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="68"/>
-      <c r="B90" s="68"/>
+      <c r="B90" s="68">
+        <v>10</v>
+      </c>
       <c r="C90" s="71"/>
-      <c r="D90" s="63" t="s">
-        <v>24</v>
-      </c>
+      <c r="D90" s="71"/>
       <c r="E90" s="67" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F90" s="71"/>
-      <c r="G90" s="72"/>
-      <c r="H90" s="68"/>
+      <c r="G90" s="74">
+        <f>10-0.014</f>
+        <v>9.9860000000000007</v>
+      </c>
+      <c r="H90" s="68">
+        <f>10+0.014</f>
+        <v>10.013999999999999</v>
+      </c>
       <c r="J90" s="10"/>
-      <c r="K90" s="10"/>
+      <c r="K90" s="19"/>
       <c r="L90" s="19"/>
       <c r="M90" s="55"/>
       <c r="N90" s="55"/>
       <c r="O90" s="24"/>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A91" s="68" t="s">
-        <v>145</v>
-      </c>
-      <c r="B91" s="62">
-        <v>100</v>
-      </c>
-      <c r="C91" s="63" t="s">
-        <v>142</v>
-      </c>
-      <c r="D91" s="71" t="s">
-        <v>16</v>
+      <c r="A91" s="68"/>
+      <c r="B91" s="68"/>
+      <c r="C91" s="71"/>
+      <c r="D91" s="63" t="s">
+        <v>26</v>
       </c>
       <c r="E91" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="F91" s="63" t="s">
-        <v>142</v>
-      </c>
-      <c r="G91" s="64">
-        <f>100-4.1</f>
-        <v>95.9</v>
-      </c>
-      <c r="H91" s="64">
-        <f>100+4.1</f>
-        <v>104.1</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="F91" s="71"/>
+      <c r="G91" s="74"/>
+      <c r="H91" s="68"/>
       <c r="J91" s="10"/>
-      <c r="K91" s="10"/>
+      <c r="K91" s="19"/>
       <c r="L91" s="19"/>
       <c r="M91" s="55"/>
       <c r="N91" s="55"/>
       <c r="O91" s="24"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92" s="68"/>
-      <c r="B92" s="62">
-        <v>1</v>
+      <c r="A92" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="B92" s="71">
+        <v>100</v>
       </c>
       <c r="C92" s="71" t="s">
-        <v>144</v>
-      </c>
-      <c r="D92" s="71"/>
+        <v>146</v>
+      </c>
+      <c r="D92" s="63" t="s">
+        <v>19</v>
+      </c>
       <c r="E92" s="67" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F92" s="71" t="s">
-        <v>144</v>
-      </c>
-      <c r="G92" s="17">
-        <f>1-0.005</f>
-        <v>0.995</v>
-      </c>
-      <c r="H92" s="62">
-        <f>1+0.005</f>
-        <v>1.0049999999999999</v>
+        <v>146</v>
+      </c>
+      <c r="G92" s="73">
+        <f>100-0.14</f>
+        <v>99.86</v>
+      </c>
+      <c r="H92" s="68">
+        <f>100+0.14</f>
+        <v>100.14</v>
       </c>
       <c r="J92" s="10"/>
-      <c r="K92" s="10"/>
+      <c r="K92" s="19"/>
       <c r="L92" s="19"/>
       <c r="M92" s="55"/>
       <c r="N92" s="55"/>
       <c r="O92" s="24"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="68"/>
-      <c r="B93" s="68">
-        <v>10</v>
-      </c>
+      <c r="B93" s="71"/>
       <c r="C93" s="71"/>
-      <c r="D93" s="71"/>
+      <c r="D93" s="63" t="s">
+        <v>18</v>
+      </c>
       <c r="E93" s="67" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F93" s="71"/>
-      <c r="G93" s="74">
-        <f>10-0.014</f>
-        <v>9.9860000000000007</v>
-      </c>
-      <c r="H93" s="68">
-        <f>10+0.014</f>
-        <v>10.013999999999999</v>
-      </c>
+      <c r="G93" s="73"/>
+      <c r="H93" s="68"/>
       <c r="J93" s="10"/>
       <c r="K93" s="19"/>
       <c r="L93" s="19"/>
@@ -3045,16 +3150,16 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="68"/>
-      <c r="B94" s="68"/>
+      <c r="B94" s="71"/>
       <c r="C94" s="71"/>
       <c r="D94" s="63" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E94" s="67" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F94" s="71"/>
-      <c r="G94" s="74"/>
+      <c r="G94" s="73"/>
       <c r="H94" s="68"/>
       <c r="J94" s="10"/>
       <c r="K94" s="19"/>
@@ -3065,30 +3170,30 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="68" t="s">
-        <v>146</v>
-      </c>
-      <c r="B95" s="71">
-        <v>100</v>
+        <v>149</v>
+      </c>
+      <c r="B95" s="68">
+        <v>1</v>
       </c>
       <c r="C95" s="71" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D95" s="63" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E95" s="67" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F95" s="71" t="s">
-        <v>144</v>
-      </c>
-      <c r="G95" s="73">
-        <f>100-0.14</f>
-        <v>99.86</v>
+        <v>150</v>
+      </c>
+      <c r="G95" s="72">
+        <f>1-0.0014</f>
+        <v>0.99860000000000004</v>
       </c>
       <c r="H95" s="68">
-        <f>100+0.14</f>
-        <v>100.14</v>
+        <f>1+0.0014</f>
+        <v>1.0014000000000001</v>
       </c>
       <c r="J95" s="10"/>
       <c r="K95" s="19"/>
@@ -3097,18 +3202,18 @@
       <c r="N95" s="55"/>
       <c r="O95" s="24"/>
     </row>
-    <row r="96" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="68"/>
-      <c r="B96" s="71"/>
+      <c r="B96" s="68"/>
       <c r="C96" s="71"/>
       <c r="D96" s="63" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E96" s="67" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F96" s="71"/>
-      <c r="G96" s="73"/>
+      <c r="G96" s="72"/>
       <c r="H96" s="68"/>
       <c r="J96" s="10"/>
       <c r="K96" s="19"/>
@@ -3118,18 +3223,32 @@
       <c r="O96" s="24"/>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A97" s="68"/>
-      <c r="B97" s="71"/>
-      <c r="C97" s="71"/>
+      <c r="A97" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="B97" s="68">
+        <v>2</v>
+      </c>
+      <c r="C97" s="71" t="s">
+        <v>150</v>
+      </c>
       <c r="D97" s="63" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E97" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="F97" s="71"/>
-      <c r="G97" s="73"/>
-      <c r="H97" s="68"/>
+        <v>99</v>
+      </c>
+      <c r="F97" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="G97" s="72">
+        <f>2-0.0058</f>
+        <v>1.9942</v>
+      </c>
+      <c r="H97" s="68">
+        <f>2+0.0058</f>
+        <v>2.0057999999999998</v>
+      </c>
       <c r="J97" s="10"/>
       <c r="K97" s="19"/>
       <c r="L97" s="19"/>
@@ -3138,32 +3257,18 @@
       <c r="O97" s="24"/>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A98" s="68" t="s">
-        <v>147</v>
-      </c>
-      <c r="B98" s="68">
-        <v>1</v>
-      </c>
-      <c r="C98" s="71" t="s">
-        <v>148</v>
-      </c>
+      <c r="A98" s="68"/>
+      <c r="B98" s="68"/>
+      <c r="C98" s="71"/>
       <c r="D98" s="63" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E98" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="F98" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="G98" s="72">
-        <f>1-0.0014</f>
-        <v>0.99860000000000004</v>
-      </c>
-      <c r="H98" s="68">
-        <f>1+0.0014</f>
-        <v>1.0014000000000001</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F98" s="71"/>
+      <c r="G98" s="72"/>
+      <c r="H98" s="68"/>
       <c r="J98" s="10"/>
       <c r="K98" s="19"/>
       <c r="L98" s="19"/>
@@ -3172,18 +3277,32 @@
       <c r="O98" s="24"/>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A99" s="68"/>
-      <c r="B99" s="68"/>
-      <c r="C99" s="71"/>
+      <c r="A99" s="62" t="s">
+        <v>165</v>
+      </c>
+      <c r="B99" s="62">
+        <v>10</v>
+      </c>
+      <c r="C99" s="62" t="s">
+        <v>150</v>
+      </c>
       <c r="D99" s="63" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E99" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="F99" s="71"/>
-      <c r="G99" s="72"/>
-      <c r="H99" s="68"/>
+        <v>125</v>
+      </c>
+      <c r="F99" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="G99" s="61">
+        <f>10-0.019</f>
+        <v>9.9809999999999999</v>
+      </c>
+      <c r="H99" s="61">
+        <f>10+0.019</f>
+        <v>10.019</v>
+      </c>
       <c r="J99" s="10"/>
       <c r="K99" s="19"/>
       <c r="L99" s="19"/>
@@ -3192,32 +3311,14 @@
       <c r="O99" s="24"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A100" s="68" t="s">
-        <v>149</v>
-      </c>
-      <c r="B100" s="68">
-        <v>2</v>
-      </c>
-      <c r="C100" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="D100" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="E100" s="67" t="s">
-        <v>97</v>
-      </c>
-      <c r="F100" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="G100" s="72">
-        <f>2-0.0058</f>
-        <v>1.9942</v>
-      </c>
-      <c r="H100" s="68">
-        <f>2+0.0058</f>
-        <v>2.0057999999999998</v>
-      </c>
+      <c r="A100" s="19"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="102"/>
+      <c r="E100" s="103"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="37"/>
+      <c r="H100" s="37"/>
       <c r="J100" s="10"/>
       <c r="K100" s="19"/>
       <c r="L100" s="19"/>
@@ -3226,485 +3327,440 @@
       <c r="O100" s="24"/>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A101" s="68"/>
-      <c r="B101" s="68"/>
-      <c r="C101" s="71"/>
-      <c r="D101" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="E101" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="F101" s="71"/>
-      <c r="G101" s="72"/>
-      <c r="H101" s="68"/>
-      <c r="J101" s="10"/>
-      <c r="K101" s="19"/>
-      <c r="L101" s="19"/>
-      <c r="M101" s="55"/>
-      <c r="N101" s="55"/>
-      <c r="O101" s="24"/>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A102" s="62" t="s">
-        <v>163</v>
-      </c>
-      <c r="B102" s="62">
+      <c r="A101" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="22"/>
+      <c r="F101" s="24"/>
+    </row>
+    <row r="102" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="B102" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="C102" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102" s="69"/>
+      <c r="E102" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" s="69"/>
+      <c r="G102" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="H102" s="69"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A103" s="69"/>
+      <c r="B103" s="70"/>
+      <c r="C103" s="69"/>
+      <c r="D103" s="69"/>
+      <c r="E103" s="69"/>
+      <c r="F103" s="69"/>
+      <c r="G103" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="H103" s="60" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A104" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="B104" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="C104" s="30">
         <v>10</v>
       </c>
-      <c r="C102" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="D102" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="E102" s="67" t="s">
-        <v>123</v>
-      </c>
-      <c r="F102" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="G102" s="61">
-        <f>10-0.019</f>
-        <v>9.9809999999999999</v>
-      </c>
-      <c r="H102" s="61">
-        <f>10+0.019</f>
-        <v>10.019</v>
-      </c>
-      <c r="J102" s="10"/>
-      <c r="K102" s="19"/>
-      <c r="L102" s="19"/>
-      <c r="M102" s="55"/>
-      <c r="N102" s="55"/>
-      <c r="O102" s="24"/>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A103" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B103" s="19"/>
-      <c r="C103" s="19"/>
-      <c r="D103" s="21"/>
-      <c r="E103" s="22"/>
-      <c r="F103" s="24"/>
-    </row>
-    <row r="104" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="B104" s="70" t="s">
-        <v>138</v>
-      </c>
-      <c r="C104" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="D104" s="69"/>
-      <c r="E104" s="69" t="s">
-        <v>9</v>
-      </c>
-      <c r="F104" s="69"/>
-      <c r="G104" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="H104" s="69"/>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A105" s="69"/>
-      <c r="B105" s="70"/>
-      <c r="C105" s="69"/>
-      <c r="D105" s="69"/>
-      <c r="E105" s="69"/>
-      <c r="F105" s="69"/>
-      <c r="G105" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="H105" s="60" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A106" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="B106" s="60" t="s">
-        <v>131</v>
-      </c>
-      <c r="C106" s="30">
-        <v>10</v>
-      </c>
-      <c r="D106" s="65" t="s">
-        <v>150</v>
-      </c>
-      <c r="E106" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="F106" s="65" t="s">
-        <v>150</v>
-      </c>
-      <c r="G106" s="17">
+      <c r="D104" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="E104" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="F104" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="G104" s="17">
         <f>10-0.003</f>
         <v>9.9969999999999999</v>
       </c>
-      <c r="H106" s="58">
+      <c r="H104" s="58">
         <f>10+0.003</f>
         <v>10.003</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A107" s="60" t="s">
-        <v>131</v>
-      </c>
-      <c r="B107" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="C107" s="30">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A105" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="B105" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="C105" s="30">
         <v>300</v>
       </c>
-      <c r="D107" s="65" t="s">
-        <v>152</v>
-      </c>
-      <c r="E107" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="F107" s="65" t="s">
-        <v>152</v>
-      </c>
-      <c r="G107" s="64">
+      <c r="D105" s="65" t="s">
+        <v>154</v>
+      </c>
+      <c r="E105" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="F105" s="65" t="s">
+        <v>154</v>
+      </c>
+      <c r="G105" s="64">
         <f>300-0.3</f>
         <v>299.7</v>
       </c>
-      <c r="H107" s="60">
+      <c r="H105" s="60">
         <f>300+0.3</f>
         <v>300.3</v>
       </c>
     </row>
-    <row r="108" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="56"/>
-      <c r="B108" s="54"/>
-      <c r="C108" s="54"/>
-      <c r="D108" s="55"/>
-      <c r="E108" s="55"/>
-      <c r="F108" s="54"/>
-      <c r="G108" s="14"/>
-      <c r="H108" s="14"/>
-      <c r="I108" s="14"/>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B109" s="19"/>
-      <c r="C109" s="19"/>
-      <c r="D109" s="21"/>
-      <c r="E109" s="22"/>
-      <c r="F109" s="24"/>
-    </row>
-    <row r="110" spans="1:15" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B110" s="26"/>
-      <c r="C110" s="26"/>
-      <c r="D110" s="27"/>
-      <c r="E110" s="28"/>
-      <c r="F110" s="29"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="8"/>
-    </row>
-    <row r="111" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="B111" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="C111" s="69"/>
-      <c r="D111" s="69" t="s">
-        <v>11</v>
-      </c>
-      <c r="E111" s="69"/>
-      <c r="F111" s="69" t="s">
+    <row r="106" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="56"/>
+      <c r="B106" s="54"/>
+      <c r="C106" s="54"/>
+      <c r="D106" s="55"/>
+      <c r="E106" s="55"/>
+      <c r="F106" s="54"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="14"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A107" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B107" s="19"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="21"/>
+      <c r="E107" s="22"/>
+      <c r="F107" s="24"/>
+    </row>
+    <row r="108" spans="1:15" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B108" s="26"/>
+      <c r="C108" s="26"/>
+      <c r="D108" s="27"/>
+      <c r="E108" s="28"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+    </row>
+    <row r="109" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="G111" s="69"/>
+      <c r="B109" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C109" s="69"/>
+      <c r="D109" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" s="69"/>
+      <c r="F109" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="G109" s="69"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A110" s="69"/>
+      <c r="B110" s="69"/>
+      <c r="C110" s="69"/>
+      <c r="D110" s="69"/>
+      <c r="E110" s="69"/>
+      <c r="F110" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="G110" s="60" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A111" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="B111" s="30">
+        <v>100</v>
+      </c>
+      <c r="C111" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="D111" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="E111" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="F111" s="17">
+        <f>100-0.014</f>
+        <v>99.986000000000004</v>
+      </c>
+      <c r="G111" s="17">
+        <f>100+0.014</f>
+        <v>100.014</v>
+      </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A112" s="69"/>
-      <c r="B112" s="69"/>
-      <c r="C112" s="69"/>
-      <c r="D112" s="69"/>
-      <c r="E112" s="69"/>
-      <c r="F112" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="G112" s="60" t="s">
-        <v>130</v>
+      <c r="A112" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="B112" s="30">
+        <v>1</v>
+      </c>
+      <c r="C112" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="D112" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="E112" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="F112" s="52">
+        <f>1-0.00011</f>
+        <v>0.99988999999999995</v>
+      </c>
+      <c r="G112" s="52">
+        <f>1+0.00011</f>
+        <v>1.0001100000000001</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="30" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B113" s="30">
-        <v>100</v>
-      </c>
-      <c r="C113" s="65" t="s">
-        <v>154</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C113" s="75"/>
       <c r="D113" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="E113" s="65" t="s">
-        <v>154</v>
-      </c>
-      <c r="F113" s="17">
-        <f>100-0.014</f>
-        <v>99.986000000000004</v>
-      </c>
-      <c r="G113" s="17">
-        <f>100+0.014</f>
-        <v>100.014</v>
+        <v>105</v>
+      </c>
+      <c r="E113" s="75"/>
+      <c r="F113" s="15">
+        <f>10-0.0011</f>
+        <v>9.9989000000000008</v>
+      </c>
+      <c r="G113" s="15">
+        <f>10+0.0011</f>
+        <v>10.001099999999999</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="30" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B114" s="30">
+        <v>100</v>
+      </c>
+      <c r="C114" s="75"/>
+      <c r="D114" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="E114" s="75"/>
+      <c r="F114" s="17">
+        <f>100-0.011</f>
+        <v>99.989000000000004</v>
+      </c>
+      <c r="G114" s="17">
+        <f>100+0.011</f>
+        <v>100.011</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="31"/>
+      <c r="B115" s="31"/>
+      <c r="C115" s="32"/>
+      <c r="D115" s="33"/>
+      <c r="E115" s="34"/>
+      <c r="F115" s="24"/>
+    </row>
+    <row r="116" spans="1:9" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="B116" s="26"/>
+      <c r="C116" s="26"/>
+      <c r="D116" s="27"/>
+      <c r="E116" s="28"/>
+      <c r="F116" s="29"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
+    </row>
+    <row r="117" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="B117" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C117" s="69"/>
+      <c r="D117" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="E117" s="69"/>
+      <c r="F117" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="G117" s="69"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="69"/>
+      <c r="B118" s="69"/>
+      <c r="C118" s="69"/>
+      <c r="D118" s="69"/>
+      <c r="E118" s="69"/>
+      <c r="F118" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="G118" s="60" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B119" s="30">
         <v>1</v>
       </c>
-      <c r="C114" s="75" t="s">
-        <v>156</v>
-      </c>
-      <c r="D114" s="67" t="s">
-        <v>102</v>
-      </c>
-      <c r="E114" s="75" t="s">
-        <v>156</v>
-      </c>
-      <c r="F114" s="52">
+      <c r="C119" s="75" t="s">
+        <v>162</v>
+      </c>
+      <c r="D119" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="E119" s="75" t="s">
+        <v>162</v>
+      </c>
+      <c r="F119" s="52">
         <f>1-0.00011</f>
         <v>0.99988999999999995</v>
       </c>
-      <c r="G114" s="52">
+      <c r="G119" s="52">
         <f>1+0.00011</f>
         <v>1.0001100000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="B115" s="30">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="B120" s="30">
         <v>10</v>
       </c>
-      <c r="C115" s="75"/>
-      <c r="D115" s="67" t="s">
-        <v>103</v>
-      </c>
-      <c r="E115" s="75"/>
-      <c r="F115" s="15">
-        <f>10-0.0011</f>
-        <v>9.9989000000000008</v>
-      </c>
-      <c r="G115" s="15">
-        <f>10+0.0011</f>
-        <v>10.001099999999999</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="B116" s="30">
-        <v>100</v>
-      </c>
-      <c r="C116" s="75"/>
-      <c r="D116" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="E116" s="75"/>
-      <c r="F116" s="17">
-        <f>100-0.011</f>
-        <v>99.989000000000004</v>
-      </c>
-      <c r="G116" s="17">
-        <f>100+0.011</f>
-        <v>100.011</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="31"/>
-      <c r="B117" s="31"/>
-      <c r="C117" s="32"/>
-      <c r="D117" s="33"/>
-      <c r="E117" s="34"/>
-      <c r="F117" s="24"/>
-    </row>
-    <row r="118" spans="1:9" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="B118" s="26"/>
-      <c r="C118" s="26"/>
-      <c r="D118" s="27"/>
-      <c r="E118" s="28"/>
-      <c r="F118" s="29"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="8"/>
-      <c r="I118" s="8"/>
-    </row>
-    <row r="119" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="B119" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="C119" s="69"/>
-      <c r="D119" s="69" t="s">
-        <v>140</v>
-      </c>
-      <c r="E119" s="69"/>
-      <c r="F119" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="G119" s="69"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="69"/>
-      <c r="B120" s="69"/>
-      <c r="C120" s="69"/>
-      <c r="D120" s="69"/>
-      <c r="E120" s="69"/>
-      <c r="F120" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="G120" s="60" t="s">
-        <v>130</v>
+      <c r="C120" s="75"/>
+      <c r="D120" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="E120" s="75"/>
+      <c r="F120" s="15">
+        <f>10-0.0041</f>
+        <v>9.9959000000000007</v>
+      </c>
+      <c r="G120" s="15">
+        <f>10+0.0041</f>
+        <v>10.004099999999999</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="30" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B121" s="30">
-        <v>1</v>
-      </c>
-      <c r="C121" s="75" t="s">
-        <v>160</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="C121" s="75"/>
       <c r="D121" s="67" t="s">
-        <v>105</v>
-      </c>
-      <c r="E121" s="75" t="s">
-        <v>160</v>
-      </c>
-      <c r="F121" s="52">
-        <f>1-0.00011</f>
-        <v>0.99988999999999995</v>
-      </c>
-      <c r="G121" s="52">
-        <f>1+0.00011</f>
-        <v>1.0001100000000001</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="B122" s="30">
-        <v>10</v>
-      </c>
-      <c r="C122" s="75"/>
-      <c r="D122" s="67" t="s">
-        <v>106</v>
-      </c>
-      <c r="E122" s="75"/>
-      <c r="F122" s="15">
-        <f>10-0.0041</f>
-        <v>9.9959000000000007</v>
-      </c>
-      <c r="G122" s="15">
-        <f>10+0.0041</f>
-        <v>10.004099999999999</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="B123" s="30">
-        <v>100</v>
-      </c>
-      <c r="C123" s="75"/>
-      <c r="D123" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="E123" s="75"/>
-      <c r="F123" s="17">
+        <v>109</v>
+      </c>
+      <c r="E121" s="75"/>
+      <c r="F121" s="17">
         <f>100-0.081</f>
         <v>99.918999999999997</v>
       </c>
-      <c r="G123" s="17">
+      <c r="G121" s="17">
         <f>100+0.081</f>
         <v>100.081</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="35"/>
-      <c r="B124" s="35"/>
-      <c r="C124" s="55"/>
-      <c r="D124" s="55"/>
-      <c r="E124" s="24"/>
-      <c r="F124" s="24"/>
-      <c r="G124" s="14"/>
-      <c r="H124" s="14"/>
-      <c r="I124" s="14"/>
+    <row r="122" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="35"/>
+      <c r="B122" s="35"/>
+      <c r="C122" s="55"/>
+      <c r="D122" s="55"/>
+      <c r="E122" s="24"/>
+      <c r="F122" s="24"/>
+      <c r="G122" s="14"/>
+      <c r="H122" s="14"/>
+      <c r="I122" s="14"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="79" t="s">
+        <v>168</v>
+      </c>
+      <c r="B123" s="79"/>
+      <c r="C123" s="101" t="s">
+        <v>169</v>
+      </c>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="24"/>
+      <c r="I123" s="2"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="79" t="s">
+        <v>170</v>
+      </c>
+      <c r="B124" s="79"/>
+      <c r="C124" s="38"/>
+      <c r="D124" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E124" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="F124" s="81"/>
+      <c r="G124" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H124" s="40"/>
+      <c r="I124" s="2"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="35"/>
-      <c r="B125" s="37"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="24"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="B131" s="79"/>
-      <c r="C131" s="38"/>
-      <c r="D131" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="E131" s="80" t="s">
-        <v>45</v>
-      </c>
-      <c r="F131" s="81"/>
-      <c r="G131" s="14" t="s">
+      <c r="A125" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="H131" s="40"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="B133" s="79"/>
-      <c r="C133" s="82" t="s">
-        <v>46</v>
-      </c>
-      <c r="D133" s="82"/>
+      <c r="B125" s="79"/>
+      <c r="C125" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="D125" s="82"/>
+      <c r="I125" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="141">
+  <mergeCells count="142">
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="E124:F124"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A31:A32"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D20:E20"/>
@@ -3721,12 +3777,12 @@
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="B34:C35"/>
-    <mergeCell ref="D34:E35"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="E114:E116"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="B31:C32"/>
+    <mergeCell ref="D31:E32"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="E112:E114"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:D125"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="A20:C20"/>
@@ -3740,117 +3796,116 @@
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="D70:E71"/>
+    <mergeCell ref="B82:C83"/>
+    <mergeCell ref="E82:F83"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:C118"/>
+    <mergeCell ref="D117:E118"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="E119:E121"/>
+    <mergeCell ref="B109:C110"/>
+    <mergeCell ref="D109:E110"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="C112:C114"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C43"/>
+    <mergeCell ref="E35:E43"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="A54:A61"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="C55:C61"/>
+    <mergeCell ref="F55:F61"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:C47"/>
+    <mergeCell ref="E46:F47"/>
     <mergeCell ref="A51:A53"/>
     <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="D73:E74"/>
-    <mergeCell ref="B85:C86"/>
-    <mergeCell ref="E85:F86"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="B119:C120"/>
-    <mergeCell ref="D119:E120"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="C121:C123"/>
-    <mergeCell ref="E121:E123"/>
-    <mergeCell ref="B111:C112"/>
-    <mergeCell ref="D111:E112"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C46"/>
-    <mergeCell ref="E38:E46"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="A57:A64"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="C58:C64"/>
-    <mergeCell ref="F58:F64"/>
-    <mergeCell ref="B59:B64"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:C50"/>
-    <mergeCell ref="E49:F50"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="E76:E78"/>
-    <mergeCell ref="C79:C82"/>
-    <mergeCell ref="E79:E82"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B73:C74"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="H89:H90"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="D91:D93"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="E76:E79"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B70:C71"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="D88:D90"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="F89:F91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="H92:H94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="B92:B94"/>
     <mergeCell ref="C92:C94"/>
     <mergeCell ref="F92:F94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="H95:H97"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="F95:F97"/>
-    <mergeCell ref="G95:G97"/>
-    <mergeCell ref="H100:H101"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="C104:D105"/>
-    <mergeCell ref="E104:F105"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="G92:G94"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:D103"/>
+    <mergeCell ref="E102:F103"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
   </mergeCells>
-  <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="97" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.39370078740157483" bottom="0.61635416666666665" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;R&amp;"Times New Roman,обычный"&amp;P страница из &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="47" max="7" man="1"/>
+    <brk id="44" max="7" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>

--- a/Shablon/34461A.xlsx
+++ b/Shablon/34461A.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="170">
   <si>
     <t>АО "Гос МКБ "Вымпел" им. И.И. Торопова"</t>
   </si>
@@ -464,9 +464,6 @@
     <t>_customer</t>
   </si>
   <si>
-    <t>Протокол поверки №</t>
-  </si>
-  <si>
     <t>Предел измерений</t>
   </si>
   <si>
@@ -610,7 +607,7 @@
     <numFmt numFmtId="169" formatCode="#,##0.0"/>
     <numFmt numFmtId="170" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -728,6 +725,11 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -825,9 +827,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1017,123 +1020,124 @@
     <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Денежный" xfId="1" builtinId="4"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1438,7 +1442,7 @@
   <dimension ref="A1:O125"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1451,68 +1455,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1527,16 +1531,17 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="100" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
+      <c r="A7" s="105" t="str">
+        <f>"Протокол поверки № 10/"&amp;C125&amp;"/"&amp;D10</f>
+        <v>Протокол поверки № 10/_date/_numb</v>
+      </c>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1551,11 +1556,11 @@
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="99"/>
-      <c r="C9" s="99"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
       <c r="D9" s="45" t="s">
         <v>111</v>
       </c>
@@ -1567,11 +1572,11 @@
       <c r="H9" s="48"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="99"/>
-      <c r="C10" s="99"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
       <c r="D10" s="49" t="s">
         <v>43</v>
       </c>
@@ -1581,11 +1586,11 @@
       <c r="H10" s="48"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="99" t="s">
+      <c r="A11" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="99"/>
-      <c r="C11" s="99"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
       <c r="D11" s="45"/>
       <c r="E11" s="46"/>
       <c r="F11" s="46"/>
@@ -1593,11 +1598,11 @@
       <c r="H11" s="48"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="99" t="s">
+      <c r="A12" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="99"/>
-      <c r="C12" s="99"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
       <c r="D12" s="50"/>
       <c r="E12" s="46"/>
       <c r="F12" s="46"/>
@@ -1605,11 +1610,11 @@
       <c r="H12" s="48"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="99" t="s">
+      <c r="A13" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
       <c r="D13" s="49" t="s">
         <v>126</v>
       </c>
@@ -1619,11 +1624,11 @@
       <c r="H13" s="48"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="99" t="s">
+      <c r="A14" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="99"/>
-      <c r="C14" s="99"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
       <c r="D14" s="51" t="s">
         <v>117</v>
       </c>
@@ -1633,11 +1638,11 @@
       <c r="H14" s="48"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="99"/>
-      <c r="C15" s="99"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
       <c r="D15" s="45" t="s">
         <v>119</v>
       </c>
@@ -1656,95 +1661,95 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="86" t="s">
+      <c r="A18" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="95" t="s">
+      <c r="B18" s="82"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95" t="s">
+      <c r="E18" s="78"/>
+      <c r="F18" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="95"/>
+      <c r="G18" s="78"/>
       <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="83" t="s">
+      <c r="A19" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="84"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="96" t="s">
+      <c r="B19" s="88"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="96"/>
-      <c r="F19" s="86" t="s">
+      <c r="E19" s="79"/>
+      <c r="F19" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="87"/>
+      <c r="G19" s="83"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="88" t="s">
+      <c r="A20" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="96" t="s">
+      <c r="B20" s="90"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="96"/>
-      <c r="F20" s="86" t="s">
+      <c r="E20" s="79"/>
+      <c r="F20" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="87"/>
+      <c r="G20" s="83"/>
       <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="83" t="s">
+      <c r="A21" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="84"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="91" t="s">
+      <c r="B21" s="88"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="92"/>
-      <c r="F21" s="86" t="s">
+      <c r="E21" s="94"/>
+      <c r="F21" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="87"/>
+      <c r="G21" s="83"/>
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="83" t="s">
+      <c r="A22" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="84"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="86" t="s">
+      <c r="B22" s="88"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="87"/>
+      <c r="G22" s="83"/>
       <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="83" t="s">
+      <c r="A23" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="84"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="86" t="s">
+      <c r="B23" s="88"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="87"/>
+      <c r="G23" s="83"/>
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1816,52 +1821,52 @@
       <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="69" t="s">
+      <c r="A31" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="B31" s="69" t="s">
+      <c r="C31" s="77"/>
+      <c r="D31" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69" t="s">
+      <c r="G31" s="77"/>
+      <c r="I31" s="13"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="77"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="G31" s="69"/>
-      <c r="I31" s="13"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="69"/>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="60" t="s">
+      <c r="G32" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="G32" s="60" t="s">
+      <c r="I32" s="13"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="77" t="s">
         <v>132</v>
-      </c>
-      <c r="I32" s="13"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="69" t="s">
-        <v>133</v>
       </c>
       <c r="B33" s="64">
         <v>100</v>
       </c>
-      <c r="C33" s="75" t="s">
-        <v>134</v>
+      <c r="C33" s="85" t="s">
+        <v>133</v>
       </c>
       <c r="D33" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="75" t="s">
-        <v>134</v>
+      <c r="E33" s="85" t="s">
+        <v>133</v>
       </c>
       <c r="F33" s="15">
         <f>100-0.0085</f>
@@ -1874,15 +1879,15 @@
       <c r="I33" s="10"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="69"/>
+      <c r="A34" s="77"/>
       <c r="B34" s="64">
         <v>-100</v>
       </c>
-      <c r="C34" s="75"/>
+      <c r="C34" s="85"/>
       <c r="D34" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="75"/>
+      <c r="E34" s="85"/>
       <c r="F34" s="15">
         <f>-100-0.0085</f>
         <v>-100.0085</v>
@@ -1894,20 +1899,20 @@
       <c r="I34" s="10"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="69" t="s">
-        <v>135</v>
+      <c r="A35" s="77" t="s">
+        <v>134</v>
       </c>
       <c r="B35" s="64">
         <v>1</v>
       </c>
-      <c r="C35" s="75" t="s">
-        <v>136</v>
+      <c r="C35" s="85" t="s">
+        <v>135</v>
       </c>
       <c r="D35" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="72" t="s">
-        <v>136</v>
+      <c r="E35" s="101" t="s">
+        <v>135</v>
       </c>
       <c r="F35" s="59">
         <f>1-0.000047</f>
@@ -1920,15 +1925,15 @@
       <c r="I35" s="10"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="69"/>
+      <c r="A36" s="77"/>
       <c r="B36" s="64">
         <v>-1</v>
       </c>
-      <c r="C36" s="75"/>
+      <c r="C36" s="85"/>
       <c r="D36" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="E36" s="72"/>
+      <c r="E36" s="101"/>
       <c r="F36" s="59">
         <f>-1-0.000047</f>
         <v>-1.0000469999999999</v>
@@ -1940,17 +1945,17 @@
       <c r="I36" s="10"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="69" t="s">
-        <v>137</v>
+      <c r="A37" s="77" t="s">
+        <v>136</v>
       </c>
       <c r="B37" s="64">
         <v>4</v>
       </c>
-      <c r="C37" s="75"/>
+      <c r="C37" s="85"/>
       <c r="D37" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="72"/>
+      <c r="E37" s="101"/>
       <c r="F37" s="52">
         <f>4-0.00019</f>
         <v>3.9998100000000001</v>
@@ -1962,15 +1967,15 @@
       <c r="I37" s="16"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="69"/>
+      <c r="A38" s="77"/>
       <c r="B38" s="64">
         <v>10</v>
       </c>
-      <c r="C38" s="75"/>
+      <c r="C38" s="85"/>
       <c r="D38" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="72"/>
+      <c r="E38" s="101"/>
       <c r="F38" s="15">
         <f>10-0.0004</f>
         <v>9.9995999999999992</v>
@@ -1982,15 +1987,15 @@
       <c r="I38" s="16"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="69"/>
+      <c r="A39" s="77"/>
       <c r="B39" s="64">
         <v>-10</v>
       </c>
-      <c r="C39" s="75"/>
+      <c r="C39" s="85"/>
       <c r="D39" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="72"/>
+      <c r="E39" s="101"/>
       <c r="F39" s="15">
         <f>-10-0.0004</f>
         <v>-10.000400000000001</v>
@@ -2002,17 +2007,17 @@
       <c r="I39" s="16"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="69" t="s">
-        <v>138</v>
+      <c r="A40" s="77" t="s">
+        <v>137</v>
       </c>
       <c r="B40" s="64">
         <v>100</v>
       </c>
-      <c r="C40" s="75"/>
+      <c r="C40" s="85"/>
       <c r="D40" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="E40" s="72"/>
+      <c r="E40" s="101"/>
       <c r="F40" s="15">
         <f>100-0.0051</f>
         <v>99.994900000000001</v>
@@ -2024,15 +2029,15 @@
       <c r="I40" s="16"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="69"/>
+      <c r="A41" s="77"/>
       <c r="B41" s="64">
         <v>-100</v>
       </c>
-      <c r="C41" s="75"/>
+      <c r="C41" s="85"/>
       <c r="D41" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="E41" s="72"/>
+      <c r="E41" s="101"/>
       <c r="F41" s="15">
         <f>-100-0.0051</f>
         <v>-100.0051</v>
@@ -2044,17 +2049,17 @@
       <c r="I41" s="16"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="93" t="s">
-        <v>139</v>
+      <c r="A42" s="95" t="s">
+        <v>138</v>
       </c>
       <c r="B42" s="64">
         <v>1000</v>
       </c>
-      <c r="C42" s="75"/>
+      <c r="C42" s="85"/>
       <c r="D42" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="72"/>
+      <c r="E42" s="101"/>
       <c r="F42" s="17">
         <f>1000-0.055</f>
         <v>999.94500000000005</v>
@@ -2066,15 +2071,15 @@
       <c r="I42" s="16"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="93"/>
+      <c r="A43" s="95"/>
       <c r="B43" s="64">
         <v>-500</v>
       </c>
-      <c r="C43" s="75"/>
+      <c r="C43" s="85"/>
       <c r="D43" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="72"/>
+      <c r="E43" s="101"/>
       <c r="F43" s="15">
         <f>-500-0.0325</f>
         <v>-500.03250000000003</v>
@@ -2098,48 +2103,48 @@
       <c r="H45" s="12"/>
     </row>
     <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="B46" s="69" t="s">
-        <v>140</v>
-      </c>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69" t="s">
+      <c r="A46" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="C46" s="77"/>
+      <c r="D46" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="E46" s="69" t="s">
+      <c r="E46" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="F46" s="69"/>
-      <c r="G46" s="69" t="s">
+      <c r="F46" s="77"/>
+      <c r="G46" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="H46" s="77"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="77"/>
+      <c r="B47" s="77"/>
+      <c r="C47" s="77"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="H46" s="69"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="69"/>
-      <c r="B47" s="69"/>
-      <c r="C47" s="69"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="60" t="s">
+      <c r="H47" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="H47" s="60" t="s">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="96" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="78" t="s">
+      <c r="B48" s="97">
+        <v>100</v>
+      </c>
+      <c r="C48" s="98" t="s">
         <v>133</v>
-      </c>
-      <c r="B48" s="77">
-        <v>100</v>
-      </c>
-      <c r="C48" s="76" t="s">
-        <v>134</v>
       </c>
       <c r="D48" s="63" t="s">
         <v>18</v>
@@ -2147,8 +2152,8 @@
       <c r="E48" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="F48" s="76" t="s">
-        <v>134</v>
+      <c r="F48" s="98" t="s">
+        <v>133</v>
       </c>
       <c r="G48" s="18">
         <f>100-0.09</f>
@@ -2160,16 +2165,16 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="78"/>
-      <c r="B49" s="77"/>
-      <c r="C49" s="76"/>
+      <c r="A49" s="96"/>
+      <c r="B49" s="97"/>
+      <c r="C49" s="98"/>
       <c r="D49" s="63" t="s">
         <v>20</v>
       </c>
       <c r="E49" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="F49" s="76"/>
+      <c r="F49" s="98"/>
       <c r="G49" s="18">
         <f>100-0.17</f>
         <v>99.83</v>
@@ -2180,16 +2185,16 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="78"/>
-      <c r="B50" s="77"/>
-      <c r="C50" s="76"/>
+      <c r="A50" s="96"/>
+      <c r="B50" s="97"/>
+      <c r="C50" s="98"/>
       <c r="D50" s="63" t="s">
         <v>25</v>
       </c>
       <c r="E50" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="F50" s="76"/>
+      <c r="F50" s="98"/>
       <c r="G50" s="18">
         <f>100-4.5</f>
         <v>95.5</v>
@@ -2200,14 +2205,14 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="68" t="s">
+      <c r="A51" s="99" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51" s="97">
+        <v>1</v>
+      </c>
+      <c r="C51" s="98" t="s">
         <v>135</v>
-      </c>
-      <c r="B51" s="77">
-        <v>1</v>
-      </c>
-      <c r="C51" s="76" t="s">
-        <v>136</v>
       </c>
       <c r="D51" s="63" t="s">
         <v>18</v>
@@ -2215,8 +2220,8 @@
       <c r="E51" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="F51" s="76" t="s">
-        <v>136</v>
+      <c r="F51" s="98" t="s">
+        <v>135</v>
       </c>
       <c r="G51" s="15">
         <f>1-0.0009</f>
@@ -2228,16 +2233,16 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="68"/>
-      <c r="B52" s="77"/>
-      <c r="C52" s="76"/>
+      <c r="A52" s="99"/>
+      <c r="B52" s="97"/>
+      <c r="C52" s="98"/>
       <c r="D52" s="63" t="s">
         <v>20</v>
       </c>
       <c r="E52" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="F52" s="76"/>
+      <c r="F52" s="98"/>
       <c r="G52" s="17">
         <f>1-0.0017</f>
         <v>0.99829999999999997</v>
@@ -2248,16 +2253,16 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="68"/>
-      <c r="B53" s="77"/>
-      <c r="C53" s="76"/>
+      <c r="A53" s="99"/>
+      <c r="B53" s="97"/>
+      <c r="C53" s="98"/>
       <c r="D53" s="63" t="s">
         <v>25</v>
       </c>
       <c r="E53" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="F53" s="76"/>
+      <c r="F53" s="98"/>
       <c r="G53" s="17">
         <f>1-0.045</f>
         <v>0.95499999999999996</v>
@@ -2268,23 +2273,23 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="68" t="s">
-        <v>137</v>
+      <c r="A54" s="99" t="s">
+        <v>136</v>
       </c>
       <c r="B54" s="63">
         <v>30</v>
       </c>
       <c r="C54" s="63" t="s">
-        <v>134</v>
-      </c>
-      <c r="D54" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" s="100" t="s">
         <v>18</v>
       </c>
       <c r="E54" s="67" t="s">
         <v>66</v>
       </c>
       <c r="F54" s="63" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G54" s="17">
         <f>30-0.003</f>
@@ -2296,19 +2301,19 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="68"/>
+      <c r="A55" s="99"/>
       <c r="B55" s="63">
         <v>1</v>
       </c>
-      <c r="C55" s="71" t="s">
-        <v>136</v>
-      </c>
-      <c r="D55" s="71"/>
+      <c r="C55" s="100" t="s">
+        <v>135</v>
+      </c>
+      <c r="D55" s="100"/>
       <c r="E55" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="F55" s="71" t="s">
-        <v>136</v>
+      <c r="F55" s="100" t="s">
+        <v>135</v>
       </c>
       <c r="G55" s="15">
         <f>1-0.0036</f>
@@ -2320,18 +2325,18 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="68"/>
-      <c r="B56" s="71">
+      <c r="A56" s="99"/>
+      <c r="B56" s="100">
         <v>10</v>
       </c>
-      <c r="C56" s="71"/>
+      <c r="C56" s="100"/>
       <c r="D56" s="63" t="s">
         <v>19</v>
       </c>
       <c r="E56" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="F56" s="71"/>
+      <c r="F56" s="100"/>
       <c r="G56" s="17">
         <f>10-0.009</f>
         <v>9.9909999999999997</v>
@@ -2342,16 +2347,16 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="68"/>
-      <c r="B57" s="71"/>
-      <c r="C57" s="71"/>
+      <c r="A57" s="99"/>
+      <c r="B57" s="100"/>
+      <c r="C57" s="100"/>
       <c r="D57" s="63" t="s">
         <v>22</v>
       </c>
       <c r="E57" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="F57" s="71"/>
+      <c r="F57" s="100"/>
       <c r="G57" s="17">
         <f>10-0.009</f>
         <v>9.9909999999999997</v>
@@ -2362,16 +2367,16 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="68"/>
-      <c r="B58" s="71"/>
-      <c r="C58" s="71"/>
+      <c r="A58" s="99"/>
+      <c r="B58" s="100"/>
+      <c r="C58" s="100"/>
       <c r="D58" s="63" t="s">
         <v>23</v>
       </c>
       <c r="E58" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="F58" s="71"/>
+      <c r="F58" s="100"/>
       <c r="G58" s="17">
         <f>10-0.009</f>
         <v>9.9909999999999997</v>
@@ -2382,16 +2387,16 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="68"/>
-      <c r="B59" s="71"/>
-      <c r="C59" s="71"/>
+      <c r="A59" s="99"/>
+      <c r="B59" s="100"/>
+      <c r="C59" s="100"/>
       <c r="D59" s="63" t="s">
         <v>20</v>
       </c>
       <c r="E59" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="F59" s="71"/>
+      <c r="F59" s="100"/>
       <c r="G59" s="18">
         <f>10-0.017</f>
         <v>9.9830000000000005</v>
@@ -2402,16 +2407,16 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="68"/>
-      <c r="B60" s="71"/>
-      <c r="C60" s="71"/>
+      <c r="A60" s="99"/>
+      <c r="B60" s="100"/>
+      <c r="C60" s="100"/>
       <c r="D60" s="63" t="s">
         <v>24</v>
       </c>
       <c r="E60" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="F60" s="71"/>
+      <c r="F60" s="100"/>
       <c r="G60" s="17">
         <f>10-0.068</f>
         <v>9.9320000000000004</v>
@@ -2422,16 +2427,16 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="68"/>
-      <c r="B61" s="71"/>
-      <c r="C61" s="71"/>
+      <c r="A61" s="99"/>
+      <c r="B61" s="100"/>
+      <c r="C61" s="100"/>
       <c r="D61" s="63" t="s">
         <v>25</v>
       </c>
       <c r="E61" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="F61" s="71"/>
+      <c r="F61" s="100"/>
       <c r="G61" s="18">
         <f>10-0.45</f>
         <v>9.5500000000000007</v>
@@ -2442,14 +2447,14 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="68" t="s">
-        <v>138</v>
-      </c>
-      <c r="B62" s="71">
+      <c r="A62" s="99" t="s">
+        <v>137</v>
+      </c>
+      <c r="B62" s="100">
         <v>100</v>
       </c>
-      <c r="C62" s="71" t="s">
-        <v>136</v>
+      <c r="C62" s="100" t="s">
+        <v>135</v>
       </c>
       <c r="D62" s="63" t="s">
         <v>18</v>
@@ -2457,8 +2462,8 @@
       <c r="E62" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="F62" s="71" t="s">
-        <v>136</v>
+      <c r="F62" s="100" t="s">
+        <v>135</v>
       </c>
       <c r="G62" s="18">
         <f>100-0.09</f>
@@ -2470,16 +2475,16 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="68"/>
-      <c r="B63" s="71"/>
-      <c r="C63" s="71"/>
+      <c r="A63" s="99"/>
+      <c r="B63" s="100"/>
+      <c r="C63" s="100"/>
       <c r="D63" s="63" t="s">
         <v>20</v>
       </c>
       <c r="E63" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="F63" s="71"/>
+      <c r="F63" s="100"/>
       <c r="G63" s="64">
         <f>100-0.17</f>
         <v>99.83</v>
@@ -2490,18 +2495,18 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="68"/>
+      <c r="A64" s="99"/>
       <c r="B64" s="63">
         <v>70</v>
       </c>
-      <c r="C64" s="71"/>
+      <c r="C64" s="100"/>
       <c r="D64" s="63" t="s">
         <v>25</v>
       </c>
       <c r="E64" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="F64" s="71"/>
+      <c r="F64" s="100"/>
       <c r="G64" s="64">
         <f>70-3.3</f>
         <v>66.7</v>
@@ -2512,14 +2517,14 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="68" t="s">
-        <v>141</v>
+      <c r="A65" s="99" t="s">
+        <v>140</v>
       </c>
       <c r="B65" s="63">
         <v>750</v>
       </c>
-      <c r="C65" s="71" t="s">
-        <v>136</v>
+      <c r="C65" s="100" t="s">
+        <v>135</v>
       </c>
       <c r="D65" s="63" t="s">
         <v>18</v>
@@ -2527,8 +2532,8 @@
       <c r="E65" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="F65" s="71" t="s">
-        <v>136</v>
+      <c r="F65" s="100" t="s">
+        <v>135</v>
       </c>
       <c r="G65" s="64">
         <f>750-0.675</f>
@@ -2540,18 +2545,18 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="68"/>
+      <c r="A66" s="99"/>
       <c r="B66" s="63">
         <v>210</v>
       </c>
-      <c r="C66" s="71"/>
+      <c r="C66" s="100"/>
       <c r="D66" s="63" t="s">
         <v>20</v>
       </c>
       <c r="E66" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="F66" s="71"/>
+      <c r="F66" s="100"/>
       <c r="G66" s="18">
         <f>210-0.627</f>
         <v>209.37299999999999</v>
@@ -2562,18 +2567,18 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="68"/>
+      <c r="A67" s="99"/>
       <c r="B67" s="63">
         <v>70</v>
       </c>
-      <c r="C67" s="71"/>
+      <c r="C67" s="100"/>
       <c r="D67" s="63" t="s">
         <v>25</v>
       </c>
       <c r="E67" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="F67" s="71"/>
+      <c r="F67" s="100"/>
       <c r="G67" s="64">
         <f>70-6.6</f>
         <v>63.4</v>
@@ -2585,13 +2590,13 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="19"/>
-      <c r="B68" s="102"/>
-      <c r="C68" s="102"/>
-      <c r="D68" s="102"/>
-      <c r="E68" s="103"/>
-      <c r="F68" s="102"/>
-      <c r="G68" s="104"/>
-      <c r="H68" s="104"/>
+      <c r="B68" s="69"/>
+      <c r="C68" s="69"/>
+      <c r="D68" s="69"/>
+      <c r="E68" s="70"/>
+      <c r="F68" s="69"/>
+      <c r="G68" s="71"/>
+      <c r="H68" s="71"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="25" t="s">
@@ -2604,50 +2609,50 @@
       <c r="F69" s="24"/>
     </row>
     <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="B70" s="69" t="s">
-        <v>140</v>
-      </c>
-      <c r="C70" s="69"/>
-      <c r="D70" s="69" t="s">
-        <v>142</v>
-      </c>
-      <c r="E70" s="69"/>
-      <c r="F70" s="69" t="s">
+      <c r="A70" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="B70" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70" s="77"/>
+      <c r="D70" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="E70" s="77"/>
+      <c r="F70" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="G70" s="77"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="77"/>
+      <c r="B71" s="77"/>
+      <c r="C71" s="77"/>
+      <c r="D71" s="77"/>
+      <c r="E71" s="77"/>
+      <c r="F71" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="G70" s="69"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="69"/>
-      <c r="B71" s="69"/>
-      <c r="C71" s="69"/>
-      <c r="D71" s="69"/>
-      <c r="E71" s="69"/>
-      <c r="F71" s="60" t="s">
+      <c r="G71" s="60" t="s">
         <v>131</v>
-      </c>
-      <c r="G71" s="60" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="62" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B72" s="62">
         <v>100</v>
       </c>
       <c r="C72" s="65" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D72" s="67" t="s">
         <v>80</v>
       </c>
       <c r="E72" s="65" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F72" s="17">
         <f>100-0.075</f>
@@ -2660,19 +2665,19 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B73" s="62">
         <v>1</v>
       </c>
-      <c r="C73" s="75" t="s">
-        <v>146</v>
+      <c r="C73" s="85" t="s">
+        <v>145</v>
       </c>
       <c r="D73" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="E73" s="75" t="s">
-        <v>146</v>
+      <c r="E73" s="85" t="s">
+        <v>145</v>
       </c>
       <c r="F73" s="52">
         <f>1-0.00056</f>
@@ -2685,16 +2690,16 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B74" s="62">
         <v>10</v>
       </c>
-      <c r="C74" s="75"/>
+      <c r="C74" s="85"/>
       <c r="D74" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="E74" s="75"/>
+      <c r="E74" s="85"/>
       <c r="F74" s="17">
         <f>10-0.007</f>
         <v>9.9930000000000003</v>
@@ -2706,16 +2711,16 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="62" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B75" s="62">
         <v>100</v>
       </c>
-      <c r="C75" s="75"/>
+      <c r="C75" s="85"/>
       <c r="D75" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="E75" s="75"/>
+      <c r="E75" s="85"/>
       <c r="F75" s="17">
         <f>100-0.055</f>
         <v>99.944999999999993</v>
@@ -2727,19 +2732,19 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="62" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B76" s="62">
         <v>1</v>
       </c>
-      <c r="C76" s="75" t="s">
-        <v>150</v>
+      <c r="C76" s="85" t="s">
+        <v>149</v>
       </c>
       <c r="D76" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="E76" s="75" t="s">
-        <v>150</v>
+      <c r="E76" s="85" t="s">
+        <v>149</v>
       </c>
       <c r="F76" s="15">
         <f>1-0.0011</f>
@@ -2752,16 +2757,16 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="62" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B77" s="62">
         <v>2</v>
       </c>
-      <c r="C77" s="75"/>
+      <c r="C77" s="85"/>
       <c r="D77" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="E77" s="75"/>
+      <c r="E77" s="85"/>
       <c r="F77" s="15">
         <f>2-0.0046</f>
         <v>1.9954000000000001</v>
@@ -2772,17 +2777,17 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="68">
+      <c r="A78" s="99">
         <v>10</v>
       </c>
       <c r="B78" s="62">
         <v>5</v>
       </c>
-      <c r="C78" s="75"/>
+      <c r="C78" s="85"/>
       <c r="D78" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="E78" s="75"/>
+      <c r="E78" s="85"/>
       <c r="F78" s="17">
         <f>5-0.012</f>
         <v>4.9880000000000004</v>
@@ -2793,15 +2798,15 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="68"/>
+      <c r="A79" s="99"/>
       <c r="B79" s="62">
         <v>10</v>
       </c>
-      <c r="C79" s="75"/>
+      <c r="C79" s="85"/>
       <c r="D79" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="E79" s="75"/>
+      <c r="E79" s="85"/>
       <c r="F79" s="17">
         <f>10-0.022</f>
         <v>9.9779999999999998</v>
@@ -2814,9 +2819,9 @@
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="19"/>
       <c r="B80" s="19"/>
-      <c r="C80" s="105"/>
-      <c r="D80" s="103"/>
-      <c r="E80" s="105"/>
+      <c r="C80" s="72"/>
+      <c r="D80" s="70"/>
+      <c r="E80" s="72"/>
       <c r="F80" s="24"/>
       <c r="G80" s="19"/>
     </row>
@@ -2831,24 +2836,24 @@
       <c r="F81" s="24"/>
     </row>
     <row r="82" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="B82" s="69" t="s">
-        <v>140</v>
-      </c>
-      <c r="C82" s="69"/>
-      <c r="D82" s="69" t="s">
+      <c r="A82" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="B82" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="C82" s="77"/>
+      <c r="D82" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="E82" s="69" t="s">
+      <c r="E82" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="F82" s="69"/>
-      <c r="G82" s="69" t="s">
-        <v>130</v>
-      </c>
-      <c r="H82" s="69"/>
+      <c r="F82" s="77"/>
+      <c r="G82" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="H82" s="77"/>
       <c r="J82" s="53"/>
       <c r="K82" s="53"/>
       <c r="L82" s="53"/>
@@ -2857,17 +2862,17 @@
       <c r="O82" s="53"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A83" s="69"/>
-      <c r="B83" s="69"/>
-      <c r="C83" s="69"/>
-      <c r="D83" s="69"/>
-      <c r="E83" s="69"/>
-      <c r="F83" s="69"/>
+      <c r="A83" s="77"/>
+      <c r="B83" s="77"/>
+      <c r="C83" s="77"/>
+      <c r="D83" s="77"/>
+      <c r="E83" s="77"/>
+      <c r="F83" s="77"/>
       <c r="G83" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="H83" s="60" t="s">
         <v>131</v>
-      </c>
-      <c r="H83" s="60" t="s">
-        <v>132</v>
       </c>
       <c r="J83" s="53"/>
       <c r="K83" s="53"/>
@@ -2877,14 +2882,14 @@
       <c r="O83" s="53"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A84" s="68" t="s">
+      <c r="A84" s="99" t="s">
+        <v>142</v>
+      </c>
+      <c r="B84" s="99">
+        <v>100</v>
+      </c>
+      <c r="C84" s="85" t="s">
         <v>143</v>
-      </c>
-      <c r="B84" s="68">
-        <v>100</v>
-      </c>
-      <c r="C84" s="75" t="s">
-        <v>144</v>
       </c>
       <c r="D84" s="63" t="s">
         <v>18</v>
@@ -2892,14 +2897,14 @@
       <c r="E84" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="F84" s="75" t="s">
-        <v>144</v>
-      </c>
-      <c r="G84" s="73">
+      <c r="F84" s="85" t="s">
+        <v>143</v>
+      </c>
+      <c r="G84" s="102">
         <f>100-0.14</f>
         <v>99.86</v>
       </c>
-      <c r="H84" s="73">
+      <c r="H84" s="102">
         <f>100+0.14</f>
         <v>100.14</v>
       </c>
@@ -2911,18 +2916,18 @@
       <c r="O84" s="24"/>
     </row>
     <row r="85" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="68"/>
-      <c r="B85" s="68"/>
-      <c r="C85" s="75"/>
+      <c r="A85" s="99"/>
+      <c r="B85" s="99"/>
+      <c r="C85" s="85"/>
       <c r="D85" s="63" t="s">
         <v>26</v>
       </c>
       <c r="E85" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="F85" s="75"/>
-      <c r="G85" s="73"/>
-      <c r="H85" s="73"/>
+      <c r="F85" s="85"/>
+      <c r="G85" s="102"/>
+      <c r="H85" s="102"/>
       <c r="J85" s="10"/>
       <c r="K85" s="19"/>
       <c r="L85" s="19"/>
@@ -2931,14 +2936,14 @@
       <c r="O85" s="24"/>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86" s="68" t="s">
+      <c r="A86" s="99" t="s">
+        <v>144</v>
+      </c>
+      <c r="B86" s="99">
+        <v>1</v>
+      </c>
+      <c r="C86" s="100" t="s">
         <v>145</v>
-      </c>
-      <c r="B86" s="68">
-        <v>1</v>
-      </c>
-      <c r="C86" s="71" t="s">
-        <v>146</v>
       </c>
       <c r="D86" s="63" t="s">
         <v>18</v>
@@ -2946,14 +2951,14 @@
       <c r="E86" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="F86" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="G86" s="72">
+      <c r="F86" s="100" t="s">
+        <v>145</v>
+      </c>
+      <c r="G86" s="101">
         <f>1-0.0014</f>
         <v>0.99860000000000004</v>
       </c>
-      <c r="H86" s="68">
+      <c r="H86" s="99">
         <f>1+0.0014</f>
         <v>1.0014000000000001</v>
       </c>
@@ -2965,18 +2970,18 @@
       <c r="O86" s="24"/>
     </row>
     <row r="87" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="68"/>
-      <c r="B87" s="68"/>
-      <c r="C87" s="71"/>
+      <c r="A87" s="99"/>
+      <c r="B87" s="99"/>
+      <c r="C87" s="100"/>
       <c r="D87" s="63" t="s">
         <v>26</v>
       </c>
       <c r="E87" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="F87" s="71"/>
-      <c r="G87" s="72"/>
-      <c r="H87" s="68"/>
+      <c r="F87" s="100"/>
+      <c r="G87" s="101"/>
+      <c r="H87" s="99"/>
       <c r="J87" s="10"/>
       <c r="K87" s="10"/>
       <c r="L87" s="19"/>
@@ -2985,23 +2990,23 @@
       <c r="O87" s="24"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88" s="68" t="s">
-        <v>147</v>
+      <c r="A88" s="99" t="s">
+        <v>146</v>
       </c>
       <c r="B88" s="62">
         <v>100</v>
       </c>
       <c r="C88" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="D88" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="D88" s="100" t="s">
         <v>18</v>
       </c>
       <c r="E88" s="67" t="s">
         <v>90</v>
       </c>
       <c r="F88" s="63" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G88" s="64">
         <f>100-4.1</f>
@@ -3019,19 +3024,19 @@
       <c r="O88" s="24"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89" s="68"/>
+      <c r="A89" s="99"/>
       <c r="B89" s="62">
         <v>1</v>
       </c>
-      <c r="C89" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="D89" s="71"/>
+      <c r="C89" s="100" t="s">
+        <v>145</v>
+      </c>
+      <c r="D89" s="100"/>
       <c r="E89" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="F89" s="71" t="s">
-        <v>146</v>
+      <c r="F89" s="100" t="s">
+        <v>145</v>
       </c>
       <c r="G89" s="17">
         <f>1-0.005</f>
@@ -3049,21 +3054,21 @@
       <c r="O89" s="24"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="68"/>
-      <c r="B90" s="68">
+      <c r="A90" s="99"/>
+      <c r="B90" s="99">
         <v>10</v>
       </c>
-      <c r="C90" s="71"/>
-      <c r="D90" s="71"/>
+      <c r="C90" s="100"/>
+      <c r="D90" s="100"/>
       <c r="E90" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="F90" s="71"/>
-      <c r="G90" s="74">
+      <c r="F90" s="100"/>
+      <c r="G90" s="103">
         <f>10-0.014</f>
         <v>9.9860000000000007</v>
       </c>
-      <c r="H90" s="68">
+      <c r="H90" s="99">
         <f>10+0.014</f>
         <v>10.013999999999999</v>
       </c>
@@ -3075,18 +3080,18 @@
       <c r="O90" s="24"/>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A91" s="68"/>
-      <c r="B91" s="68"/>
-      <c r="C91" s="71"/>
+      <c r="A91" s="99"/>
+      <c r="B91" s="99"/>
+      <c r="C91" s="100"/>
       <c r="D91" s="63" t="s">
         <v>26</v>
       </c>
       <c r="E91" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="F91" s="71"/>
-      <c r="G91" s="74"/>
-      <c r="H91" s="68"/>
+      <c r="F91" s="100"/>
+      <c r="G91" s="103"/>
+      <c r="H91" s="99"/>
       <c r="J91" s="10"/>
       <c r="K91" s="19"/>
       <c r="L91" s="19"/>
@@ -3095,14 +3100,14 @@
       <c r="O91" s="24"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92" s="68" t="s">
-        <v>148</v>
-      </c>
-      <c r="B92" s="71">
+      <c r="A92" s="99" t="s">
+        <v>147</v>
+      </c>
+      <c r="B92" s="100">
         <v>100</v>
       </c>
-      <c r="C92" s="71" t="s">
-        <v>146</v>
+      <c r="C92" s="100" t="s">
+        <v>145</v>
       </c>
       <c r="D92" s="63" t="s">
         <v>19</v>
@@ -3110,14 +3115,14 @@
       <c r="E92" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="F92" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="G92" s="73">
+      <c r="F92" s="100" t="s">
+        <v>145</v>
+      </c>
+      <c r="G92" s="102">
         <f>100-0.14</f>
         <v>99.86</v>
       </c>
-      <c r="H92" s="68">
+      <c r="H92" s="99">
         <f>100+0.14</f>
         <v>100.14</v>
       </c>
@@ -3129,18 +3134,18 @@
       <c r="O92" s="24"/>
     </row>
     <row r="93" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="68"/>
-      <c r="B93" s="71"/>
-      <c r="C93" s="71"/>
+      <c r="A93" s="99"/>
+      <c r="B93" s="100"/>
+      <c r="C93" s="100"/>
       <c r="D93" s="63" t="s">
         <v>18</v>
       </c>
       <c r="E93" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="F93" s="71"/>
-      <c r="G93" s="73"/>
-      <c r="H93" s="68"/>
+      <c r="F93" s="100"/>
+      <c r="G93" s="102"/>
+      <c r="H93" s="99"/>
       <c r="J93" s="10"/>
       <c r="K93" s="19"/>
       <c r="L93" s="19"/>
@@ -3149,18 +3154,18 @@
       <c r="O93" s="24"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94" s="68"/>
-      <c r="B94" s="71"/>
-      <c r="C94" s="71"/>
+      <c r="A94" s="99"/>
+      <c r="B94" s="100"/>
+      <c r="C94" s="100"/>
       <c r="D94" s="63" t="s">
         <v>26</v>
       </c>
       <c r="E94" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="F94" s="71"/>
-      <c r="G94" s="73"/>
-      <c r="H94" s="68"/>
+      <c r="F94" s="100"/>
+      <c r="G94" s="102"/>
+      <c r="H94" s="99"/>
       <c r="J94" s="10"/>
       <c r="K94" s="19"/>
       <c r="L94" s="19"/>
@@ -3169,14 +3174,14 @@
       <c r="O94" s="24"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A95" s="68" t="s">
+      <c r="A95" s="99" t="s">
+        <v>148</v>
+      </c>
+      <c r="B95" s="99">
+        <v>1</v>
+      </c>
+      <c r="C95" s="100" t="s">
         <v>149</v>
-      </c>
-      <c r="B95" s="68">
-        <v>1</v>
-      </c>
-      <c r="C95" s="71" t="s">
-        <v>150</v>
       </c>
       <c r="D95" s="63" t="s">
         <v>18</v>
@@ -3184,14 +3189,14 @@
       <c r="E95" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="F95" s="71" t="s">
-        <v>150</v>
-      </c>
-      <c r="G95" s="72">
+      <c r="F95" s="100" t="s">
+        <v>149</v>
+      </c>
+      <c r="G95" s="101">
         <f>1-0.0014</f>
         <v>0.99860000000000004</v>
       </c>
-      <c r="H95" s="68">
+      <c r="H95" s="99">
         <f>1+0.0014</f>
         <v>1.0014000000000001</v>
       </c>
@@ -3203,18 +3208,18 @@
       <c r="O95" s="24"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A96" s="68"/>
-      <c r="B96" s="68"/>
-      <c r="C96" s="71"/>
+      <c r="A96" s="99"/>
+      <c r="B96" s="99"/>
+      <c r="C96" s="100"/>
       <c r="D96" s="63" t="s">
         <v>26</v>
       </c>
       <c r="E96" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="F96" s="71"/>
-      <c r="G96" s="72"/>
-      <c r="H96" s="68"/>
+      <c r="F96" s="100"/>
+      <c r="G96" s="101"/>
+      <c r="H96" s="99"/>
       <c r="J96" s="10"/>
       <c r="K96" s="19"/>
       <c r="L96" s="19"/>
@@ -3223,14 +3228,14 @@
       <c r="O96" s="24"/>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A97" s="68" t="s">
-        <v>151</v>
-      </c>
-      <c r="B97" s="68">
+      <c r="A97" s="99" t="s">
+        <v>150</v>
+      </c>
+      <c r="B97" s="99">
         <v>2</v>
       </c>
-      <c r="C97" s="71" t="s">
-        <v>150</v>
+      <c r="C97" s="100" t="s">
+        <v>149</v>
       </c>
       <c r="D97" s="63" t="s">
         <v>18</v>
@@ -3238,14 +3243,14 @@
       <c r="E97" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="F97" s="71" t="s">
-        <v>150</v>
-      </c>
-      <c r="G97" s="72">
+      <c r="F97" s="100" t="s">
+        <v>149</v>
+      </c>
+      <c r="G97" s="101">
         <f>2-0.0058</f>
         <v>1.9942</v>
       </c>
-      <c r="H97" s="68">
+      <c r="H97" s="99">
         <f>2+0.0058</f>
         <v>2.0057999999999998</v>
       </c>
@@ -3257,18 +3262,18 @@
       <c r="O97" s="24"/>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A98" s="68"/>
-      <c r="B98" s="68"/>
-      <c r="C98" s="71"/>
+      <c r="A98" s="99"/>
+      <c r="B98" s="99"/>
+      <c r="C98" s="100"/>
       <c r="D98" s="63" t="s">
         <v>26</v>
       </c>
       <c r="E98" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="F98" s="71"/>
-      <c r="G98" s="72"/>
-      <c r="H98" s="68"/>
+      <c r="F98" s="100"/>
+      <c r="G98" s="101"/>
+      <c r="H98" s="99"/>
       <c r="J98" s="10"/>
       <c r="K98" s="19"/>
       <c r="L98" s="19"/>
@@ -3278,13 +3283,13 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B99" s="62">
         <v>10</v>
       </c>
       <c r="C99" s="62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D99" s="63" t="s">
         <v>26</v>
@@ -3293,7 +3298,7 @@
         <v>125</v>
       </c>
       <c r="F99" s="62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G99" s="61">
         <f>10-0.019</f>
@@ -3314,8 +3319,8 @@
       <c r="A100" s="19"/>
       <c r="B100" s="19"/>
       <c r="C100" s="19"/>
-      <c r="D100" s="102"/>
-      <c r="E100" s="103"/>
+      <c r="D100" s="69"/>
+      <c r="E100" s="70"/>
       <c r="F100" s="19"/>
       <c r="G100" s="37"/>
       <c r="H100" s="37"/>
@@ -3337,57 +3342,57 @@
       <c r="F101" s="24"/>
     </row>
     <row r="102" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="B102" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="C102" s="69" t="s">
+      <c r="A102" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="B102" s="104" t="s">
+        <v>139</v>
+      </c>
+      <c r="C102" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="D102" s="69"/>
-      <c r="E102" s="69" t="s">
+      <c r="D102" s="77"/>
+      <c r="E102" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="F102" s="69"/>
-      <c r="G102" s="69" t="s">
+      <c r="F102" s="77"/>
+      <c r="G102" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="H102" s="77"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A103" s="77"/>
+      <c r="B103" s="104"/>
+      <c r="C103" s="77"/>
+      <c r="D103" s="77"/>
+      <c r="E103" s="77"/>
+      <c r="F103" s="77"/>
+      <c r="G103" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="H102" s="69"/>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A103" s="69"/>
-      <c r="B103" s="70"/>
-      <c r="C103" s="69"/>
-      <c r="D103" s="69"/>
-      <c r="E103" s="69"/>
-      <c r="F103" s="69"/>
-      <c r="G103" s="60" t="s">
+      <c r="H103" s="60" t="s">
         <v>131</v>
-      </c>
-      <c r="H103" s="60" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B104" s="60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C104" s="30">
         <v>10</v>
       </c>
       <c r="D104" s="65" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E104" s="67" t="s">
         <v>101</v>
       </c>
       <c r="F104" s="65" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G104" s="17">
         <f>10-0.003</f>
@@ -3400,22 +3405,22 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B105" s="60" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C105" s="30">
         <v>300</v>
       </c>
       <c r="D105" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E105" s="67" t="s">
         <v>102</v>
       </c>
       <c r="F105" s="65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G105" s="64">
         <f>300-0.3</f>
@@ -3461,50 +3466,50 @@
       <c r="I108" s="8"/>
     </row>
     <row r="109" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="B109" s="69" t="s">
-        <v>140</v>
-      </c>
-      <c r="C109" s="69"/>
-      <c r="D109" s="69" t="s">
+      <c r="A109" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="B109" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="C109" s="77"/>
+      <c r="D109" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="E109" s="69"/>
-      <c r="F109" s="69" t="s">
+      <c r="E109" s="77"/>
+      <c r="F109" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="G109" s="77"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A110" s="77"/>
+      <c r="B110" s="77"/>
+      <c r="C110" s="77"/>
+      <c r="D110" s="77"/>
+      <c r="E110" s="77"/>
+      <c r="F110" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="G109" s="69"/>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A110" s="69"/>
-      <c r="B110" s="69"/>
-      <c r="C110" s="69"/>
-      <c r="D110" s="69"/>
-      <c r="E110" s="69"/>
-      <c r="F110" s="60" t="s">
+      <c r="G110" s="60" t="s">
         <v>131</v>
-      </c>
-      <c r="G110" s="60" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B111" s="30">
         <v>100</v>
       </c>
       <c r="C111" s="65" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D111" s="67" t="s">
         <v>103</v>
       </c>
       <c r="E111" s="65" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F111" s="17">
         <f>100-0.014</f>
@@ -3517,19 +3522,19 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B112" s="30">
         <v>1</v>
       </c>
-      <c r="C112" s="75" t="s">
-        <v>158</v>
+      <c r="C112" s="85" t="s">
+        <v>157</v>
       </c>
       <c r="D112" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="E112" s="75" t="s">
-        <v>158</v>
+      <c r="E112" s="85" t="s">
+        <v>157</v>
       </c>
       <c r="F112" s="52">
         <f>1-0.00011</f>
@@ -3542,16 +3547,16 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B113" s="30">
         <v>10</v>
       </c>
-      <c r="C113" s="75"/>
+      <c r="C113" s="85"/>
       <c r="D113" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="E113" s="75"/>
+      <c r="E113" s="85"/>
       <c r="F113" s="15">
         <f>10-0.0011</f>
         <v>9.9989000000000008</v>
@@ -3563,16 +3568,16 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B114" s="30">
         <v>100</v>
       </c>
-      <c r="C114" s="75"/>
+      <c r="C114" s="85"/>
       <c r="D114" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="E114" s="75"/>
+      <c r="E114" s="85"/>
       <c r="F114" s="17">
         <f>100-0.011</f>
         <v>99.989000000000004</v>
@@ -3604,50 +3609,50 @@
       <c r="I116" s="8"/>
     </row>
     <row r="117" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="B117" s="69" t="s">
-        <v>140</v>
-      </c>
-      <c r="C117" s="69"/>
-      <c r="D117" s="69" t="s">
-        <v>142</v>
-      </c>
-      <c r="E117" s="69"/>
-      <c r="F117" s="69" t="s">
+      <c r="A117" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="B117" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="C117" s="77"/>
+      <c r="D117" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="E117" s="77"/>
+      <c r="F117" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="G117" s="77"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="77"/>
+      <c r="B118" s="77"/>
+      <c r="C118" s="77"/>
+      <c r="D118" s="77"/>
+      <c r="E118" s="77"/>
+      <c r="F118" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="G117" s="69"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="69"/>
-      <c r="B118" s="69"/>
-      <c r="C118" s="69"/>
-      <c r="D118" s="69"/>
-      <c r="E118" s="69"/>
-      <c r="F118" s="60" t="s">
+      <c r="G118" s="60" t="s">
         <v>131</v>
-      </c>
-      <c r="G118" s="60" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B119" s="30">
         <v>1</v>
       </c>
-      <c r="C119" s="75" t="s">
-        <v>162</v>
+      <c r="C119" s="85" t="s">
+        <v>161</v>
       </c>
       <c r="D119" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="E119" s="75" t="s">
-        <v>162</v>
+      <c r="E119" s="85" t="s">
+        <v>161</v>
       </c>
       <c r="F119" s="52">
         <f>1-0.00011</f>
@@ -3660,16 +3665,16 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B120" s="30">
         <v>10</v>
       </c>
-      <c r="C120" s="75"/>
+      <c r="C120" s="85"/>
       <c r="D120" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="E120" s="75"/>
+      <c r="E120" s="85"/>
       <c r="F120" s="15">
         <f>10-0.0041</f>
         <v>9.9959000000000007</v>
@@ -3681,16 +3686,16 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B121" s="30">
         <v>100</v>
       </c>
-      <c r="C121" s="75"/>
+      <c r="C121" s="85"/>
       <c r="D121" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="E121" s="75"/>
+      <c r="E121" s="85"/>
       <c r="F121" s="17">
         <f>100-0.081</f>
         <v>99.918999999999997</v>
@@ -3712,12 +3717,12 @@
       <c r="I122" s="14"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="79" t="s">
+      <c r="A123" s="73" t="s">
+        <v>167</v>
+      </c>
+      <c r="B123" s="73"/>
+      <c r="C123" s="68" t="s">
         <v>168</v>
-      </c>
-      <c r="B123" s="79"/>
-      <c r="C123" s="101" t="s">
-        <v>169</v>
       </c>
       <c r="D123" s="14"/>
       <c r="E123" s="14"/>
@@ -3725,18 +3730,18 @@
       <c r="I123" s="2"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="79" t="s">
-        <v>170</v>
-      </c>
-      <c r="B124" s="79"/>
+      <c r="A124" s="73" t="s">
+        <v>169</v>
+      </c>
+      <c r="B124" s="73"/>
       <c r="C124" s="38"/>
       <c r="D124" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E124" s="80" t="s">
+      <c r="E124" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="F124" s="81"/>
+      <c r="F124" s="75"/>
       <c r="G124" s="14" t="s">
         <v>17</v>
       </c>
@@ -3744,18 +3749,136 @@
       <c r="I124" s="2"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="79" t="s">
+      <c r="A125" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="B125" s="79"/>
-      <c r="C125" s="82" t="s">
+      <c r="B125" s="73"/>
+      <c r="C125" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="D125" s="82"/>
+      <c r="D125" s="86"/>
       <c r="I125" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="142">
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:D103"/>
+    <mergeCell ref="E102:F103"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="H92:H94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="F92:F94"/>
+    <mergeCell ref="G92:G94"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="D88:D90"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="F89:F91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="E76:E79"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B70:C71"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C43"/>
+    <mergeCell ref="E35:E43"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="A54:A61"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="C55:C61"/>
+    <mergeCell ref="F55:F61"/>
+    <mergeCell ref="B56:B61"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:C47"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="D70:E71"/>
+    <mergeCell ref="B82:C83"/>
+    <mergeCell ref="E82:F83"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:C118"/>
+    <mergeCell ref="D117:E118"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="E119:E121"/>
+    <mergeCell ref="B109:C110"/>
+    <mergeCell ref="D109:E110"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="C112:C114"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="E112:E114"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="A70:A71"/>
     <mergeCell ref="A124:B124"/>
     <mergeCell ref="E124:F124"/>
     <mergeCell ref="A2:H2"/>
@@ -3780,124 +3903,6 @@
     <mergeCell ref="B31:C32"/>
     <mergeCell ref="D31:E32"/>
     <mergeCell ref="F31:G31"/>
-    <mergeCell ref="E112:E114"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="D70:E71"/>
-    <mergeCell ref="B82:C83"/>
-    <mergeCell ref="E82:F83"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:C118"/>
-    <mergeCell ref="D117:E118"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="E119:E121"/>
-    <mergeCell ref="B109:C110"/>
-    <mergeCell ref="D109:E110"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="C112:C114"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C43"/>
-    <mergeCell ref="E35:E43"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="A54:A61"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="C55:C61"/>
-    <mergeCell ref="F55:F61"/>
-    <mergeCell ref="B56:B61"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:C47"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="E76:E79"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B70:C71"/>
-    <mergeCell ref="G86:G87"/>
-    <mergeCell ref="H86:H87"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="D88:D90"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="F89:F91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="H92:H94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="F92:F94"/>
-    <mergeCell ref="G92:G94"/>
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:D103"/>
-    <mergeCell ref="E102:F103"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.39370078740157483" bottom="0.61635416666666665" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/Shablon/34461A.xlsx
+++ b/Shablon/34461A.xlsx
@@ -607,7 +607,7 @@
     <numFmt numFmtId="169" formatCode="#,##0.0"/>
     <numFmt numFmtId="170" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -623,20 +623,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -658,21 +644,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -717,17 +689,14 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <i/>
       <sz val="10"/>
-      <color rgb="FF0070C0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial Cyr"/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -830,308 +799,282 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1442,230 +1385,230 @@
   <dimension ref="A1:O125"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="6" customWidth="1"/>
-    <col min="2" max="3" width="11.7109375" style="6" customWidth="1"/>
-    <col min="4" max="8" width="10.7109375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="10.7109375" style="3" customWidth="1"/>
+    <col min="2" max="3" width="11.7109375" style="3" customWidth="1"/>
+    <col min="4" max="8" width="10.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="83"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="82" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="1"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="1"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="84" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="3"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="3"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="105" t="str">
+      <c r="A7" s="81" t="str">
         <f>"Протокол поверки № 10/"&amp;C125&amp;"/"&amp;D10</f>
         <v>Протокол поверки № 10/_date/_numb</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="4"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="4"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="45" t="s">
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="47" t="s">
+      <c r="E9" s="36"/>
+      <c r="F9" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="47"/>
-      <c r="H9" s="48"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="37"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="49" t="s">
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="48"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="37"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="48"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="37"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="84"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="48"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="37"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="49" t="s">
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="48"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="37"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="51" t="s">
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="48"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="45" t="s">
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="48"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="37"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="42"/>
-      <c r="H16" s="7"/>
+      <c r="B16" s="87"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="81" t="s">
+      <c r="A18" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="82"/>
-      <c r="C18" s="83"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="72"/>
       <c r="D18" s="78" t="s">
         <v>28</v>
       </c>
@@ -1674,2139 +1617,2159 @@
         <v>29</v>
       </c>
       <c r="G18" s="78"/>
-      <c r="H18" s="13"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="88"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="79" t="s">
+      <c r="B19" s="69"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="79"/>
-      <c r="F19" s="81" t="s">
+      <c r="E19" s="88"/>
+      <c r="F19" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="83"/>
-      <c r="H19" s="10"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="90" t="s">
+      <c r="A20" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="79" t="s">
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="79"/>
-      <c r="F20" s="81" t="s">
+      <c r="E20" s="88"/>
+      <c r="F20" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="83"/>
-      <c r="H20" s="10"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="93" t="s">
+      <c r="B21" s="69"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="94"/>
-      <c r="F21" s="81" t="s">
+      <c r="E21" s="75"/>
+      <c r="F21" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="83"/>
-      <c r="H21" s="10"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="87" t="s">
+      <c r="A22" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="88"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="81" t="s">
+      <c r="B22" s="69"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="83"/>
-      <c r="H22" s="10"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="87" t="s">
+      <c r="A23" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="88"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="81" t="s">
+      <c r="B23" s="69"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="83"/>
-      <c r="H23" s="10"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="10"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="10"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="10"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="77" t="s">
+      <c r="A31" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="B31" s="77" t="s">
+      <c r="B31" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77" t="s">
+      <c r="C31" s="58"/>
+      <c r="D31" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77" t="s">
+      <c r="E31" s="58"/>
+      <c r="F31" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="G31" s="77"/>
-      <c r="I31" s="13"/>
+      <c r="G31" s="58"/>
+      <c r="I31" s="9"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="77"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="60" t="s">
+      <c r="A32" s="58"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="G32" s="60" t="s">
+      <c r="G32" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="I32" s="13"/>
+      <c r="I32" s="9"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="77" t="s">
+      <c r="A33" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="64">
+      <c r="B33" s="52">
         <v>100</v>
       </c>
-      <c r="C33" s="85" t="s">
+      <c r="C33" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="D33" s="66" t="s">
+      <c r="D33" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="85" t="s">
+      <c r="E33" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="54">
         <f>100-0.0085</f>
         <v>99.991500000000002</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="54">
         <f>100+0.0085</f>
         <v>100.0085</v>
       </c>
-      <c r="I33" s="10"/>
+      <c r="I33" s="6"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="77"/>
-      <c r="B34" s="64">
+      <c r="A34" s="58"/>
+      <c r="B34" s="52">
         <v>-100</v>
       </c>
-      <c r="C34" s="85"/>
-      <c r="D34" s="66" t="s">
+      <c r="C34" s="63"/>
+      <c r="D34" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="85"/>
-      <c r="F34" s="15">
+      <c r="E34" s="63"/>
+      <c r="F34" s="54">
         <f>-100-0.0085</f>
         <v>-100.0085</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="54">
         <f>-100+0.0085</f>
         <v>-99.991500000000002</v>
       </c>
-      <c r="I34" s="10"/>
+      <c r="I34" s="6"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="77" t="s">
+      <c r="A35" s="58" t="s">
         <v>134</v>
       </c>
-      <c r="B35" s="64">
+      <c r="B35" s="52">
         <v>1</v>
       </c>
-      <c r="C35" s="85" t="s">
+      <c r="C35" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="D35" s="66" t="s">
+      <c r="D35" s="89" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="101" t="s">
+      <c r="E35" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="F35" s="59">
+      <c r="F35" s="45">
         <f>1-0.000047</f>
         <v>0.99995299999999998</v>
       </c>
-      <c r="G35" s="59">
+      <c r="G35" s="45">
         <f>1+0.000047</f>
         <v>1.0000469999999999</v>
       </c>
-      <c r="I35" s="10"/>
+      <c r="I35" s="6"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="77"/>
-      <c r="B36" s="64">
+      <c r="A36" s="58"/>
+      <c r="B36" s="52">
         <v>-1</v>
       </c>
-      <c r="C36" s="85"/>
-      <c r="D36" s="66" t="s">
+      <c r="C36" s="63"/>
+      <c r="D36" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="E36" s="101"/>
-      <c r="F36" s="59">
+      <c r="E36" s="60"/>
+      <c r="F36" s="45">
         <f>-1-0.000047</f>
         <v>-1.0000469999999999</v>
       </c>
-      <c r="G36" s="59">
+      <c r="G36" s="45">
         <f>-1+0.000047</f>
         <v>-0.99995299999999998</v>
       </c>
-      <c r="I36" s="10"/>
+      <c r="I36" s="6"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="77" t="s">
+      <c r="A37" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="B37" s="64">
+      <c r="B37" s="52">
         <v>4</v>
       </c>
-      <c r="C37" s="85"/>
-      <c r="D37" s="66" t="s">
+      <c r="C37" s="63"/>
+      <c r="D37" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="101"/>
-      <c r="F37" s="52">
+      <c r="E37" s="60"/>
+      <c r="F37" s="40">
         <f>4-0.00019</f>
         <v>3.9998100000000001</v>
       </c>
-      <c r="G37" s="52">
+      <c r="G37" s="40">
         <f>4+0.00019</f>
         <v>4.0001899999999999</v>
       </c>
-      <c r="I37" s="16"/>
+      <c r="I37" s="6"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="77"/>
-      <c r="B38" s="64">
+      <c r="A38" s="58"/>
+      <c r="B38" s="52">
         <v>10</v>
       </c>
-      <c r="C38" s="85"/>
-      <c r="D38" s="66" t="s">
+      <c r="C38" s="63"/>
+      <c r="D38" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="101"/>
-      <c r="F38" s="15">
+      <c r="E38" s="60"/>
+      <c r="F38" s="54">
         <f>10-0.0004</f>
         <v>9.9995999999999992</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G38" s="54">
         <f>10+0.0004</f>
         <v>10.000400000000001</v>
       </c>
-      <c r="I38" s="16"/>
+      <c r="I38" s="6"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="77"/>
-      <c r="B39" s="64">
+      <c r="A39" s="58"/>
+      <c r="B39" s="52">
         <v>-10</v>
       </c>
-      <c r="C39" s="85"/>
-      <c r="D39" s="66" t="s">
+      <c r="C39" s="63"/>
+      <c r="D39" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="101"/>
-      <c r="F39" s="15">
+      <c r="E39" s="60"/>
+      <c r="F39" s="54">
         <f>-10-0.0004</f>
         <v>-10.000400000000001</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G39" s="54">
         <f>-10+0.0004</f>
         <v>-9.9995999999999992</v>
       </c>
-      <c r="I39" s="16"/>
+      <c r="I39" s="6"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="77" t="s">
+      <c r="A40" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="B40" s="64">
+      <c r="B40" s="52">
         <v>100</v>
       </c>
-      <c r="C40" s="85"/>
-      <c r="D40" s="66" t="s">
+      <c r="C40" s="63"/>
+      <c r="D40" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="E40" s="101"/>
-      <c r="F40" s="15">
+      <c r="E40" s="60"/>
+      <c r="F40" s="54">
         <f>100-0.0051</f>
         <v>99.994900000000001</v>
       </c>
-      <c r="G40" s="15">
+      <c r="G40" s="54">
         <f>100+0.0051</f>
         <v>100.0051</v>
       </c>
-      <c r="I40" s="16"/>
+      <c r="I40" s="6"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="77"/>
-      <c r="B41" s="64">
+      <c r="A41" s="58"/>
+      <c r="B41" s="52">
         <v>-100</v>
       </c>
-      <c r="C41" s="85"/>
-      <c r="D41" s="66" t="s">
+      <c r="C41" s="63"/>
+      <c r="D41" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="E41" s="101"/>
-      <c r="F41" s="15">
+      <c r="E41" s="60"/>
+      <c r="F41" s="54">
         <f>-100-0.0051</f>
         <v>-100.0051</v>
       </c>
-      <c r="G41" s="15">
+      <c r="G41" s="54">
         <f>-100+0.0051</f>
         <v>-99.994900000000001</v>
       </c>
-      <c r="I41" s="16"/>
+      <c r="I41" s="6"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="95" t="s">
+      <c r="A42" s="76" t="s">
         <v>138</v>
       </c>
-      <c r="B42" s="64">
+      <c r="B42" s="52">
         <v>1000</v>
       </c>
-      <c r="C42" s="85"/>
-      <c r="D42" s="66" t="s">
+      <c r="C42" s="63"/>
+      <c r="D42" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="101"/>
-      <c r="F42" s="17">
+      <c r="E42" s="60"/>
+      <c r="F42" s="56">
         <f>1000-0.055</f>
         <v>999.94500000000005</v>
       </c>
-      <c r="G42" s="17">
+      <c r="G42" s="56">
         <f>1000+0.055</f>
         <v>1000.0549999999999</v>
       </c>
-      <c r="I42" s="16"/>
+      <c r="I42" s="6"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="95"/>
-      <c r="B43" s="64">
+      <c r="A43" s="76"/>
+      <c r="B43" s="52">
         <v>-500</v>
       </c>
-      <c r="C43" s="85"/>
-      <c r="D43" s="66" t="s">
+      <c r="C43" s="63"/>
+      <c r="D43" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="101"/>
-      <c r="F43" s="15">
+      <c r="E43" s="60"/>
+      <c r="F43" s="54">
         <f>-500-0.0325</f>
         <v>-500.03250000000003</v>
       </c>
-      <c r="G43" s="15">
+      <c r="G43" s="54">
         <f>-500+0.0325</f>
         <v>-499.96749999999997</v>
       </c>
-      <c r="I43" s="16"/>
+      <c r="I43" s="6"/>
     </row>
     <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
     </row>
     <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="77" t="s">
+      <c r="A46" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="B46" s="77" t="s">
+      <c r="B46" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="C46" s="77"/>
-      <c r="D46" s="77" t="s">
+      <c r="C46" s="58"/>
+      <c r="D46" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="E46" s="77" t="s">
+      <c r="E46" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F46" s="77"/>
-      <c r="G46" s="77" t="s">
+      <c r="F46" s="58"/>
+      <c r="G46" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="H46" s="77"/>
+      <c r="H46" s="58"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="77"/>
-      <c r="B47" s="77"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="77"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="77"/>
-      <c r="G47" s="60" t="s">
+      <c r="A47" s="58"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="H47" s="60" t="s">
+      <c r="H47" s="49" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="96" t="s">
+      <c r="A48" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="B48" s="97">
+      <c r="B48" s="65">
         <v>100</v>
       </c>
-      <c r="C48" s="98" t="s">
+      <c r="C48" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="D48" s="63" t="s">
+      <c r="D48" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="E48" s="67" t="s">
+      <c r="E48" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="F48" s="98" t="s">
+      <c r="F48" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="G48" s="18">
+      <c r="G48" s="55">
         <f>100-0.09</f>
         <v>99.91</v>
       </c>
-      <c r="H48" s="18">
+      <c r="H48" s="55">
         <f>100+0.09</f>
         <v>100.09</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="96"/>
-      <c r="B49" s="97"/>
-      <c r="C49" s="98"/>
-      <c r="D49" s="63" t="s">
+      <c r="A49" s="66"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="67" t="s">
+      <c r="E49" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="F49" s="98"/>
-      <c r="G49" s="18">
+      <c r="F49" s="64"/>
+      <c r="G49" s="55">
         <f>100-0.17</f>
         <v>99.83</v>
       </c>
-      <c r="H49" s="18">
+      <c r="H49" s="55">
         <f>100+0.17</f>
         <v>100.17</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="96"/>
-      <c r="B50" s="97"/>
-      <c r="C50" s="98"/>
-      <c r="D50" s="63" t="s">
+      <c r="A50" s="66"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="E50" s="67" t="s">
+      <c r="E50" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="F50" s="98"/>
-      <c r="G50" s="18">
+      <c r="F50" s="64"/>
+      <c r="G50" s="55">
         <f>100-4.5</f>
         <v>95.5</v>
       </c>
-      <c r="H50" s="64">
+      <c r="H50" s="52">
         <f>100+4.5</f>
         <v>104.5</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="99" t="s">
+      <c r="A51" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="B51" s="97">
+      <c r="B51" s="65">
         <v>1</v>
       </c>
-      <c r="C51" s="98" t="s">
+      <c r="C51" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="D51" s="63" t="s">
+      <c r="D51" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="E51" s="67" t="s">
+      <c r="E51" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="F51" s="98" t="s">
+      <c r="F51" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="G51" s="15">
+      <c r="G51" s="54">
         <f>1-0.0009</f>
         <v>0.99909999999999999</v>
       </c>
-      <c r="H51" s="15">
+      <c r="H51" s="54">
         <f>1+0.0009</f>
         <v>1.0008999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="99"/>
-      <c r="B52" s="97"/>
-      <c r="C52" s="98"/>
-      <c r="D52" s="63" t="s">
+      <c r="A52" s="57"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E52" s="67" t="s">
+      <c r="E52" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="F52" s="98"/>
-      <c r="G52" s="17">
+      <c r="F52" s="64"/>
+      <c r="G52" s="56">
         <f>1-0.0017</f>
         <v>0.99829999999999997</v>
       </c>
-      <c r="H52" s="17">
+      <c r="H52" s="56">
         <f>1+0.0017</f>
         <v>1.0017</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="99"/>
-      <c r="B53" s="97"/>
-      <c r="C53" s="98"/>
-      <c r="D53" s="63" t="s">
+      <c r="A53" s="57"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="E53" s="67" t="s">
+      <c r="E53" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="F53" s="98"/>
-      <c r="G53" s="17">
+      <c r="F53" s="64"/>
+      <c r="G53" s="56">
         <f>1-0.045</f>
         <v>0.95499999999999996</v>
       </c>
-      <c r="H53" s="17">
+      <c r="H53" s="56">
         <f>1+0.045</f>
         <v>1.0449999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="99" t="s">
+      <c r="A54" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="B54" s="63">
+      <c r="B54" s="53">
         <v>30</v>
       </c>
-      <c r="C54" s="63" t="s">
+      <c r="C54" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="D54" s="100" t="s">
+      <c r="D54" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="E54" s="67" t="s">
+      <c r="E54" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="F54" s="63" t="s">
+      <c r="F54" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="G54" s="17">
+      <c r="G54" s="56">
         <f>30-0.003</f>
         <v>29.997</v>
       </c>
-      <c r="H54" s="17">
+      <c r="H54" s="56">
         <f>30+0.003</f>
         <v>30.003</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="99"/>
-      <c r="B55" s="63">
+      <c r="A55" s="57"/>
+      <c r="B55" s="53">
         <v>1</v>
       </c>
-      <c r="C55" s="100" t="s">
+      <c r="C55" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="D55" s="100"/>
-      <c r="E55" s="67" t="s">
+      <c r="D55" s="57"/>
+      <c r="E55" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="F55" s="100" t="s">
+      <c r="F55" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="G55" s="15">
+      <c r="G55" s="54">
         <f>1-0.0036</f>
         <v>0.99639999999999995</v>
       </c>
-      <c r="H55" s="15">
+      <c r="H55" s="54">
         <f>1+0.0036</f>
         <v>1.0036</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="99"/>
-      <c r="B56" s="100">
+      <c r="A56" s="57"/>
+      <c r="B56" s="57">
         <v>10</v>
       </c>
-      <c r="C56" s="100"/>
-      <c r="D56" s="63" t="s">
+      <c r="C56" s="57"/>
+      <c r="D56" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="67" t="s">
+      <c r="E56" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="F56" s="100"/>
-      <c r="G56" s="17">
+      <c r="F56" s="57"/>
+      <c r="G56" s="56">
         <f>10-0.009</f>
         <v>9.9909999999999997</v>
       </c>
-      <c r="H56" s="17">
+      <c r="H56" s="56">
         <f>10+0.009</f>
         <v>10.009</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="99"/>
-      <c r="B57" s="100"/>
-      <c r="C57" s="100"/>
-      <c r="D57" s="63" t="s">
+      <c r="A57" s="57"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="E57" s="67" t="s">
+      <c r="E57" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="F57" s="100"/>
-      <c r="G57" s="17">
+      <c r="F57" s="57"/>
+      <c r="G57" s="56">
         <f>10-0.009</f>
         <v>9.9909999999999997</v>
       </c>
-      <c r="H57" s="17">
+      <c r="H57" s="56">
         <f>10+0.009</f>
         <v>10.009</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="99"/>
-      <c r="B58" s="100"/>
-      <c r="C58" s="100"/>
-      <c r="D58" s="63" t="s">
+      <c r="A58" s="57"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="E58" s="67" t="s">
+      <c r="E58" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="F58" s="100"/>
-      <c r="G58" s="17">
+      <c r="F58" s="57"/>
+      <c r="G58" s="56">
         <f>10-0.009</f>
         <v>9.9909999999999997</v>
       </c>
-      <c r="H58" s="17">
+      <c r="H58" s="56">
         <f>10+0.009</f>
         <v>10.009</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="99"/>
-      <c r="B59" s="100"/>
-      <c r="C59" s="100"/>
-      <c r="D59" s="63" t="s">
+      <c r="A59" s="57"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="67" t="s">
+      <c r="E59" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="F59" s="100"/>
-      <c r="G59" s="18">
+      <c r="F59" s="57"/>
+      <c r="G59" s="55">
         <f>10-0.017</f>
         <v>9.9830000000000005</v>
       </c>
-      <c r="H59" s="18">
+      <c r="H59" s="55">
         <f>10+0.017</f>
         <v>10.016999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="99"/>
-      <c r="B60" s="100"/>
-      <c r="C60" s="100"/>
-      <c r="D60" s="63" t="s">
+      <c r="A60" s="57"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="E60" s="67" t="s">
+      <c r="E60" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="F60" s="100"/>
-      <c r="G60" s="17">
+      <c r="F60" s="57"/>
+      <c r="G60" s="56">
         <f>10-0.068</f>
         <v>9.9320000000000004</v>
       </c>
-      <c r="H60" s="17">
+      <c r="H60" s="56">
         <f>10+0.068</f>
         <v>10.068</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="99"/>
-      <c r="B61" s="100"/>
-      <c r="C61" s="100"/>
-      <c r="D61" s="63" t="s">
+      <c r="A61" s="57"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="E61" s="67" t="s">
+      <c r="E61" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="F61" s="100"/>
-      <c r="G61" s="18">
+      <c r="F61" s="57"/>
+      <c r="G61" s="55">
         <f>10-0.45</f>
         <v>9.5500000000000007</v>
       </c>
-      <c r="H61" s="18">
+      <c r="H61" s="55">
         <f>10+0.45</f>
         <v>10.45</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="99" t="s">
+      <c r="A62" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="B62" s="100">
+      <c r="B62" s="57">
         <v>100</v>
       </c>
-      <c r="C62" s="100" t="s">
+      <c r="C62" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="D62" s="63" t="s">
+      <c r="D62" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="67" t="s">
+      <c r="E62" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="F62" s="100" t="s">
+      <c r="F62" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="G62" s="18">
+      <c r="G62" s="55">
         <f>100-0.09</f>
         <v>99.91</v>
       </c>
-      <c r="H62" s="18">
+      <c r="H62" s="55">
         <f>100+0.09</f>
         <v>100.09</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="99"/>
-      <c r="B63" s="100"/>
-      <c r="C63" s="100"/>
-      <c r="D63" s="63" t="s">
+      <c r="A63" s="57"/>
+      <c r="B63" s="57"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E63" s="67" t="s">
+      <c r="E63" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="F63" s="100"/>
-      <c r="G63" s="64">
+      <c r="F63" s="57"/>
+      <c r="G63" s="52">
         <f>100-0.17</f>
         <v>99.83</v>
       </c>
-      <c r="H63" s="64">
+      <c r="H63" s="52">
         <f>100+0.17</f>
         <v>100.17</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="99"/>
-      <c r="B64" s="63">
+      <c r="A64" s="57"/>
+      <c r="B64" s="53">
         <v>70</v>
       </c>
-      <c r="C64" s="100"/>
-      <c r="D64" s="63" t="s">
+      <c r="C64" s="57"/>
+      <c r="D64" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="E64" s="67" t="s">
+      <c r="E64" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="F64" s="100"/>
-      <c r="G64" s="64">
+      <c r="F64" s="57"/>
+      <c r="G64" s="52">
         <f>70-3.3</f>
         <v>66.7</v>
       </c>
-      <c r="H64" s="64">
+      <c r="H64" s="52">
         <f>70+3.3</f>
         <v>73.3</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="99" t="s">
+      <c r="A65" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="B65" s="63">
+      <c r="B65" s="53">
         <v>750</v>
       </c>
-      <c r="C65" s="100" t="s">
+      <c r="C65" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="D65" s="63" t="s">
+      <c r="D65" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="E65" s="67" t="s">
+      <c r="E65" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="F65" s="100" t="s">
+      <c r="F65" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="G65" s="64">
+      <c r="G65" s="52">
         <f>750-0.675</f>
         <v>749.32500000000005</v>
       </c>
-      <c r="H65" s="64">
+      <c r="H65" s="52">
         <f>750+0.675</f>
         <v>750.67499999999995</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="99"/>
-      <c r="B66" s="63">
+      <c r="A66" s="57"/>
+      <c r="B66" s="53">
         <v>210</v>
       </c>
-      <c r="C66" s="100"/>
-      <c r="D66" s="63" t="s">
+      <c r="C66" s="57"/>
+      <c r="D66" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E66" s="67" t="s">
+      <c r="E66" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="F66" s="100"/>
-      <c r="G66" s="18">
+      <c r="F66" s="57"/>
+      <c r="G66" s="55">
         <f>210-0.627</f>
         <v>209.37299999999999</v>
       </c>
-      <c r="H66" s="18">
+      <c r="H66" s="55">
         <f>210+0.627</f>
         <v>210.62700000000001</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="99"/>
-      <c r="B67" s="63">
+      <c r="A67" s="57"/>
+      <c r="B67" s="53">
         <v>70</v>
       </c>
-      <c r="C67" s="100"/>
-      <c r="D67" s="63" t="s">
+      <c r="C67" s="57"/>
+      <c r="D67" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="67" t="s">
+      <c r="E67" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="F67" s="100"/>
-      <c r="G67" s="64">
+      <c r="F67" s="57"/>
+      <c r="G67" s="52">
         <f>70-6.6</f>
         <v>63.4</v>
       </c>
-      <c r="H67" s="64">
+      <c r="H67" s="52">
         <f>70+6.6</f>
         <v>76.599999999999994</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="19"/>
-      <c r="B68" s="69"/>
-      <c r="C68" s="69"/>
-      <c r="D68" s="69"/>
-      <c r="E68" s="70"/>
-      <c r="F68" s="69"/>
-      <c r="G68" s="71"/>
-      <c r="H68" s="71"/>
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="91"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="47"/>
+      <c r="H68" s="47"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="20"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="24"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="16"/>
     </row>
     <row r="70" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="77" t="s">
+      <c r="A70" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="B70" s="77" t="s">
+      <c r="B70" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="C70" s="77"/>
-      <c r="D70" s="77" t="s">
+      <c r="C70" s="58"/>
+      <c r="D70" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="E70" s="77"/>
-      <c r="F70" s="77" t="s">
+      <c r="E70" s="58"/>
+      <c r="F70" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="G70" s="77"/>
+      <c r="G70" s="58"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="77"/>
-      <c r="B71" s="77"/>
-      <c r="C71" s="77"/>
-      <c r="D71" s="77"/>
-      <c r="E71" s="77"/>
-      <c r="F71" s="60" t="s">
+      <c r="A71" s="58"/>
+      <c r="B71" s="58"/>
+      <c r="C71" s="58"/>
+      <c r="D71" s="58"/>
+      <c r="E71" s="58"/>
+      <c r="F71" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="G71" s="60" t="s">
+      <c r="G71" s="49" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="62" t="s">
+      <c r="A72" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="B72" s="62">
+      <c r="B72" s="53">
         <v>100</v>
       </c>
-      <c r="C72" s="65" t="s">
+      <c r="C72" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="D72" s="67" t="s">
+      <c r="D72" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="E72" s="65" t="s">
+      <c r="E72" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="F72" s="17">
+      <c r="F72" s="56">
         <f>100-0.075</f>
         <v>99.924999999999997</v>
       </c>
-      <c r="G72" s="17">
+      <c r="G72" s="56">
         <f>100+0.075</f>
         <v>100.075</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="62" t="s">
+      <c r="A73" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="B73" s="62">
+      <c r="B73" s="53">
         <v>1</v>
       </c>
-      <c r="C73" s="85" t="s">
+      <c r="C73" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="D73" s="67" t="s">
+      <c r="D73" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="E73" s="85" t="s">
+      <c r="E73" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="F73" s="52">
+      <c r="F73" s="40">
         <f>1-0.00056</f>
         <v>0.99944</v>
       </c>
-      <c r="G73" s="52">
+      <c r="G73" s="40">
         <f>1+0.00056</f>
         <v>1.0005599999999999</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="62" t="s">
+      <c r="A74" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="B74" s="62">
+      <c r="B74" s="53">
         <v>10</v>
       </c>
-      <c r="C74" s="85"/>
-      <c r="D74" s="67" t="s">
+      <c r="C74" s="63"/>
+      <c r="D74" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="E74" s="85"/>
-      <c r="F74" s="17">
+      <c r="E74" s="63"/>
+      <c r="F74" s="56">
         <f>10-0.007</f>
         <v>9.9930000000000003</v>
       </c>
-      <c r="G74" s="17">
+      <c r="G74" s="56">
         <f>10+0.007</f>
         <v>10.007</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="62" t="s">
+      <c r="A75" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="B75" s="62">
+      <c r="B75" s="53">
         <v>100</v>
       </c>
-      <c r="C75" s="85"/>
-      <c r="D75" s="67" t="s">
+      <c r="C75" s="63"/>
+      <c r="D75" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="E75" s="85"/>
-      <c r="F75" s="17">
+      <c r="E75" s="63"/>
+      <c r="F75" s="56">
         <f>100-0.055</f>
         <v>99.944999999999993</v>
       </c>
-      <c r="G75" s="17">
+      <c r="G75" s="56">
         <f>100+0.055</f>
         <v>100.05500000000001</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="62" t="s">
+      <c r="A76" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="B76" s="62">
+      <c r="B76" s="53">
         <v>1</v>
       </c>
-      <c r="C76" s="85" t="s">
+      <c r="C76" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="D76" s="67" t="s">
+      <c r="D76" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="E76" s="85" t="s">
+      <c r="E76" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="F76" s="15">
+      <c r="F76" s="54">
         <f>1-0.0011</f>
         <v>0.99890000000000001</v>
       </c>
-      <c r="G76" s="15">
+      <c r="G76" s="54">
         <f>1+0.0011</f>
         <v>1.0011000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="62" t="s">
+      <c r="A77" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="B77" s="62">
+      <c r="B77" s="53">
         <v>2</v>
       </c>
-      <c r="C77" s="85"/>
-      <c r="D77" s="67" t="s">
+      <c r="C77" s="63"/>
+      <c r="D77" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="E77" s="85"/>
-      <c r="F77" s="15">
+      <c r="E77" s="63"/>
+      <c r="F77" s="54">
         <f>2-0.0046</f>
         <v>1.9954000000000001</v>
       </c>
-      <c r="G77" s="15">
+      <c r="G77" s="54">
         <f>2+0.0046</f>
         <v>2.0045999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="99">
+      <c r="A78" s="57">
         <v>10</v>
       </c>
-      <c r="B78" s="62">
+      <c r="B78" s="53">
         <v>5</v>
       </c>
-      <c r="C78" s="85"/>
-      <c r="D78" s="67" t="s">
+      <c r="C78" s="63"/>
+      <c r="D78" s="90" t="s">
         <v>123</v>
       </c>
-      <c r="E78" s="85"/>
-      <c r="F78" s="17">
+      <c r="E78" s="63"/>
+      <c r="F78" s="56">
         <f>5-0.012</f>
         <v>4.9880000000000004</v>
       </c>
-      <c r="G78" s="62">
+      <c r="G78" s="53">
         <f>5+0.012</f>
         <v>5.0119999999999996</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="99"/>
-      <c r="B79" s="62">
+      <c r="A79" s="57"/>
+      <c r="B79" s="53">
         <v>10</v>
       </c>
-      <c r="C79" s="85"/>
-      <c r="D79" s="67" t="s">
+      <c r="C79" s="63"/>
+      <c r="D79" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="E79" s="85"/>
-      <c r="F79" s="17">
+      <c r="E79" s="63"/>
+      <c r="F79" s="56">
         <f>10-0.022</f>
         <v>9.9779999999999998</v>
       </c>
-      <c r="G79" s="62">
+      <c r="G79" s="53">
         <f>10+0.022</f>
         <v>10.022</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="19"/>
-      <c r="B80" s="19"/>
-      <c r="C80" s="72"/>
-      <c r="D80" s="70"/>
-      <c r="E80" s="72"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="19"/>
+      <c r="A80" s="11"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="48"/>
+      <c r="D80" s="91"/>
+      <c r="E80" s="48"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="11"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81" s="25" t="s">
+      <c r="A81" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="19"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="24"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="16"/>
     </row>
     <row r="82" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="77" t="s">
+      <c r="A82" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="B82" s="77" t="s">
+      <c r="B82" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="C82" s="77"/>
-      <c r="D82" s="77" t="s">
+      <c r="C82" s="58"/>
+      <c r="D82" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="E82" s="77" t="s">
+      <c r="E82" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="F82" s="77"/>
-      <c r="G82" s="77" t="s">
+      <c r="F82" s="58"/>
+      <c r="G82" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="H82" s="77"/>
-      <c r="J82" s="53"/>
-      <c r="K82" s="53"/>
-      <c r="L82" s="53"/>
-      <c r="M82" s="53"/>
-      <c r="N82" s="53"/>
-      <c r="O82" s="53"/>
+      <c r="H82" s="58"/>
+      <c r="J82" s="41"/>
+      <c r="K82" s="41"/>
+      <c r="L82" s="41"/>
+      <c r="M82" s="41"/>
+      <c r="N82" s="41"/>
+      <c r="O82" s="41"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A83" s="77"/>
-      <c r="B83" s="77"/>
-      <c r="C83" s="77"/>
-      <c r="D83" s="77"/>
-      <c r="E83" s="77"/>
-      <c r="F83" s="77"/>
-      <c r="G83" s="60" t="s">
+      <c r="A83" s="58"/>
+      <c r="B83" s="58"/>
+      <c r="C83" s="58"/>
+      <c r="D83" s="58"/>
+      <c r="E83" s="58"/>
+      <c r="F83" s="58"/>
+      <c r="G83" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="H83" s="60" t="s">
+      <c r="H83" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="J83" s="53"/>
-      <c r="K83" s="53"/>
-      <c r="L83" s="53"/>
-      <c r="M83" s="53"/>
-      <c r="N83" s="53"/>
-      <c r="O83" s="53"/>
+      <c r="J83" s="41"/>
+      <c r="K83" s="41"/>
+      <c r="L83" s="41"/>
+      <c r="M83" s="41"/>
+      <c r="N83" s="41"/>
+      <c r="O83" s="41"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A84" s="99" t="s">
+      <c r="A84" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="B84" s="99">
+      <c r="B84" s="57">
         <v>100</v>
       </c>
-      <c r="C84" s="85" t="s">
+      <c r="C84" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="D84" s="63" t="s">
+      <c r="D84" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="E84" s="67" t="s">
+      <c r="E84" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="F84" s="85" t="s">
+      <c r="F84" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="G84" s="102">
+      <c r="G84" s="61">
         <f>100-0.14</f>
         <v>99.86</v>
       </c>
-      <c r="H84" s="102">
+      <c r="H84" s="61">
         <f>100+0.14</f>
         <v>100.14</v>
       </c>
-      <c r="J84" s="54"/>
-      <c r="K84" s="54"/>
-      <c r="L84" s="54"/>
-      <c r="M84" s="55"/>
-      <c r="N84" s="55"/>
-      <c r="O84" s="24"/>
+      <c r="J84" s="42"/>
+      <c r="K84" s="42"/>
+      <c r="L84" s="42"/>
+      <c r="M84" s="92"/>
+      <c r="N84" s="92"/>
+      <c r="O84" s="16"/>
     </row>
     <row r="85" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="99"/>
-      <c r="B85" s="99"/>
-      <c r="C85" s="85"/>
-      <c r="D85" s="63" t="s">
+      <c r="A85" s="57"/>
+      <c r="B85" s="57"/>
+      <c r="C85" s="63"/>
+      <c r="D85" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="E85" s="67" t="s">
+      <c r="E85" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="F85" s="85"/>
-      <c r="G85" s="102"/>
-      <c r="H85" s="102"/>
-      <c r="J85" s="10"/>
-      <c r="K85" s="19"/>
-      <c r="L85" s="19"/>
-      <c r="M85" s="55"/>
-      <c r="N85" s="55"/>
-      <c r="O85" s="24"/>
+      <c r="F85" s="63"/>
+      <c r="G85" s="61"/>
+      <c r="H85" s="61"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="92"/>
+      <c r="N85" s="92"/>
+      <c r="O85" s="16"/>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86" s="99" t="s">
+      <c r="A86" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="B86" s="99">
+      <c r="B86" s="57">
         <v>1</v>
       </c>
-      <c r="C86" s="100" t="s">
+      <c r="C86" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="D86" s="63" t="s">
+      <c r="D86" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="E86" s="67" t="s">
+      <c r="E86" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="F86" s="100" t="s">
+      <c r="F86" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="G86" s="101">
+      <c r="G86" s="60">
         <f>1-0.0014</f>
         <v>0.99860000000000004</v>
       </c>
-      <c r="H86" s="99">
+      <c r="H86" s="57">
         <f>1+0.0014</f>
         <v>1.0014000000000001</v>
       </c>
-      <c r="J86" s="10"/>
-      <c r="K86" s="19"/>
-      <c r="L86" s="19"/>
-      <c r="M86" s="55"/>
-      <c r="N86" s="55"/>
-      <c r="O86" s="24"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="92"/>
+      <c r="N86" s="92"/>
+      <c r="O86" s="16"/>
     </row>
     <row r="87" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="99"/>
-      <c r="B87" s="99"/>
-      <c r="C87" s="100"/>
-      <c r="D87" s="63" t="s">
+      <c r="A87" s="57"/>
+      <c r="B87" s="57"/>
+      <c r="C87" s="57"/>
+      <c r="D87" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="E87" s="67" t="s">
+      <c r="E87" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="F87" s="100"/>
-      <c r="G87" s="101"/>
-      <c r="H87" s="99"/>
-      <c r="J87" s="10"/>
-      <c r="K87" s="10"/>
-      <c r="L87" s="19"/>
-      <c r="M87" s="55"/>
-      <c r="N87" s="55"/>
-      <c r="O87" s="24"/>
+      <c r="F87" s="57"/>
+      <c r="G87" s="60"/>
+      <c r="H87" s="57"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="92"/>
+      <c r="N87" s="92"/>
+      <c r="O87" s="16"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88" s="99" t="s">
+      <c r="A88" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="B88" s="62">
+      <c r="B88" s="53">
         <v>100</v>
       </c>
-      <c r="C88" s="63" t="s">
+      <c r="C88" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="D88" s="100" t="s">
+      <c r="D88" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="E88" s="67" t="s">
+      <c r="E88" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="F88" s="63" t="s">
+      <c r="F88" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="G88" s="64">
+      <c r="G88" s="52">
         <f>100-4.1</f>
         <v>95.9</v>
       </c>
-      <c r="H88" s="64">
+      <c r="H88" s="52">
         <f>100+4.1</f>
         <v>104.1</v>
       </c>
-      <c r="J88" s="10"/>
-      <c r="K88" s="10"/>
-      <c r="L88" s="19"/>
-      <c r="M88" s="55"/>
-      <c r="N88" s="55"/>
-      <c r="O88" s="24"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="92"/>
+      <c r="N88" s="92"/>
+      <c r="O88" s="16"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89" s="99"/>
-      <c r="B89" s="62">
+      <c r="A89" s="57"/>
+      <c r="B89" s="53">
         <v>1</v>
       </c>
-      <c r="C89" s="100" t="s">
+      <c r="C89" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="D89" s="100"/>
-      <c r="E89" s="67" t="s">
+      <c r="D89" s="57"/>
+      <c r="E89" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="F89" s="100" t="s">
+      <c r="F89" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="G89" s="17">
+      <c r="G89" s="56">
         <f>1-0.005</f>
         <v>0.995</v>
       </c>
-      <c r="H89" s="62">
+      <c r="H89" s="53">
         <f>1+0.005</f>
         <v>1.0049999999999999</v>
       </c>
-      <c r="J89" s="10"/>
-      <c r="K89" s="10"/>
-      <c r="L89" s="19"/>
-      <c r="M89" s="55"/>
-      <c r="N89" s="55"/>
-      <c r="O89" s="24"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="92"/>
+      <c r="N89" s="92"/>
+      <c r="O89" s="16"/>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="99"/>
-      <c r="B90" s="99">
+      <c r="A90" s="57"/>
+      <c r="B90" s="57">
         <v>10</v>
       </c>
-      <c r="C90" s="100"/>
-      <c r="D90" s="100"/>
-      <c r="E90" s="67" t="s">
+      <c r="C90" s="57"/>
+      <c r="D90" s="57"/>
+      <c r="E90" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="F90" s="100"/>
-      <c r="G90" s="103">
+      <c r="F90" s="57"/>
+      <c r="G90" s="62">
         <f>10-0.014</f>
         <v>9.9860000000000007</v>
       </c>
-      <c r="H90" s="99">
+      <c r="H90" s="57">
         <f>10+0.014</f>
         <v>10.013999999999999</v>
       </c>
-      <c r="J90" s="10"/>
-      <c r="K90" s="19"/>
-      <c r="L90" s="19"/>
-      <c r="M90" s="55"/>
-      <c r="N90" s="55"/>
-      <c r="O90" s="24"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="92"/>
+      <c r="N90" s="92"/>
+      <c r="O90" s="16"/>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A91" s="99"/>
-      <c r="B91" s="99"/>
-      <c r="C91" s="100"/>
-      <c r="D91" s="63" t="s">
+      <c r="A91" s="57"/>
+      <c r="B91" s="57"/>
+      <c r="C91" s="57"/>
+      <c r="D91" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="E91" s="67" t="s">
+      <c r="E91" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="F91" s="100"/>
-      <c r="G91" s="103"/>
-      <c r="H91" s="99"/>
-      <c r="J91" s="10"/>
-      <c r="K91" s="19"/>
-      <c r="L91" s="19"/>
-      <c r="M91" s="55"/>
-      <c r="N91" s="55"/>
-      <c r="O91" s="24"/>
+      <c r="F91" s="57"/>
+      <c r="G91" s="62"/>
+      <c r="H91" s="57"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="11"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="92"/>
+      <c r="N91" s="92"/>
+      <c r="O91" s="16"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92" s="99" t="s">
+      <c r="A92" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="B92" s="100">
+      <c r="B92" s="57">
         <v>100</v>
       </c>
-      <c r="C92" s="100" t="s">
+      <c r="C92" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="D92" s="63" t="s">
+      <c r="D92" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="E92" s="67" t="s">
+      <c r="E92" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="F92" s="100" t="s">
+      <c r="F92" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="G92" s="102">
+      <c r="G92" s="61">
         <f>100-0.14</f>
         <v>99.86</v>
       </c>
-      <c r="H92" s="99">
+      <c r="H92" s="57">
         <f>100+0.14</f>
         <v>100.14</v>
       </c>
-      <c r="J92" s="10"/>
-      <c r="K92" s="19"/>
-      <c r="L92" s="19"/>
-      <c r="M92" s="55"/>
-      <c r="N92" s="55"/>
-      <c r="O92" s="24"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="92"/>
+      <c r="N92" s="92"/>
+      <c r="O92" s="16"/>
     </row>
     <row r="93" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="99"/>
-      <c r="B93" s="100"/>
-      <c r="C93" s="100"/>
-      <c r="D93" s="63" t="s">
+      <c r="A93" s="57"/>
+      <c r="B93" s="57"/>
+      <c r="C93" s="57"/>
+      <c r="D93" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="E93" s="67" t="s">
+      <c r="E93" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="F93" s="100"/>
-      <c r="G93" s="102"/>
-      <c r="H93" s="99"/>
-      <c r="J93" s="10"/>
-      <c r="K93" s="19"/>
-      <c r="L93" s="19"/>
-      <c r="M93" s="55"/>
-      <c r="N93" s="55"/>
-      <c r="O93" s="24"/>
+      <c r="F93" s="57"/>
+      <c r="G93" s="61"/>
+      <c r="H93" s="57"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="11"/>
+      <c r="L93" s="11"/>
+      <c r="M93" s="92"/>
+      <c r="N93" s="92"/>
+      <c r="O93" s="16"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94" s="99"/>
-      <c r="B94" s="100"/>
-      <c r="C94" s="100"/>
-      <c r="D94" s="63" t="s">
+      <c r="A94" s="57"/>
+      <c r="B94" s="57"/>
+      <c r="C94" s="57"/>
+      <c r="D94" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="E94" s="67" t="s">
+      <c r="E94" s="90" t="s">
         <v>96</v>
       </c>
-      <c r="F94" s="100"/>
-      <c r="G94" s="102"/>
-      <c r="H94" s="99"/>
-      <c r="J94" s="10"/>
-      <c r="K94" s="19"/>
-      <c r="L94" s="19"/>
-      <c r="M94" s="55"/>
-      <c r="N94" s="55"/>
-      <c r="O94" s="24"/>
+      <c r="F94" s="57"/>
+      <c r="G94" s="61"/>
+      <c r="H94" s="57"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="11"/>
+      <c r="L94" s="11"/>
+      <c r="M94" s="92"/>
+      <c r="N94" s="92"/>
+      <c r="O94" s="16"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A95" s="99" t="s">
+      <c r="A95" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="B95" s="99">
+      <c r="B95" s="57">
         <v>1</v>
       </c>
-      <c r="C95" s="100" t="s">
+      <c r="C95" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="D95" s="63" t="s">
+      <c r="D95" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="E95" s="67" t="s">
+      <c r="E95" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="F95" s="100" t="s">
+      <c r="F95" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="G95" s="101">
+      <c r="G95" s="60">
         <f>1-0.0014</f>
         <v>0.99860000000000004</v>
       </c>
-      <c r="H95" s="99">
+      <c r="H95" s="57">
         <f>1+0.0014</f>
         <v>1.0014000000000001</v>
       </c>
-      <c r="J95" s="10"/>
-      <c r="K95" s="19"/>
-      <c r="L95" s="19"/>
-      <c r="M95" s="55"/>
-      <c r="N95" s="55"/>
-      <c r="O95" s="24"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="11"/>
+      <c r="L95" s="11"/>
+      <c r="M95" s="92"/>
+      <c r="N95" s="92"/>
+      <c r="O95" s="16"/>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A96" s="99"/>
-      <c r="B96" s="99"/>
-      <c r="C96" s="100"/>
-      <c r="D96" s="63" t="s">
+      <c r="A96" s="57"/>
+      <c r="B96" s="57"/>
+      <c r="C96" s="57"/>
+      <c r="D96" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="E96" s="67" t="s">
+      <c r="E96" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="F96" s="100"/>
-      <c r="G96" s="101"/>
-      <c r="H96" s="99"/>
-      <c r="J96" s="10"/>
-      <c r="K96" s="19"/>
-      <c r="L96" s="19"/>
-      <c r="M96" s="55"/>
-      <c r="N96" s="55"/>
-      <c r="O96" s="24"/>
+      <c r="F96" s="57"/>
+      <c r="G96" s="60"/>
+      <c r="H96" s="57"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="11"/>
+      <c r="L96" s="11"/>
+      <c r="M96" s="92"/>
+      <c r="N96" s="92"/>
+      <c r="O96" s="16"/>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A97" s="99" t="s">
+      <c r="A97" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="B97" s="99">
+      <c r="B97" s="57">
         <v>2</v>
       </c>
-      <c r="C97" s="100" t="s">
+      <c r="C97" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="D97" s="63" t="s">
+      <c r="D97" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="E97" s="67" t="s">
+      <c r="E97" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="F97" s="100" t="s">
+      <c r="F97" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="G97" s="101">
+      <c r="G97" s="60">
         <f>2-0.0058</f>
         <v>1.9942</v>
       </c>
-      <c r="H97" s="99">
+      <c r="H97" s="57">
         <f>2+0.0058</f>
         <v>2.0057999999999998</v>
       </c>
-      <c r="J97" s="10"/>
-      <c r="K97" s="19"/>
-      <c r="L97" s="19"/>
-      <c r="M97" s="55"/>
-      <c r="N97" s="55"/>
-      <c r="O97" s="24"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="11"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="92"/>
+      <c r="N97" s="92"/>
+      <c r="O97" s="16"/>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A98" s="99"/>
-      <c r="B98" s="99"/>
-      <c r="C98" s="100"/>
-      <c r="D98" s="63" t="s">
+      <c r="A98" s="57"/>
+      <c r="B98" s="57"/>
+      <c r="C98" s="57"/>
+      <c r="D98" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="E98" s="67" t="s">
+      <c r="E98" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="F98" s="100"/>
-      <c r="G98" s="101"/>
-      <c r="H98" s="99"/>
-      <c r="J98" s="10"/>
-      <c r="K98" s="19"/>
-      <c r="L98" s="19"/>
-      <c r="M98" s="55"/>
-      <c r="N98" s="55"/>
-      <c r="O98" s="24"/>
+      <c r="F98" s="57"/>
+      <c r="G98" s="60"/>
+      <c r="H98" s="57"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="11"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="92"/>
+      <c r="N98" s="92"/>
+      <c r="O98" s="16"/>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A99" s="62" t="s">
+      <c r="A99" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="B99" s="62">
+      <c r="B99" s="53">
         <v>10</v>
       </c>
-      <c r="C99" s="62" t="s">
+      <c r="C99" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="D99" s="63" t="s">
+      <c r="D99" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="E99" s="67" t="s">
+      <c r="E99" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="F99" s="62" t="s">
+      <c r="F99" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="G99" s="61">
+      <c r="G99" s="50">
         <f>10-0.019</f>
         <v>9.9809999999999999</v>
       </c>
-      <c r="H99" s="61">
+      <c r="H99" s="50">
         <f>10+0.019</f>
         <v>10.019</v>
       </c>
-      <c r="J99" s="10"/>
-      <c r="K99" s="19"/>
-      <c r="L99" s="19"/>
-      <c r="M99" s="55"/>
-      <c r="N99" s="55"/>
-      <c r="O99" s="24"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="11"/>
+      <c r="L99" s="11"/>
+      <c r="M99" s="92"/>
+      <c r="N99" s="92"/>
+      <c r="O99" s="16"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A100" s="19"/>
-      <c r="B100" s="19"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="69"/>
-      <c r="E100" s="70"/>
-      <c r="F100" s="19"/>
-      <c r="G100" s="37"/>
-      <c r="H100" s="37"/>
-      <c r="J100" s="10"/>
-      <c r="K100" s="19"/>
-      <c r="L100" s="19"/>
-      <c r="M100" s="55"/>
-      <c r="N100" s="55"/>
-      <c r="O100" s="24"/>
+      <c r="A100" s="11"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="91"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="29"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="11"/>
+      <c r="L100" s="11"/>
+      <c r="M100" s="92"/>
+      <c r="N100" s="92"/>
+      <c r="O100" s="16"/>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A101" s="25" t="s">
+      <c r="A101" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
-      <c r="D101" s="21"/>
-      <c r="E101" s="22"/>
-      <c r="F101" s="24"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="16"/>
     </row>
     <row r="102" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="77" t="s">
+      <c r="A102" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="B102" s="104" t="s">
+      <c r="B102" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="C102" s="77" t="s">
+      <c r="C102" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="D102" s="77"/>
-      <c r="E102" s="77" t="s">
+      <c r="D102" s="58"/>
+      <c r="E102" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="F102" s="77"/>
-      <c r="G102" s="77" t="s">
+      <c r="F102" s="58"/>
+      <c r="G102" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="H102" s="77"/>
+      <c r="H102" s="58"/>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A103" s="77"/>
-      <c r="B103" s="104"/>
-      <c r="C103" s="77"/>
-      <c r="D103" s="77"/>
-      <c r="E103" s="77"/>
-      <c r="F103" s="77"/>
-      <c r="G103" s="60" t="s">
+      <c r="A103" s="58"/>
+      <c r="B103" s="59"/>
+      <c r="C103" s="58"/>
+      <c r="D103" s="58"/>
+      <c r="E103" s="58"/>
+      <c r="F103" s="58"/>
+      <c r="G103" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="H103" s="60" t="s">
+      <c r="H103" s="49" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A104" s="60" t="s">
+      <c r="A104" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="B104" s="60" t="s">
+      <c r="B104" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="C104" s="30">
+      <c r="C104" s="22">
         <v>10</v>
       </c>
-      <c r="D104" s="65" t="s">
+      <c r="D104" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="E104" s="67" t="s">
+      <c r="E104" s="90" t="s">
         <v>101</v>
       </c>
-      <c r="F104" s="65" t="s">
+      <c r="F104" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="G104" s="17">
+      <c r="G104" s="56">
         <f>10-0.003</f>
         <v>9.9969999999999999</v>
       </c>
-      <c r="H104" s="58">
+      <c r="H104" s="44">
         <f>10+0.003</f>
         <v>10.003</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A105" s="60" t="s">
+      <c r="A105" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="B105" s="60" t="s">
+      <c r="B105" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="C105" s="30">
+      <c r="C105" s="22">
         <v>300</v>
       </c>
-      <c r="D105" s="65" t="s">
+      <c r="D105" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="E105" s="67" t="s">
+      <c r="E105" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="F105" s="65" t="s">
+      <c r="F105" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="G105" s="64">
+      <c r="G105" s="52">
         <f>300-0.3</f>
         <v>299.7</v>
       </c>
-      <c r="H105" s="60">
+      <c r="H105" s="49">
         <f>300+0.3</f>
         <v>300.3</v>
       </c>
     </row>
-    <row r="106" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="56"/>
-      <c r="B106" s="54"/>
-      <c r="C106" s="54"/>
-      <c r="D106" s="55"/>
-      <c r="E106" s="55"/>
-      <c r="F106" s="54"/>
-      <c r="G106" s="14"/>
-      <c r="H106" s="14"/>
-      <c r="I106" s="14"/>
+    <row r="106" spans="1:15" s="93" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="43"/>
+      <c r="B106" s="42"/>
+      <c r="C106" s="42"/>
+      <c r="D106" s="92"/>
+      <c r="E106" s="92"/>
+      <c r="F106" s="42"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
+      <c r="I106" s="10"/>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A107" s="8" t="s">
+      <c r="A107" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B107" s="19"/>
-      <c r="C107" s="19"/>
-      <c r="D107" s="21"/>
-      <c r="E107" s="22"/>
-      <c r="F107" s="24"/>
-    </row>
-    <row r="108" spans="1:15" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="8" t="s">
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="16"/>
+    </row>
+    <row r="108" spans="1:15" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B108" s="26"/>
-      <c r="C108" s="26"/>
-      <c r="D108" s="27"/>
-      <c r="E108" s="28"/>
-      <c r="F108" s="29"/>
-      <c r="G108" s="8"/>
-      <c r="H108" s="8"/>
-      <c r="I108" s="8"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="20"/>
+      <c r="F108" s="21"/>
     </row>
     <row r="109" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="77" t="s">
+      <c r="A109" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="B109" s="77" t="s">
+      <c r="B109" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="C109" s="77"/>
-      <c r="D109" s="77" t="s">
+      <c r="C109" s="58"/>
+      <c r="D109" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="E109" s="77"/>
-      <c r="F109" s="77" t="s">
+      <c r="E109" s="58"/>
+      <c r="F109" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="G109" s="77"/>
+      <c r="G109" s="58"/>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A110" s="77"/>
-      <c r="B110" s="77"/>
-      <c r="C110" s="77"/>
-      <c r="D110" s="77"/>
-      <c r="E110" s="77"/>
-      <c r="F110" s="60" t="s">
+      <c r="A110" s="58"/>
+      <c r="B110" s="58"/>
+      <c r="C110" s="58"/>
+      <c r="D110" s="58"/>
+      <c r="E110" s="58"/>
+      <c r="F110" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="G110" s="60" t="s">
+      <c r="G110" s="49" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A111" s="30" t="s">
+      <c r="A111" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="B111" s="30">
+      <c r="B111" s="22">
         <v>100</v>
       </c>
-      <c r="C111" s="65" t="s">
+      <c r="C111" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="D111" s="67" t="s">
+      <c r="D111" s="90" t="s">
         <v>103</v>
       </c>
-      <c r="E111" s="65" t="s">
+      <c r="E111" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="F111" s="17">
+      <c r="F111" s="56">
         <f>100-0.014</f>
         <v>99.986000000000004</v>
       </c>
-      <c r="G111" s="17">
+      <c r="G111" s="56">
         <f>100+0.014</f>
         <v>100.014</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A112" s="30" t="s">
+      <c r="A112" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="B112" s="30">
+      <c r="B112" s="22">
         <v>1</v>
       </c>
-      <c r="C112" s="85" t="s">
+      <c r="C112" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="D112" s="67" t="s">
+      <c r="D112" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="E112" s="85" t="s">
+      <c r="E112" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="F112" s="52">
+      <c r="F112" s="40">
         <f>1-0.00011</f>
         <v>0.99988999999999995</v>
       </c>
-      <c r="G112" s="52">
+      <c r="G112" s="40">
         <f>1+0.00011</f>
         <v>1.0001100000000001</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="30" t="s">
+      <c r="A113" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B113" s="30">
+      <c r="B113" s="22">
         <v>10</v>
       </c>
-      <c r="C113" s="85"/>
-      <c r="D113" s="67" t="s">
+      <c r="C113" s="63"/>
+      <c r="D113" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="E113" s="85"/>
-      <c r="F113" s="15">
+      <c r="E113" s="63"/>
+      <c r="F113" s="54">
         <f>10-0.0011</f>
         <v>9.9989000000000008</v>
       </c>
-      <c r="G113" s="15">
+      <c r="G113" s="54">
         <f>10+0.0011</f>
         <v>10.001099999999999</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="30" t="s">
+      <c r="A114" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="B114" s="30">
+      <c r="B114" s="22">
         <v>100</v>
       </c>
-      <c r="C114" s="85"/>
-      <c r="D114" s="67" t="s">
+      <c r="C114" s="63"/>
+      <c r="D114" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="E114" s="85"/>
-      <c r="F114" s="17">
+      <c r="E114" s="63"/>
+      <c r="F114" s="56">
         <f>100-0.011</f>
         <v>99.989000000000004</v>
       </c>
-      <c r="G114" s="17">
+      <c r="G114" s="56">
         <f>100+0.011</f>
         <v>100.011</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="31"/>
-      <c r="B115" s="31"/>
-      <c r="C115" s="32"/>
-      <c r="D115" s="33"/>
-      <c r="E115" s="34"/>
-      <c r="F115" s="24"/>
-    </row>
-    <row r="116" spans="1:9" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="36" t="s">
+      <c r="A115" s="23"/>
+      <c r="B115" s="23"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="25"/>
+      <c r="E115" s="26"/>
+      <c r="F115" s="16"/>
+    </row>
+    <row r="116" spans="1:9" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="B116" s="26"/>
-      <c r="C116" s="26"/>
-      <c r="D116" s="27"/>
-      <c r="E116" s="28"/>
-      <c r="F116" s="29"/>
-      <c r="G116" s="8"/>
-      <c r="H116" s="8"/>
-      <c r="I116" s="8"/>
+      <c r="B116" s="18"/>
+      <c r="C116" s="18"/>
+      <c r="D116" s="19"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="21"/>
     </row>
     <row r="117" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="77" t="s">
+      <c r="A117" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="B117" s="77" t="s">
+      <c r="B117" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="C117" s="77"/>
-      <c r="D117" s="77" t="s">
+      <c r="C117" s="58"/>
+      <c r="D117" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="E117" s="77"/>
-      <c r="F117" s="77" t="s">
+      <c r="E117" s="58"/>
+      <c r="F117" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="G117" s="77"/>
+      <c r="G117" s="58"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="77"/>
-      <c r="B118" s="77"/>
-      <c r="C118" s="77"/>
-      <c r="D118" s="77"/>
-      <c r="E118" s="77"/>
-      <c r="F118" s="60" t="s">
+      <c r="A118" s="58"/>
+      <c r="B118" s="58"/>
+      <c r="C118" s="58"/>
+      <c r="D118" s="58"/>
+      <c r="E118" s="58"/>
+      <c r="F118" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="G118" s="60" t="s">
+      <c r="G118" s="49" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="30" t="s">
+      <c r="A119" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="B119" s="30">
+      <c r="B119" s="22">
         <v>1</v>
       </c>
-      <c r="C119" s="85" t="s">
+      <c r="C119" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="D119" s="67" t="s">
+      <c r="D119" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="E119" s="85" t="s">
+      <c r="E119" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="F119" s="52">
+      <c r="F119" s="40">
         <f>1-0.00011</f>
         <v>0.99988999999999995</v>
       </c>
-      <c r="G119" s="52">
+      <c r="G119" s="40">
         <f>1+0.00011</f>
         <v>1.0001100000000001</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="30" t="s">
+      <c r="A120" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="B120" s="30">
+      <c r="B120" s="22">
         <v>10</v>
       </c>
-      <c r="C120" s="85"/>
-      <c r="D120" s="67" t="s">
+      <c r="C120" s="63"/>
+      <c r="D120" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="E120" s="85"/>
-      <c r="F120" s="15">
+      <c r="E120" s="63"/>
+      <c r="F120" s="54">
         <f>10-0.0041</f>
         <v>9.9959000000000007</v>
       </c>
-      <c r="G120" s="15">
+      <c r="G120" s="54">
         <f>10+0.0041</f>
         <v>10.004099999999999</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="30" t="s">
+      <c r="A121" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="B121" s="30">
+      <c r="B121" s="22">
         <v>100</v>
       </c>
-      <c r="C121" s="85"/>
-      <c r="D121" s="67" t="s">
+      <c r="C121" s="63"/>
+      <c r="D121" s="90" t="s">
         <v>109</v>
       </c>
-      <c r="E121" s="85"/>
-      <c r="F121" s="17">
+      <c r="E121" s="63"/>
+      <c r="F121" s="56">
         <f>100-0.081</f>
         <v>99.918999999999997</v>
       </c>
-      <c r="G121" s="17">
+      <c r="G121" s="56">
         <f>100+0.081</f>
         <v>100.081</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="35"/>
-      <c r="B122" s="35"/>
-      <c r="C122" s="55"/>
-      <c r="D122" s="55"/>
-      <c r="E122" s="24"/>
-      <c r="F122" s="24"/>
-      <c r="G122" s="14"/>
-      <c r="H122" s="14"/>
-      <c r="I122" s="14"/>
+    <row r="122" spans="1:9" s="93" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="27"/>
+      <c r="B122" s="27"/>
+      <c r="C122" s="92"/>
+      <c r="D122" s="92"/>
+      <c r="E122" s="16"/>
+      <c r="F122" s="16"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="10"/>
+      <c r="I122" s="10"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="73" t="s">
+      <c r="A123" s="67" t="s">
         <v>167</v>
       </c>
-      <c r="B123" s="73"/>
-      <c r="C123" s="68" t="s">
+      <c r="B123" s="67"/>
+      <c r="C123" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="24"/>
-      <c r="I123" s="2"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="16"/>
+      <c r="I123" s="83"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="73" t="s">
+      <c r="A124" s="67" t="s">
         <v>169</v>
       </c>
-      <c r="B124" s="73"/>
-      <c r="C124" s="38"/>
-      <c r="D124" s="39" t="s">
+      <c r="B124" s="67"/>
+      <c r="C124" s="30"/>
+      <c r="D124" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E124" s="74" t="s">
+      <c r="E124" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="F124" s="75"/>
-      <c r="G124" s="14" t="s">
+      <c r="F124" s="77"/>
+      <c r="G124" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H124" s="40"/>
-      <c r="I124" s="2"/>
+      <c r="H124" s="32"/>
+      <c r="I124" s="83"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="73" t="s">
+      <c r="A125" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B125" s="73"/>
-      <c r="C125" s="86" t="s">
+      <c r="B125" s="67"/>
+      <c r="C125" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="D125" s="86"/>
-      <c r="I125" s="2"/>
+      <c r="D125" s="95"/>
+      <c r="I125" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="142">
-    <mergeCell ref="H97:H98"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:D103"/>
-    <mergeCell ref="E102:F103"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="H92:H94"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="F92:F94"/>
-    <mergeCell ref="G92:G94"/>
-    <mergeCell ref="G86:G87"/>
-    <mergeCell ref="H86:H87"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="D88:D90"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="F89:F91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="E73:E75"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="E76:E79"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B70:C71"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="B31:C32"/>
+    <mergeCell ref="D31:E32"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="E112:E114"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="D70:E71"/>
+    <mergeCell ref="B82:C83"/>
+    <mergeCell ref="E82:F83"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="B117:C118"/>
+    <mergeCell ref="D117:E118"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="E119:E121"/>
+    <mergeCell ref="B109:C110"/>
+    <mergeCell ref="D109:E110"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="C112:C114"/>
+    <mergeCell ref="G82:H82"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C35:C43"/>
     <mergeCell ref="E35:E43"/>
@@ -3831,78 +3794,52 @@
     <mergeCell ref="E46:F47"/>
     <mergeCell ref="A51:A53"/>
     <mergeCell ref="B51:B53"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="D70:E71"/>
-    <mergeCell ref="B82:C83"/>
-    <mergeCell ref="E82:F83"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="B117:C118"/>
-    <mergeCell ref="D117:E118"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="E119:E121"/>
-    <mergeCell ref="B109:C110"/>
-    <mergeCell ref="D109:E110"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="C112:C114"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="E112:E114"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="B31:C32"/>
-    <mergeCell ref="D31:E32"/>
-    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="E73:E75"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="E76:E79"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B70:C71"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="D88:D90"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="F89:F91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="H92:H94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="F92:F94"/>
+    <mergeCell ref="G92:G94"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:D103"/>
+    <mergeCell ref="E102:F103"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.39370078740157483" bottom="0.61635416666666665" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
